--- a/global/Item.xlsx
+++ b/global/Item.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Hero" sheetId="1" r:id="rId4"/>
+    <sheet name="Hero" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -131,49 +134,231 @@
     <t>[]int32</t>
   </si>
   <si>
-    <t>物品1</t>
-  </si>
-  <si>
-    <t>物品1描述</t>
-  </si>
-  <si>
-    <t>物品2</t>
-  </si>
-  <si>
-    <t>物品2描述</t>
+    <t>经验药水1</t>
+  </si>
+  <si>
+    <t>卡牌升级经验道具</t>
+  </si>
+  <si>
+    <t>经验药水2</t>
+  </si>
+  <si>
+    <t>经验药水3</t>
+  </si>
+  <si>
+    <t>经验药水4</t>
+  </si>
+  <si>
+    <t>经验药水5</t>
+  </si>
+  <si>
+    <t>突破道具1</t>
+  </si>
+  <si>
+    <t>第1次突破道具</t>
+  </si>
+  <si>
+    <t>突破道具2</t>
+  </si>
+  <si>
+    <t>第2次突破道具</t>
+  </si>
+  <si>
+    <t>突破道具3</t>
+  </si>
+  <si>
+    <t>第3次突破道具</t>
+  </si>
+  <si>
+    <t>突破道具4</t>
+  </si>
+  <si>
+    <t>第4次突破道具</t>
+  </si>
+  <si>
+    <t>突破道具5</t>
+  </si>
+  <si>
+    <t>第5次突破道具</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="SimSun"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,17 +368,203 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -203,42 +574,46 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -246,112 +621,356 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color rgb="FFB2B2B2"/>
       </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff92d050"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="0092D050"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office 主题​​">
       <a:dk1>
@@ -477,7 +1096,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -486,7 +1105,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -495,7 +1114,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -569,13 +1188,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -595,8 +1213,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -625,8 +1242,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -651,8 +1267,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -677,8 +1292,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -703,8 +1317,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -729,8 +1342,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -755,8 +1367,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -781,8 +1392,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -807,8 +1417,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -833,8 +1442,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -847,9 +1455,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -864,13 +1478,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -890,8 +1503,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -916,8 +1528,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -942,8 +1553,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -968,8 +1578,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -994,8 +1603,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1020,8 +1628,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1046,8 +1653,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1072,8 +1678,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1098,8 +1703,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1124,8 +1728,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1138,9 +1741,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1151,8 +1760,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1172,8 +1779,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1202,8 +1808,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1228,8 +1833,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1254,8 +1858,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1280,8 +1883,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1306,8 +1908,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1332,8 +1933,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1358,8 +1958,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1384,8 +1983,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1410,8 +2008,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1424,9 +2021,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -1435,30 +2038,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:J16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.17188" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.35156" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.35156" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1719" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.8516" style="1" customWidth="1"/>
-    <col min="12" max="13" width="17.3516" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="19.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="14" customHeight="1" spans="1:13">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -1474,248 +2068,528 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" ht="58" customHeight="1">
+    <row r="2" ht="58" customHeight="1" spans="1:13">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" t="s" s="4">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" t="s" s="4">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" t="s" s="4">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" t="s" s="4">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" t="s" s="4">
+      <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" t="s" s="4">
+      <c r="M2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.15" customHeight="1">
+    <row r="3" ht="16.15" customHeight="1" spans="1:13">
       <c r="A3" s="3"/>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s" s="8">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s" s="8">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s" s="8">
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s" s="8">
+      <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s" s="8">
+      <c r="I3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s" s="8">
+      <c r="J3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="s" s="8">
+      <c r="K3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L3" t="s" s="8">
+      <c r="L3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M3" t="s" s="8">
+      <c r="M3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1">
+    <row r="4" ht="16.15" customHeight="1" spans="1:13">
       <c r="A4" s="3"/>
-      <c r="B4" t="s" s="5">
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s" s="6">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s" s="8">
+      <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s" s="8">
+      <c r="F4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s" s="8">
+      <c r="G4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s" s="8">
+      <c r="H4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" t="s" s="8">
+      <c r="I4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" t="s" s="8">
+      <c r="J4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K4" t="s" s="8">
+      <c r="K4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L4" t="s" s="8">
+      <c r="L4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M4" t="s" s="8">
+      <c r="M4" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1">
+    <row r="5" ht="16.15" customHeight="1" spans="1:13">
       <c r="A5" s="3"/>
-      <c r="B5" t="s" s="5">
+      <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" t="s" s="7">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s" s="8">
+      <c r="E5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1">
+    <row r="6" ht="16.15" customHeight="1" spans="1:13">
       <c r="A6" s="3"/>
-      <c r="B6" t="s" s="5">
+      <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s" s="6">
+      <c r="C6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s" s="7">
+      <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s" s="8">
+      <c r="E6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s" s="8">
+      <c r="F6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G6" t="s" s="8">
+      <c r="G6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H6" t="s" s="8">
+      <c r="H6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I6" t="s" s="8">
+      <c r="I6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J6" t="s" s="8">
+      <c r="J6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K6" t="s" s="8">
+      <c r="K6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L6" t="s" s="8">
+      <c r="L6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M6" t="s" s="8">
+      <c r="M6" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1">
+    <row r="7" ht="25" customHeight="1" spans="1:13">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="9">
+      <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" t="s" s="10">
+      <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="s" s="10">
+      <c r="E7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="5">
         <v>0</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="5">
         <v>0</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="5">
         <v>0</v>
       </c>
-      <c r="I7" s="9">
-        <v>1</v>
-      </c>
-      <c r="J7" s="9">
-        <v>-1</v>
-      </c>
-      <c r="K7" s="9">
-        <v>60</v>
-      </c>
-      <c r="L7" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M7" s="9">
+      <c r="I7" s="5">
+        <v>999</v>
+      </c>
+      <c r="J7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1">
+    <row r="8" ht="25" customHeight="1" spans="1:13">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="11">
+      <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="D8" t="s" s="2">
+      <c r="D8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s" s="2">
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>999</v>
+      </c>
+      <c r="J8" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="3:13">
+      <c r="C9" s="5">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="11">
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="5">
         <v>0</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G9" s="5">
         <v>0</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H9" s="5">
+        <v>2</v>
+      </c>
+      <c r="I9" s="5">
+        <v>999</v>
+      </c>
+      <c r="J9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:13">
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3</v>
+      </c>
+      <c r="I10" s="5">
+        <v>999</v>
+      </c>
+      <c r="J10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:13">
+      <c r="C11" s="5">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>4</v>
+      </c>
+      <c r="I11" s="5">
+        <v>999</v>
+      </c>
+      <c r="J11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:13">
+      <c r="C12" s="5">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>9999</v>
+      </c>
+      <c r="J12" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:13">
+      <c r="C13" s="5">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
         <v>1</v>
       </c>
-      <c r="I8" s="11">
-        <v>1</v>
-      </c>
-      <c r="J8" s="11">
-        <v>-1</v>
-      </c>
-      <c r="K8" s="11">
-        <v>60</v>
-      </c>
-      <c r="L8" s="11">
+      <c r="I13" s="1">
+        <v>9999</v>
+      </c>
+      <c r="J13" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L13" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:13">
+      <c r="C14" s="5">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="5">
         <v>0</v>
       </c>
-      <c r="M8" s="11">
-        <v>1</v>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>9999</v>
+      </c>
+      <c r="J14" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K14" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L14" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M14" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:13">
+      <c r="C15" s="5">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1">
+        <v>9999</v>
+      </c>
+      <c r="J15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:13">
+      <c r="C16" s="5">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1">
+        <v>9999</v>
+      </c>
+      <c r="J16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M16" s="5">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/global/Item.xlsx
+++ b/global/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -37,6 +37,12 @@
     <t>永久物品填-1</t>
   </si>
   <si>
+    <t>时限开始时间</t>
+  </si>
+  <si>
+    <t>公式生成时间戳，策划不用填</t>
+  </si>
+  <si>
     <t>-1：无效果  0: 掉落物品  </t>
@@ -59,6 +65,9 @@
     <t>desc</t>
   </si>
   <si>
+    <t>icon</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
@@ -77,6 +86,12 @@
     <t>timeLife</t>
   </si>
   <si>
+    <t>timeStartLife</t>
+  </si>
+  <si>
+    <t>timeStartLifeStamp</t>
+  </si>
+  <si>
     <t>effectType</t>
   </si>
   <si>
@@ -92,6 +107,9 @@
     <t>物品描述</t>
   </si>
   <si>
+    <t>图标</t>
+  </si>
+  <si>
     <t>物品类型</t>
   </si>
   <si>
@@ -110,6 +128,9 @@
     <t>时限（分钟）</t>
   </si>
   <si>
+    <t>时限开始时间（unix时间戳）</t>
+  </si>
+  <si>
     <t>使用效果类型</t>
   </si>
   <si>
@@ -138,6 +159,9 @@
   </si>
   <si>
     <t>卡牌升级经验道具</t>
+  </si>
+  <si>
+    <t>icon_1</t>
   </si>
   <si>
     <t>经验药水2</t>
@@ -186,11 +210,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -208,91 +233,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,9 +247,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,15 +269,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,12 +292,96 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -379,187 +404,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,32 +613,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,26 +637,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -662,6 +657,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -676,221 +710,213 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -1225,7 +1251,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1791,7 +1817,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2038,20 +2064,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:J16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="19.25" style="1" customWidth="1"/>
+    <col min="1" max="12" width="19.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="26.3846153846154" style="1" customWidth="1"/>
+    <col min="14" max="14" width="32.1538461538462" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="19.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1" spans="1:13">
+    <row r="1" ht="14" customHeight="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2067,8 +2096,11 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
-    <row r="2" ht="58" customHeight="1" spans="1:13">
+    <row r="2" ht="58" customHeight="1" spans="1:16">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -2076,116 +2108,143 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:13">
+    <row r="3" ht="16.15" customHeight="1" spans="1:16">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:13">
+    <row r="4" ht="16.15" customHeight="1" spans="1:16">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:13">
+    <row r="5" ht="16.15" customHeight="1" spans="1:16">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -2193,60 +2252,70 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:13">
+    <row r="6" ht="16.15" customHeight="1" spans="1:16">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:13">
+    <row r="7" ht="25" customHeight="1" spans="1:16">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
@@ -2255,175 +2324,219 @@
         <v>0</v>
       </c>
       <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
         <v>999</v>
       </c>
-      <c r="J7" s="5">
-        <v>-1</v>
-      </c>
       <c r="K7" s="5">
         <v>-1</v>
       </c>
       <c r="L7" s="5">
-        <v>-1</v>
-      </c>
-      <c r="M7" s="5">
+        <v>30</v>
+      </c>
+      <c r="M7" s="6">
+        <v>44234.645625</v>
+      </c>
+      <c r="N7" s="5">
+        <f>(M7-70*365-19)*86400-8*3600</f>
+        <v>1612682982</v>
+      </c>
+      <c r="O7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P7" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1" spans="1:13">
+    <row r="8" ht="25" customHeight="1" spans="1:16">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
       </c>
       <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
         <v>1</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J8" s="5">
         <v>999</v>
       </c>
-      <c r="J8" s="5">
-        <v>-1</v>
-      </c>
       <c r="K8" s="5">
         <v>-1</v>
       </c>
       <c r="L8" s="5">
-        <v>-1</v>
-      </c>
-      <c r="M8" s="5">
+        <v>60</v>
+      </c>
+      <c r="M8" s="6">
+        <v>44234.5622916667</v>
+      </c>
+      <c r="N8" s="5">
+        <f>(M8-70*365-19)*86400-8*3600</f>
+        <v>1612675782</v>
+      </c>
+      <c r="O8" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P8" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="3:13">
+    <row r="9" customHeight="1" spans="3:16">
       <c r="C9" s="5">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
       </c>
       <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
         <v>2</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <v>999</v>
       </c>
-      <c r="J9" s="5">
-        <v>-1</v>
-      </c>
       <c r="K9" s="5">
         <v>-1</v>
       </c>
       <c r="L9" s="5">
         <v>-1</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="5"/>
+      <c r="N9" s="5">
+        <f t="shared" ref="N9:N16" si="0">(M9-70*365-19)*86400-8*3600</f>
+        <v>-2209190400</v>
+      </c>
+      <c r="O9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P9" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="3:13">
+    <row r="10" customHeight="1" spans="3:16">
       <c r="C10" s="5">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
       </c>
       <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
         <v>3</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="5">
         <v>999</v>
       </c>
-      <c r="J10" s="5">
-        <v>-1</v>
-      </c>
       <c r="K10" s="5">
         <v>-1</v>
       </c>
       <c r="L10" s="5">
         <v>-1</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="5"/>
+      <c r="N10" s="5">
+        <f t="shared" si="0"/>
+        <v>-2209190400</v>
+      </c>
+      <c r="O10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P10" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="3:13">
+    <row r="11" customHeight="1" spans="3:16">
       <c r="C11" s="5">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="G11" s="5">
         <v>0</v>
       </c>
       <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
         <v>4</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J11" s="5">
         <v>999</v>
       </c>
-      <c r="J11" s="5">
-        <v>-1</v>
-      </c>
       <c r="K11" s="5">
         <v>-1</v>
       </c>
       <c r="L11" s="5">
         <v>-1</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="5"/>
+      <c r="N11" s="5">
+        <f t="shared" si="0"/>
+        <v>-2209190400</v>
+      </c>
+      <c r="O11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P11" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="3:13">
+    <row r="12" customHeight="1" spans="3:16">
       <c r="C12" s="5">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="G12" s="5">
         <v>0</v>
@@ -2431,164 +2544,204 @@
       <c r="H12" s="5">
         <v>0</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
         <v>9999</v>
       </c>
-      <c r="J12" s="5">
-        <v>-1</v>
-      </c>
       <c r="K12" s="5">
         <v>-1</v>
       </c>
       <c r="L12" s="5">
         <v>-1</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="5"/>
+      <c r="N12" s="5">
+        <f t="shared" si="0"/>
+        <v>-2209190400</v>
+      </c>
+      <c r="O12" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P12" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="3:13">
+    <row r="13" customHeight="1" spans="3:16">
       <c r="C13" s="5">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
       </c>
       <c r="G13" s="5">
         <v>0</v>
       </c>
       <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
         <v>1</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>9999</v>
       </c>
-      <c r="J13" s="5">
-        <v>-1</v>
-      </c>
       <c r="K13" s="5">
         <v>-1</v>
       </c>
       <c r="L13" s="5">
         <v>-1</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="5"/>
+      <c r="N13" s="5">
+        <f t="shared" si="0"/>
+        <v>-2209190400</v>
+      </c>
+      <c r="O13" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P13" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="3:13">
+    <row r="14" customHeight="1" spans="3:16">
       <c r="C14" s="5">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
       </c>
       <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
         <v>2</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>9999</v>
       </c>
-      <c r="J14" s="5">
-        <v>-1</v>
-      </c>
       <c r="K14" s="5">
         <v>-1</v>
       </c>
       <c r="L14" s="5">
         <v>-1</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="5"/>
+      <c r="N14" s="5">
+        <f t="shared" si="0"/>
+        <v>-2209190400</v>
+      </c>
+      <c r="O14" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P14" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="3:13">
+    <row r="15" customHeight="1" spans="3:16">
       <c r="C15" s="5">
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="G15" s="5">
         <v>0</v>
       </c>
       <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
         <v>3</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>9999</v>
       </c>
-      <c r="J15" s="5">
-        <v>-1</v>
-      </c>
       <c r="K15" s="5">
         <v>-1</v>
       </c>
       <c r="L15" s="5">
         <v>-1</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="5"/>
+      <c r="N15" s="5">
+        <f t="shared" si="0"/>
+        <v>-2209190400</v>
+      </c>
+      <c r="O15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P15" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="3:13">
+    <row r="16" customHeight="1" spans="3:16">
       <c r="C16" s="5">
         <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="G16" s="5">
         <v>0</v>
       </c>
       <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
         <v>4</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>9999</v>
       </c>
-      <c r="J16" s="5">
-        <v>-1</v>
-      </c>
       <c r="K16" s="5">
         <v>-1</v>
       </c>
       <c r="L16" s="5">
         <v>-1</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="5"/>
+      <c r="N16" s="5">
+        <f t="shared" si="0"/>
+        <v>-2209190400</v>
+      </c>
+      <c r="O16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P16" s="5">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>

--- a/global/Item.xlsx
+++ b/global/Item.xlsx
@@ -212,10 +212,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -233,15 +233,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,10 +246,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,48 +291,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,10 +322,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,10 +368,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -366,22 +382,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -404,187 +404,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,11 +615,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,8 +625,49 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,30 +696,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -695,170 +710,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -866,6 +866,7 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2069,7 +2070,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
@@ -2427,10 +2428,12 @@
       <c r="L9" s="5">
         <v>-1</v>
       </c>
-      <c r="M9" s="5"/>
+      <c r="M9" s="7">
+        <v>25569</v>
+      </c>
       <c r="N9" s="5">
         <f t="shared" ref="N9:N16" si="0">(M9-70*365-19)*86400-8*3600</f>
-        <v>-2209190400</v>
+        <v>-28800</v>
       </c>
       <c r="O9" s="5">
         <v>-1</v>
@@ -2470,10 +2473,12 @@
       <c r="L10" s="5">
         <v>-1</v>
       </c>
-      <c r="M10" s="5"/>
+      <c r="M10" s="7">
+        <v>25569</v>
+      </c>
       <c r="N10" s="5">
         <f t="shared" si="0"/>
-        <v>-2209190400</v>
+        <v>-28800</v>
       </c>
       <c r="O10" s="5">
         <v>-1</v>
@@ -2513,10 +2518,12 @@
       <c r="L11" s="5">
         <v>-1</v>
       </c>
-      <c r="M11" s="5"/>
+      <c r="M11" s="7">
+        <v>25569</v>
+      </c>
       <c r="N11" s="5">
         <f t="shared" si="0"/>
-        <v>-2209190400</v>
+        <v>-28800</v>
       </c>
       <c r="O11" s="5">
         <v>-1</v>
@@ -2556,10 +2563,12 @@
       <c r="L12" s="5">
         <v>-1</v>
       </c>
-      <c r="M12" s="5"/>
+      <c r="M12" s="7">
+        <v>25569</v>
+      </c>
       <c r="N12" s="5">
         <f t="shared" si="0"/>
-        <v>-2209190400</v>
+        <v>-28800</v>
       </c>
       <c r="O12" s="5">
         <v>-1</v>
@@ -2599,10 +2608,12 @@
       <c r="L13" s="5">
         <v>-1</v>
       </c>
-      <c r="M13" s="5"/>
+      <c r="M13" s="7">
+        <v>25569</v>
+      </c>
       <c r="N13" s="5">
         <f t="shared" si="0"/>
-        <v>-2209190400</v>
+        <v>-28800</v>
       </c>
       <c r="O13" s="5">
         <v>-1</v>
@@ -2642,10 +2653,12 @@
       <c r="L14" s="5">
         <v>-1</v>
       </c>
-      <c r="M14" s="5"/>
+      <c r="M14" s="7">
+        <v>25569</v>
+      </c>
       <c r="N14" s="5">
         <f t="shared" si="0"/>
-        <v>-2209190400</v>
+        <v>-28800</v>
       </c>
       <c r="O14" s="5">
         <v>-1</v>
@@ -2685,10 +2698,12 @@
       <c r="L15" s="5">
         <v>-1</v>
       </c>
-      <c r="M15" s="5"/>
+      <c r="M15" s="7">
+        <v>25569</v>
+      </c>
       <c r="N15" s="5">
         <f t="shared" si="0"/>
-        <v>-2209190400</v>
+        <v>-28800</v>
       </c>
       <c r="O15" s="5">
         <v>-1</v>
@@ -2728,10 +2743,12 @@
       <c r="L16" s="5">
         <v>-1</v>
       </c>
-      <c r="M16" s="5"/>
+      <c r="M16" s="7">
+        <v>25569</v>
+      </c>
       <c r="N16" s="5">
         <f t="shared" si="0"/>
-        <v>-2209190400</v>
+        <v>-28800</v>
       </c>
       <c r="O16" s="5">
         <v>-1</v>

--- a/global/Item.xlsx
+++ b/global/Item.xlsx
@@ -211,9 +211,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -240,7 +240,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,6 +254,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -263,7 +271,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,13 +284,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -291,9 +292,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,16 +331,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,22 +340,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,17 +353,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,7 +369,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,181 +404,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,6 +632,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -642,6 +657,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,30 +696,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -713,152 +713,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -866,6 +866,7 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2070,7 +2071,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
@@ -2339,7 +2340,7 @@
       <c r="M7" s="6">
         <v>44234.645625</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="7">
         <f>(M7-70*365-19)*86400-8*3600</f>
         <v>1612682982</v>
       </c>
@@ -2386,7 +2387,7 @@
       <c r="M8" s="6">
         <v>44234.5622916667</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="7">
         <f>(M8-70*365-19)*86400-8*3600</f>
         <v>1612675782</v>
       </c>
@@ -2428,12 +2429,12 @@
       <c r="L9" s="5">
         <v>-1</v>
       </c>
-      <c r="M9" s="7">
-        <v>25569</v>
-      </c>
-      <c r="N9" s="5">
+      <c r="M9" s="8">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N9" s="7">
         <f t="shared" ref="N9:N16" si="0">(M9-70*365-19)*86400-8*3600</f>
-        <v>-28800</v>
+        <v>-1.04773789644241e-7</v>
       </c>
       <c r="O9" s="5">
         <v>-1</v>
@@ -2473,12 +2474,12 @@
       <c r="L10" s="5">
         <v>-1</v>
       </c>
-      <c r="M10" s="7">
-        <v>25569</v>
-      </c>
-      <c r="N10" s="5">
+      <c r="M10" s="8">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N10" s="7">
         <f t="shared" si="0"/>
-        <v>-28800</v>
+        <v>-1.04773789644241e-7</v>
       </c>
       <c r="O10" s="5">
         <v>-1</v>
@@ -2518,12 +2519,12 @@
       <c r="L11" s="5">
         <v>-1</v>
       </c>
-      <c r="M11" s="7">
-        <v>25569</v>
-      </c>
-      <c r="N11" s="5">
+      <c r="M11" s="8">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N11" s="7">
         <f t="shared" si="0"/>
-        <v>-28800</v>
+        <v>-1.04773789644241e-7</v>
       </c>
       <c r="O11" s="5">
         <v>-1</v>
@@ -2563,12 +2564,12 @@
       <c r="L12" s="5">
         <v>-1</v>
       </c>
-      <c r="M12" s="7">
-        <v>25569</v>
-      </c>
-      <c r="N12" s="5">
+      <c r="M12" s="8">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N12" s="7">
         <f t="shared" si="0"/>
-        <v>-28800</v>
+        <v>-1.04773789644241e-7</v>
       </c>
       <c r="O12" s="5">
         <v>-1</v>
@@ -2608,12 +2609,12 @@
       <c r="L13" s="5">
         <v>-1</v>
       </c>
-      <c r="M13" s="7">
-        <v>25569</v>
-      </c>
-      <c r="N13" s="5">
+      <c r="M13" s="8">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N13" s="7">
         <f t="shared" si="0"/>
-        <v>-28800</v>
+        <v>-1.04773789644241e-7</v>
       </c>
       <c r="O13" s="5">
         <v>-1</v>
@@ -2653,12 +2654,12 @@
       <c r="L14" s="5">
         <v>-1</v>
       </c>
-      <c r="M14" s="7">
-        <v>25569</v>
-      </c>
-      <c r="N14" s="5">
+      <c r="M14" s="8">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N14" s="7">
         <f t="shared" si="0"/>
-        <v>-28800</v>
+        <v>-1.04773789644241e-7</v>
       </c>
       <c r="O14" s="5">
         <v>-1</v>
@@ -2698,12 +2699,12 @@
       <c r="L15" s="5">
         <v>-1</v>
       </c>
-      <c r="M15" s="7">
-        <v>25569</v>
-      </c>
-      <c r="N15" s="5">
+      <c r="M15" s="8">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N15" s="7">
         <f t="shared" si="0"/>
-        <v>-28800</v>
+        <v>-1.04773789644241e-7</v>
       </c>
       <c r="O15" s="5">
         <v>-1</v>
@@ -2743,12 +2744,12 @@
       <c r="L16" s="5">
         <v>-1</v>
       </c>
-      <c r="M16" s="7">
-        <v>25569</v>
-      </c>
-      <c r="N16" s="5">
+      <c r="M16" s="8">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N16" s="7">
         <f t="shared" si="0"/>
-        <v>-28800</v>
+        <v>-1.04773789644241e-7</v>
       </c>
       <c r="O16" s="5">
         <v>-1</v>

--- a/global/Item.xlsx
+++ b/global/Item.xlsx
@@ -27,11 +27,11 @@
 2: 礼包</t>
   </si>
   <si>
-    <t>0:N -1:R -2:SR -3:SSR -4:UR</t>
+    <t>0:白 +1:绿 +2:蓝 +3:紫 +4:橙</t>
   </si>
   <si>
     <t>永久物品填-1</t>
@@ -212,9 +212,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -233,14 +233,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,78 +277,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,7 +301,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,6 +309,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,7 +337,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,6 +358,30 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -410,19 +410,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,157 +548,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,32 +616,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,15 +633,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,11 +654,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,151 +675,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2071,7 +2071,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>

--- a/global/Item.xlsx
+++ b/global/Item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -24,7 +24,10 @@
   <si>
     <t>0：普通物品  1: 装备 -2: 礼包</t>
+2: 晶石 3: 礼包</t>
+  </si>
+  <si>
+    <t>0：材料与消耗品</t>
   </si>
   <si>
     <t>0:白 @@ -2071,12 +2074,14 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="12" width="19.25" style="1" customWidth="1"/>
+    <col min="1" max="6" width="19.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37" style="1" customWidth="1"/>
+    <col min="8" max="12" width="19.25" style="1" customWidth="1"/>
     <col min="13" max="13" width="26.3846153846154" style="1" customWidth="1"/>
     <col min="14" max="14" width="32.1538461538462" style="1" customWidth="1"/>
     <col min="15" max="16384" width="19.25" style="1" customWidth="1"/>
@@ -2114,138 +2119,140 @@
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" ht="16.15" customHeight="1" spans="1:16">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="16.15" customHeight="1" spans="1:16">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" ht="16.15" customHeight="1" spans="1:16">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -2261,47 +2268,47 @@
     <row r="6" ht="16.15" customHeight="1" spans="1:16">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="J6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:16">
@@ -2311,13 +2318,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
@@ -2358,13 +2365,13 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
@@ -2403,13 +2410,13 @@
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
@@ -2448,13 +2455,13 @@
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
@@ -2493,13 +2500,13 @@
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G11" s="5">
         <v>0</v>
@@ -2538,13 +2545,13 @@
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G12" s="5">
         <v>0</v>
@@ -2583,13 +2590,13 @@
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="5">
         <v>0</v>
@@ -2628,13 +2635,13 @@
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
@@ -2673,13 +2680,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G15" s="5">
         <v>0</v>
@@ -2718,13 +2725,13 @@
         <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G16" s="5">
         <v>0</v>

--- a/global/Item.xlsx
+++ b/global/Item.xlsx
@@ -7,14 +7,14 @@
     <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
-    <sheet name="Hero" sheetId="1" r:id="rId1"/>
+    <sheet name="Item" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -46,6 +46,9 @@
     <t>公式生成时间戳，策划不用填</t>
   </si>
   <si>
+    <t>货币类型，参照Token.xlsx</t>
+  </si>
+  <si>
     <t>-1：无效果  0: 掉落物品  </t>
@@ -71,6 +74,9 @@
     <t>icon</t>
   </si>
   <si>
+    <t>GainWay</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
@@ -95,6 +101,18 @@
     <t>timeStartLifeStamp</t>
   </si>
   <si>
+    <t>canSell</t>
+  </si>
+  <si>
+    <t>sellType</t>
+  </si>
+  <si>
+    <t>sellPrice</t>
+  </si>
+  <si>
+    <t>staleGainId</t>
+  </si>
+  <si>
     <t>effectType</t>
   </si>
   <si>
@@ -113,6 +131,9 @@
     <t>图标</t>
   </si>
   <si>
+    <t>获取途径</t>
+  </si>
+  <si>
     <t>物品类型</t>
   </si>
   <si>
@@ -134,6 +155,18 @@
     <t>时限开始时间（unix时间戳）</t>
   </si>
   <si>
+    <t>是否可以出售</t>
+  </si>
+  <si>
+    <t>出售货币类型</t>
+  </si>
+  <si>
+    <t>出售价格</t>
+  </si>
+  <si>
+    <t>过期后转换的掉落id</t>
+  </si>
+  <si>
     <t>使用效果类型</t>
   </si>
   <si>
@@ -155,6 +188,12 @@
     <t>string</t>
   </si>
   <si>
+    <t>[]string</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>[]int32</t>
   </si>
   <si>
@@ -167,7 +206,13 @@
     <t>icon_1</t>
   </si>
   <si>
+    <t>礼包,活动</t>
+  </si>
+  <si>
     <t>经验药水2</t>
+  </si>
+  <si>
+    <t>关卡</t>
   </si>
   <si>
     <t>经验药水3</t>
@@ -214,11 +259,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -236,6 +281,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -249,6 +301,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -258,17 +317,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,9 +347,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,7 +363,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,43 +423,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -361,30 +430,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -413,19 +458,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,67 +596,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,85 +614,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,7 +664,66 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -654,210 +758,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2071,23 +2116,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="19.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37" style="1" customWidth="1"/>
-    <col min="8" max="12" width="19.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="26.3846153846154" style="1" customWidth="1"/>
-    <col min="14" max="14" width="32.1538461538462" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="19.25" style="1" customWidth="1"/>
+    <col min="1" max="7" width="19.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37" style="1" customWidth="1"/>
+    <col min="9" max="13" width="19.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.3846153846154" style="1" customWidth="1"/>
+    <col min="15" max="19" width="32.1538461538462" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="19.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1" spans="1:16">
+    <row r="1" ht="14" customHeight="1" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2106,8 +2151,13 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
     </row>
-    <row r="2" ht="58" customHeight="1" spans="1:16">
+    <row r="2" ht="58" customHeight="1" spans="1:21">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -2116,145 +2166,184 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="U2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:16">
+    <row r="3" ht="16.15" customHeight="1" spans="1:21">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:16">
+    <row r="4" ht="16.15" customHeight="1" spans="1:21">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="O4" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:16">
+    <row r="5" ht="16.15" customHeight="1" spans="1:21">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -2264,70 +2353,90 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:16">
+    <row r="6" ht="16.15" customHeight="1" spans="1:21">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="4"/>
       <c r="O6" s="4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>43</v>
+        <v>55</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:16">
+    <row r="7" ht="25" customHeight="1" spans="1:21">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="H7" s="5">
         <v>0</v>
@@ -2336,225 +2445,300 @@
         <v>0</v>
       </c>
       <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
         <v>999</v>
       </c>
-      <c r="K7" s="5">
-        <v>-1</v>
-      </c>
       <c r="L7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="5">
         <v>30</v>
       </c>
-      <c r="M7" s="6">
+      <c r="N7" s="6">
         <v>44234.645625</v>
       </c>
-      <c r="N7" s="7">
-        <f>(M7-70*365-19)*86400-8*3600</f>
+      <c r="O7" s="7">
+        <f>(N7-70*365-19)*86400-8*3600</f>
         <v>1612682982</v>
       </c>
-      <c r="O7" s="5">
-        <v>-1</v>
-      </c>
-      <c r="P7" s="5">
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <v>1000</v>
+      </c>
+      <c r="S7" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="U7" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1" spans="1:16">
+    <row r="8" ht="25" customHeight="1" spans="1:21">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="H8" s="5">
         <v>0</v>
       </c>
       <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
         <v>1</v>
       </c>
-      <c r="J8" s="5">
+      <c r="K8" s="5">
         <v>999</v>
       </c>
-      <c r="K8" s="5">
-        <v>-1</v>
-      </c>
       <c r="L8" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="5">
         <v>60</v>
       </c>
-      <c r="M8" s="6">
+      <c r="N8" s="6">
         <v>44234.5622916667</v>
       </c>
-      <c r="N8" s="7">
-        <f>(M8-70*365-19)*86400-8*3600</f>
+      <c r="O8" s="7">
+        <f>(N8-70*365-19)*86400-8*3600</f>
         <v>1612675782</v>
       </c>
-      <c r="O8" s="5">
-        <v>-1</v>
-      </c>
-      <c r="P8" s="5">
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0</v>
+      </c>
+      <c r="R8" s="7">
+        <v>1000</v>
+      </c>
+      <c r="S8" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T8" s="5">
+        <v>-1</v>
+      </c>
+      <c r="U8" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="3:16">
+    <row r="9" customHeight="1" spans="3:21">
       <c r="C9" s="5">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="H9" s="5">
         <v>0</v>
       </c>
       <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
         <v>2</v>
       </c>
-      <c r="J9" s="5">
+      <c r="K9" s="5">
         <v>999</v>
       </c>
-      <c r="K9" s="5">
-        <v>-1</v>
-      </c>
       <c r="L9" s="5">
         <v>-1</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="8">
         <v>25569.3333333333</v>
       </c>
-      <c r="N9" s="7">
-        <f t="shared" ref="N9:N16" si="0">(M9-70*365-19)*86400-8*3600</f>
-        <v>-1.04773789644241e-7</v>
-      </c>
-      <c r="O9" s="5">
-        <v>-1</v>
-      </c>
-      <c r="P9" s="5">
+      <c r="O9" s="7">
+        <f t="shared" ref="O9:O16" si="0">(N9-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0</v>
+      </c>
+      <c r="R9" s="7">
+        <v>1000</v>
+      </c>
+      <c r="S9" s="7">
+        <v>1</v>
+      </c>
+      <c r="T9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="3:16">
+    <row r="10" customHeight="1" spans="3:21">
       <c r="C10" s="5">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="H10" s="5">
         <v>0</v>
       </c>
       <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
         <v>3</v>
       </c>
-      <c r="J10" s="5">
+      <c r="K10" s="5">
         <v>999</v>
       </c>
-      <c r="K10" s="5">
-        <v>-1</v>
-      </c>
       <c r="L10" s="5">
         <v>-1</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="8">
         <v>25569.3333333333</v>
       </c>
-      <c r="N10" s="7">
+      <c r="O10" s="7">
         <f t="shared" si="0"/>
-        <v>-1.04773789644241e-7</v>
-      </c>
-      <c r="O10" s="5">
-        <v>-1</v>
-      </c>
-      <c r="P10" s="5">
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P10" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0</v>
+      </c>
+      <c r="R10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="S10" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="U10" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="3:16">
+    <row r="11" customHeight="1" spans="3:21">
       <c r="C11" s="5">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="H11" s="5">
         <v>0</v>
       </c>
       <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
         <v>4</v>
       </c>
-      <c r="J11" s="5">
+      <c r="K11" s="5">
         <v>999</v>
       </c>
-      <c r="K11" s="5">
-        <v>-1</v>
-      </c>
       <c r="L11" s="5">
         <v>-1</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="8">
         <v>25569.3333333333</v>
       </c>
-      <c r="N11" s="7">
+      <c r="O11" s="7">
         <f t="shared" si="0"/>
-        <v>-1.04773789644241e-7</v>
-      </c>
-      <c r="O11" s="5">
-        <v>-1</v>
-      </c>
-      <c r="P11" s="5">
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P11" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0</v>
+      </c>
+      <c r="R11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="S11" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="3:16">
+    <row r="12" customHeight="1" spans="3:21">
       <c r="C12" s="5">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="H12" s="5">
         <v>0</v>
@@ -2562,206 +2746,281 @@
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
         <v>9999</v>
       </c>
-      <c r="K12" s="5">
-        <v>-1</v>
-      </c>
       <c r="L12" s="5">
         <v>-1</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="5">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="8">
         <v>25569.3333333333</v>
       </c>
-      <c r="N12" s="7">
+      <c r="O12" s="7">
         <f t="shared" si="0"/>
-        <v>-1.04773789644241e-7</v>
-      </c>
-      <c r="O12" s="5">
-        <v>-1</v>
-      </c>
-      <c r="P12" s="5">
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P12" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0</v>
+      </c>
+      <c r="R12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="S12" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T12" s="5">
+        <v>-1</v>
+      </c>
+      <c r="U12" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="3:16">
+    <row r="13" customHeight="1" spans="3:21">
       <c r="C13" s="5">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="H13" s="5">
         <v>0</v>
       </c>
       <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
         <v>1</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>9999</v>
       </c>
-      <c r="K13" s="5">
-        <v>-1</v>
-      </c>
       <c r="L13" s="5">
         <v>-1</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="5">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="8">
         <v>25569.3333333333</v>
       </c>
-      <c r="N13" s="7">
+      <c r="O13" s="7">
         <f t="shared" si="0"/>
-        <v>-1.04773789644241e-7</v>
-      </c>
-      <c r="O13" s="5">
-        <v>-1</v>
-      </c>
-      <c r="P13" s="5">
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P13" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0</v>
+      </c>
+      <c r="R13" s="7">
+        <v>1000</v>
+      </c>
+      <c r="S13" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T13" s="5">
+        <v>-1</v>
+      </c>
+      <c r="U13" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="3:16">
+    <row r="14" customHeight="1" spans="3:21">
       <c r="C14" s="5">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="H14" s="5">
         <v>0</v>
       </c>
       <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
         <v>2</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>9999</v>
       </c>
-      <c r="K14" s="5">
-        <v>-1</v>
-      </c>
       <c r="L14" s="5">
         <v>-1</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="5">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="8">
         <v>25569.3333333333</v>
       </c>
-      <c r="N14" s="7">
+      <c r="O14" s="7">
         <f t="shared" si="0"/>
-        <v>-1.04773789644241e-7</v>
-      </c>
-      <c r="O14" s="5">
-        <v>-1</v>
-      </c>
-      <c r="P14" s="5">
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P14" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0</v>
+      </c>
+      <c r="R14" s="7">
+        <v>1000</v>
+      </c>
+      <c r="S14" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T14" s="5">
+        <v>-1</v>
+      </c>
+      <c r="U14" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="3:16">
+    <row r="15" customHeight="1" spans="3:21">
       <c r="C15" s="5">
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="H15" s="5">
         <v>0</v>
       </c>
       <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
         <v>3</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>9999</v>
       </c>
-      <c r="K15" s="5">
-        <v>-1</v>
-      </c>
       <c r="L15" s="5">
         <v>-1</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="8">
         <v>25569.3333333333</v>
       </c>
-      <c r="N15" s="7">
+      <c r="O15" s="7">
         <f t="shared" si="0"/>
-        <v>-1.04773789644241e-7</v>
-      </c>
-      <c r="O15" s="5">
-        <v>-1</v>
-      </c>
-      <c r="P15" s="5">
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P15" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0</v>
+      </c>
+      <c r="R15" s="7">
+        <v>1000</v>
+      </c>
+      <c r="S15" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="U15" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="3:16">
+    <row r="16" customHeight="1" spans="3:21">
       <c r="C16" s="5">
         <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
       <c r="H16" s="5">
         <v>0</v>
       </c>
       <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
         <v>4</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>9999</v>
       </c>
-      <c r="K16" s="5">
-        <v>-1</v>
-      </c>
       <c r="L16" s="5">
         <v>-1</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="N16" s="8">
         <v>25569.3333333333</v>
       </c>
-      <c r="N16" s="7">
+      <c r="O16" s="7">
         <f t="shared" si="0"/>
-        <v>-1.04773789644241e-7</v>
-      </c>
-      <c r="O16" s="5">
-        <v>-1</v>
-      </c>
-      <c r="P16" s="5">
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P16" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0</v>
+      </c>
+      <c r="R16" s="7">
+        <v>1000</v>
+      </c>
+      <c r="S16" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="U16" s="5">
         <v>-1</v>
       </c>
     </row>

--- a/global/Item.xlsx
+++ b/global/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,61 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1-9：卡牌升级经验药水
+10-19：卡牌突破道具
+20-29：卡牌技能升级道具
+30-39：卡牌觉醒道具
+40-49：装备经验道具
+50-59：装备突破道具
+60-69：晶石经验道具
+70-79：收集品升星道具
+80-89：收集品觉醒道具
+90-99：宠物升级道具
+100-109：体力道具
+110-119：抽卡道具
+120-499：各种卡牌碎片
+500-599：礼物道具
+600-699：换肤道具
+700-799：家园道具</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="140">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
   <si>
-    <t>物品id</t>
+    <t xml:space="preserve">物品id
+</t>
   </si>
   <si>
     <t>0：普通物品 @@ -197,7 +245,7 @@
     <t>[]int32</t>
   </si>
   <si>
-    <t>经验药水1</t>
+    <t>卡牌升级经验药水1</t>
   </si>
   <si>
     <t>卡牌升级经验道具</t>
@@ -209,49 +257,241 @@
     <t>礼包,活动</t>
   </si>
   <si>
-    <t>经验药水2</t>
+    <t>卡牌升级经验药水2</t>
   </si>
   <si>
     <t>关卡</t>
   </si>
   <si>
-    <t>经验药水3</t>
-  </si>
-  <si>
-    <t>经验药水4</t>
-  </si>
-  <si>
-    <t>经验药水5</t>
-  </si>
-  <si>
-    <t>突破道具1</t>
+    <t>卡牌升级经验药水3</t>
+  </si>
+  <si>
+    <t>卡牌升级经验药水4</t>
+  </si>
+  <si>
+    <t>卡牌升级经验药水5</t>
+  </si>
+  <si>
+    <t>卡牌突破道具1</t>
   </si>
   <si>
     <t>第1次突破道具</t>
   </si>
   <si>
-    <t>突破道具2</t>
+    <t>卡牌突破道具2</t>
   </si>
   <si>
     <t>第2次突破道具</t>
   </si>
   <si>
-    <t>突破道具3</t>
+    <t>卡牌突破道具3</t>
   </si>
   <si>
     <t>第3次突破道具</t>
   </si>
   <si>
-    <t>突破道具4</t>
+    <t>卡牌突破道具4</t>
   </si>
   <si>
     <t>第4次突破道具</t>
   </si>
   <si>
-    <t>突破道具5</t>
+    <t>卡牌突破道具5</t>
   </si>
   <si>
     <t>第5次突破道具</t>
+  </si>
+  <si>
+    <t>卡牌技能升级道具1</t>
+  </si>
+  <si>
+    <t>卡牌技能升级道具2</t>
+  </si>
+  <si>
+    <t>卡牌技能升级道具3</t>
+  </si>
+  <si>
+    <t>卡牌技能升级道具4</t>
+  </si>
+  <si>
+    <t>卡牌技能升级道具5</t>
+  </si>
+  <si>
+    <t>卡牌觉醒道具1</t>
+  </si>
+  <si>
+    <t>卡牌觉醒道具2</t>
+  </si>
+  <si>
+    <t>卡牌觉醒道具3</t>
+  </si>
+  <si>
+    <t>卡牌觉醒道具4</t>
+  </si>
+  <si>
+    <t>卡牌觉醒道具5</t>
+  </si>
+  <si>
+    <t>装备经验道具1</t>
+  </si>
+  <si>
+    <t>装备经验道具2</t>
+  </si>
+  <si>
+    <t>装备经验道具3</t>
+  </si>
+  <si>
+    <t>装备经验道具4</t>
+  </si>
+  <si>
+    <t>装备经验道具5</t>
+  </si>
+  <si>
+    <t>装备突破道具1</t>
+  </si>
+  <si>
+    <t>装备突破道具2</t>
+  </si>
+  <si>
+    <t>装备突破道具3</t>
+  </si>
+  <si>
+    <t>装备突破道具4</t>
+  </si>
+  <si>
+    <t>装备突破道具5</t>
+  </si>
+  <si>
+    <t>晶石升级经验道具1</t>
+  </si>
+  <si>
+    <t>晶石升级经验道具2</t>
+  </si>
+  <si>
+    <t>晶石升级经验道具3</t>
+  </si>
+  <si>
+    <t>晶石升级经验道具4</t>
+  </si>
+  <si>
+    <t>晶石升级经验道具5</t>
+  </si>
+  <si>
+    <t>收集品升星道具1</t>
+  </si>
+  <si>
+    <t>收集品升星道具2</t>
+  </si>
+  <si>
+    <t>收集品升星道具3</t>
+  </si>
+  <si>
+    <t>收集品升星道具4</t>
+  </si>
+  <si>
+    <t>收集品升星道具5</t>
+  </si>
+  <si>
+    <t>收集品觉醒道具1</t>
+  </si>
+  <si>
+    <t>收集品觉醒道具2</t>
+  </si>
+  <si>
+    <t>收集品觉醒道具3</t>
+  </si>
+  <si>
+    <t>收集品觉醒道具4</t>
+  </si>
+  <si>
+    <t>收集品觉醒道具5</t>
+  </si>
+  <si>
+    <t>宠物升级道具1</t>
+  </si>
+  <si>
+    <t>宠物升级道具2</t>
+  </si>
+  <si>
+    <t>宠物升级道具3</t>
+  </si>
+  <si>
+    <t>宠物升级道具4</t>
+  </si>
+  <si>
+    <t>宠物升级道具5</t>
+  </si>
+  <si>
+    <t>体力药水1</t>
+  </si>
+  <si>
+    <t>体力药水2</t>
+  </si>
+  <si>
+    <t>体力药水3</t>
+  </si>
+  <si>
+    <t>体力药水4</t>
+  </si>
+  <si>
+    <t>体力药水5</t>
+  </si>
+  <si>
+    <t>音石（抽卡道具）</t>
+  </si>
+  <si>
+    <t>卡牌1碎片</t>
+  </si>
+  <si>
+    <t>卡牌2碎片</t>
+  </si>
+  <si>
+    <t>卡牌3碎片</t>
+  </si>
+  <si>
+    <t>卡牌4碎片</t>
+  </si>
+  <si>
+    <t>卡牌5碎片</t>
+  </si>
+  <si>
+    <t>礼物1</t>
+  </si>
+  <si>
+    <t>礼物2</t>
+  </si>
+  <si>
+    <t>礼物3</t>
+  </si>
+  <si>
+    <t>礼物4</t>
+  </si>
+  <si>
+    <t>礼物5</t>
+  </si>
+  <si>
+    <t>换肤道具1</t>
+  </si>
+  <si>
+    <t>换肤道具2</t>
+  </si>
+  <si>
+    <t>换肤道具3</t>
+  </si>
+  <si>
+    <t>家园道具1</t>
+  </si>
+  <si>
+    <t>家园道具2</t>
+  </si>
+  <si>
+    <t>家园道具3</t>
+  </si>
+  <si>
+    <t>家园道具4</t>
+  </si>
+  <si>
+    <t>家园道具5</t>
   </si>
 </sst>
 </file>
@@ -259,13 +499,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -280,15 +520,69 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,40 +596,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -347,23 +618,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,17 +641,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,22 +664,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
@@ -423,12 +671,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -452,19 +703,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,19 +739,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,19 +781,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,13 +805,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,61 +853,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,25 +865,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,40 +915,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -720,11 +953,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,173 +999,172 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -919,54 +1173,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2114,12 +2368,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
@@ -2127,8 +2381,8 @@
     <col min="1" max="7" width="19.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="37" style="1" customWidth="1"/>
     <col min="9" max="13" width="19.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="26.3846153846154" style="1" customWidth="1"/>
-    <col min="15" max="19" width="32.1538461538462" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.3833333333333" style="1" customWidth="1"/>
+    <col min="15" max="19" width="32.15" style="1" customWidth="1"/>
     <col min="20" max="16384" width="19.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2160,7 +2414,7 @@
     <row r="2" ht="58" customHeight="1" spans="1:21">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
@@ -2205,61 +2459,61 @@
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2268,61 +2522,61 @@
       <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2331,99 +2585,99 @@
       <c r="B5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
     </row>
     <row r="6" ht="16.15" customHeight="1" spans="1:21">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4" t="s">
+      <c r="N6" s="5"/>
+      <c r="O6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="T6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="U6" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:21">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2438,54 +2692,54 @@
       <c r="G7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <v>0</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <v>0</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="6">
         <v>0</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="6">
         <v>999</v>
       </c>
-      <c r="L7" s="5">
-        <v>-1</v>
-      </c>
-      <c r="M7" s="5">
+      <c r="L7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="6">
         <v>30</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="7">
         <v>44234.645625</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="8">
         <f>(N7-70*365-19)*86400-8*3600</f>
         <v>1612682982</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="8">
         <v>0</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="8">
         <v>0</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="8">
         <v>1000</v>
       </c>
-      <c r="S7" s="7">
-        <v>-1</v>
-      </c>
-      <c r="T7" s="5">
-        <v>-1</v>
-      </c>
-      <c r="U7" s="5">
+      <c r="S7" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U7" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:21">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2500,52 +2754,52 @@
       <c r="G8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <v>0</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="6">
         <v>0</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="6">
         <v>1</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="6">
         <v>999</v>
       </c>
-      <c r="L8" s="5">
-        <v>-1</v>
-      </c>
-      <c r="M8" s="5">
+      <c r="L8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="6">
         <v>60</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="7">
         <v>44234.5622916667</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="8">
         <f>(N8-70*365-19)*86400-8*3600</f>
         <v>1612675782</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="8">
         <v>0</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="8">
         <v>0</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="8">
         <v>1000</v>
       </c>
-      <c r="S8" s="7">
-        <v>-1</v>
-      </c>
-      <c r="T8" s="5">
-        <v>-1</v>
-      </c>
-      <c r="U8" s="5">
+      <c r="S8" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U8" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:21">
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -2560,52 +2814,52 @@
       <c r="G9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <v>0</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="6">
         <v>0</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="6">
         <v>2</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="6">
         <v>999</v>
       </c>
-      <c r="L9" s="5">
-        <v>-1</v>
-      </c>
-      <c r="M9" s="5">
-        <v>-1</v>
-      </c>
-      <c r="N9" s="8">
+      <c r="L9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="9">
         <v>25569.3333333333</v>
       </c>
-      <c r="O9" s="7">
-        <f t="shared" ref="O9:O16" si="0">(N9-70*365-19)*86400-8*3600</f>
+      <c r="O9" s="8">
+        <f>(N9-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="8">
         <v>1</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="8">
         <v>0</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="8">
         <v>1000</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="8">
         <v>1</v>
       </c>
-      <c r="T9" s="5">
-        <v>-1</v>
-      </c>
-      <c r="U9" s="5">
+      <c r="T9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:21">
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2620,52 +2874,52 @@
       <c r="G10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="6">
         <v>0</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="6">
         <v>0</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="6">
         <v>3</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="6">
         <v>999</v>
       </c>
-      <c r="L10" s="5">
-        <v>-1</v>
-      </c>
-      <c r="M10" s="5">
-        <v>-1</v>
-      </c>
-      <c r="N10" s="8">
+      <c r="L10" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="9">
         <v>25569.3333333333</v>
       </c>
-      <c r="O10" s="7">
-        <f t="shared" si="0"/>
+      <c r="O10" s="8">
+        <f>(N10-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="8">
         <v>1</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="8">
         <v>0</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="8">
         <v>1000</v>
       </c>
-      <c r="S10" s="7">
-        <v>-1</v>
-      </c>
-      <c r="T10" s="5">
-        <v>-1</v>
-      </c>
-      <c r="U10" s="5">
+      <c r="S10" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T10" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U10" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:21">
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -2680,53 +2934,53 @@
       <c r="G11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="6">
         <v>0</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="6">
         <v>0</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="6">
         <v>4</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="6">
         <v>999</v>
       </c>
-      <c r="L11" s="5">
-        <v>-1</v>
-      </c>
-      <c r="M11" s="5">
-        <v>-1</v>
-      </c>
-      <c r="N11" s="8">
+      <c r="L11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="9">
         <v>25569.3333333333</v>
       </c>
-      <c r="O11" s="7">
-        <f t="shared" si="0"/>
+      <c r="O11" s="8">
+        <f>(N11-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="8">
         <v>1</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="8">
         <v>0</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="8">
         <v>1000</v>
       </c>
-      <c r="S11" s="7">
-        <v>-1</v>
-      </c>
-      <c r="T11" s="5">
-        <v>-1</v>
-      </c>
-      <c r="U11" s="5">
+      <c r="S11" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:21">
-      <c r="C12" s="5">
-        <v>6</v>
+      <c r="C12" s="6">
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>66</v>
@@ -2740,53 +2994,53 @@
       <c r="G12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="6">
         <v>0</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="6">
         <v>0</v>
       </c>
-      <c r="J12" s="5">
-        <v>0</v>
+      <c r="J12" s="6">
+        <v>1</v>
       </c>
       <c r="K12" s="1">
         <v>9999</v>
       </c>
-      <c r="L12" s="5">
-        <v>-1</v>
-      </c>
-      <c r="M12" s="5">
-        <v>-1</v>
-      </c>
-      <c r="N12" s="8">
+      <c r="L12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="9">
         <v>25569.3333333333</v>
       </c>
-      <c r="O12" s="7">
-        <f t="shared" si="0"/>
+      <c r="O12" s="8">
+        <f>(N12-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="8">
         <v>1</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="8">
         <v>0</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="8">
         <v>1000</v>
       </c>
-      <c r="S12" s="7">
-        <v>-1</v>
-      </c>
-      <c r="T12" s="5">
-        <v>-1</v>
-      </c>
-      <c r="U12" s="5">
+      <c r="S12" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U12" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:21">
-      <c r="C13" s="5">
-        <v>7</v>
+      <c r="C13" s="6">
+        <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>68</v>
@@ -2800,53 +3054,53 @@
       <c r="G13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="6">
         <v>0</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="6">
         <v>0</v>
       </c>
-      <c r="J13" s="5">
-        <v>1</v>
+      <c r="J13" s="6">
+        <v>2</v>
       </c>
       <c r="K13" s="1">
         <v>9999</v>
       </c>
-      <c r="L13" s="5">
-        <v>-1</v>
-      </c>
-      <c r="M13" s="5">
-        <v>-1</v>
-      </c>
-      <c r="N13" s="8">
+      <c r="L13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="9">
         <v>25569.3333333333</v>
       </c>
-      <c r="O13" s="7">
-        <f t="shared" si="0"/>
+      <c r="O13" s="8">
+        <f>(N13-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="8">
         <v>1</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="8">
         <v>0</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R13" s="8">
         <v>1000</v>
       </c>
-      <c r="S13" s="7">
-        <v>-1</v>
-      </c>
-      <c r="T13" s="5">
-        <v>-1</v>
-      </c>
-      <c r="U13" s="5">
+      <c r="S13" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U13" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:21">
-      <c r="C14" s="5">
-        <v>8</v>
+      <c r="C14" s="6">
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>70</v>
@@ -2860,53 +3114,53 @@
       <c r="G14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="6">
         <v>0</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="6">
         <v>0</v>
       </c>
-      <c r="J14" s="5">
-        <v>2</v>
+      <c r="J14" s="6">
+        <v>3</v>
       </c>
       <c r="K14" s="1">
         <v>9999</v>
       </c>
-      <c r="L14" s="5">
-        <v>-1</v>
-      </c>
-      <c r="M14" s="5">
-        <v>-1</v>
-      </c>
-      <c r="N14" s="8">
+      <c r="L14" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M14" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="9">
         <v>25569.3333333333</v>
       </c>
-      <c r="O14" s="7">
-        <f t="shared" si="0"/>
+      <c r="O14" s="8">
+        <f>(N14-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="8">
         <v>1</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="8">
         <v>0</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="8">
         <v>1000</v>
       </c>
-      <c r="S14" s="7">
-        <v>-1</v>
-      </c>
-      <c r="T14" s="5">
-        <v>-1</v>
-      </c>
-      <c r="U14" s="5">
+      <c r="S14" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T14" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U14" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:21">
-      <c r="C15" s="5">
-        <v>9</v>
+      <c r="C15" s="6">
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>72</v>
@@ -2920,53 +3174,53 @@
       <c r="G15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="6">
         <v>0</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="6">
         <v>0</v>
       </c>
-      <c r="J15" s="5">
-        <v>3</v>
+      <c r="J15" s="6">
+        <v>4</v>
       </c>
       <c r="K15" s="1">
         <v>9999</v>
       </c>
-      <c r="L15" s="5">
-        <v>-1</v>
-      </c>
-      <c r="M15" s="5">
-        <v>-1</v>
-      </c>
-      <c r="N15" s="8">
+      <c r="L15" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="9">
         <v>25569.3333333333</v>
       </c>
-      <c r="O15" s="7">
-        <f t="shared" si="0"/>
+      <c r="O15" s="8">
+        <f>(N15-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="8">
         <v>1</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="Q15" s="8">
         <v>0</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="8">
         <v>1000</v>
       </c>
-      <c r="S15" s="7">
-        <v>-1</v>
-      </c>
-      <c r="T15" s="5">
-        <v>-1</v>
-      </c>
-      <c r="U15" s="5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="3:21">
-      <c r="C16" s="5">
-        <v>10</v>
+      <c r="S15" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T15" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U15" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:5">
+      <c r="C16" s="6">
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>74</v>
@@ -2974,54 +3228,517 @@
       <c r="E16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="2" t="s">
+    </row>
+    <row r="17" customHeight="1" spans="3:4">
+      <c r="C17" s="1">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:4">
+      <c r="C18" s="1">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:4">
+      <c r="C19" s="1">
+        <v>22</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:4">
+      <c r="C20" s="1">
+        <v>23</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:4">
+      <c r="C21" s="1">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:4">
+      <c r="C22" s="1">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:4">
+      <c r="C23" s="1">
+        <v>31</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:4">
+      <c r="C24" s="1">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:4">
+      <c r="C25" s="1">
+        <v>33</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:4">
+      <c r="C26" s="1">
+        <v>34</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:4">
+      <c r="C27" s="1">
+        <v>40</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:4">
+      <c r="C28" s="1">
+        <v>41</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:4">
+      <c r="C29" s="1">
+        <v>42</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:4">
+      <c r="C30" s="1">
+        <v>43</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:4">
+      <c r="C31" s="1">
+        <v>44</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:4">
+      <c r="C32" s="1">
+        <v>50</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:4">
+      <c r="C33" s="1">
+        <v>51</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:4">
+      <c r="C34" s="1">
+        <v>52</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:4">
+      <c r="C35" s="1">
+        <v>53</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:4">
+      <c r="C36" s="1">
+        <v>54</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:4">
+      <c r="C37" s="1">
         <v>60</v>
       </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5">
-        <v>4</v>
-      </c>
-      <c r="K16" s="1">
-        <v>9999</v>
-      </c>
-      <c r="L16" s="5">
-        <v>-1</v>
-      </c>
-      <c r="M16" s="5">
-        <v>-1</v>
-      </c>
-      <c r="N16" s="8">
-        <v>25569.3333333333</v>
-      </c>
-      <c r="O16" s="7">
-        <f t="shared" si="0"/>
-        <v>-2.93366611003876e-6</v>
-      </c>
-      <c r="P16" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>0</v>
-      </c>
-      <c r="R16" s="7">
-        <v>1000</v>
-      </c>
-      <c r="S16" s="7">
-        <v>-1</v>
-      </c>
-      <c r="T16" s="5">
-        <v>-1</v>
-      </c>
-      <c r="U16" s="5">
-        <v>-1</v>
+      <c r="D37" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:4">
+      <c r="C38" s="1">
+        <v>61</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:4">
+      <c r="C39" s="1">
+        <v>62</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:4">
+      <c r="C40" s="1">
+        <v>63</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:4">
+      <c r="C41" s="1">
+        <v>64</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:4">
+      <c r="C42" s="1">
+        <v>70</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:4">
+      <c r="C43" s="1">
+        <v>71</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:4">
+      <c r="C44" s="1">
+        <v>72</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:4">
+      <c r="C45" s="1">
+        <v>73</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:4">
+      <c r="C46" s="1">
+        <v>74</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:4">
+      <c r="C47" s="1">
+        <v>80</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:4">
+      <c r="C48" s="1">
+        <v>81</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:4">
+      <c r="C49" s="1">
+        <v>82</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:4">
+      <c r="C50" s="1">
+        <v>83</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:4">
+      <c r="C51" s="1">
+        <v>84</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:4">
+      <c r="C52" s="1">
+        <v>90</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:4">
+      <c r="C53" s="1">
+        <v>91</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:4">
+      <c r="C54" s="1">
+        <v>92</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:4">
+      <c r="C55" s="1">
+        <v>93</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:4">
+      <c r="C56" s="1">
+        <v>94</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="3:4">
+      <c r="C57" s="1">
+        <v>100</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="3:4">
+      <c r="C58" s="1">
+        <v>101</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="3:4">
+      <c r="C59" s="1">
+        <v>102</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="3:4">
+      <c r="C60" s="1">
+        <v>103</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="3:4">
+      <c r="C61" s="1">
+        <v>104</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="3:4">
+      <c r="C62" s="1">
+        <v>110</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="3:4">
+      <c r="C63" s="1">
+        <v>120</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="3:4">
+      <c r="C64" s="1">
+        <v>121</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="3:4">
+      <c r="C65" s="1">
+        <v>122</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="3:4">
+      <c r="C66" s="1">
+        <v>123</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="3:4">
+      <c r="C67" s="1">
+        <v>124</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="3:4">
+      <c r="C68" s="1">
+        <v>500</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="3:4">
+      <c r="C69" s="1">
+        <v>501</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="3:4">
+      <c r="C70" s="1">
+        <v>502</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="3:4">
+      <c r="C71" s="1">
+        <v>503</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="3:4">
+      <c r="C72" s="1">
+        <v>504</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="3:4">
+      <c r="C73" s="1">
+        <v>600</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="3:4">
+      <c r="C74" s="1">
+        <v>601</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="3:4">
+      <c r="C75" s="1">
+        <v>602</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="3:4">
+      <c r="C76" s="1">
+        <v>700</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="3:4">
+      <c r="C77" s="1">
+        <v>701</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="3:4">
+      <c r="C78" s="1">
+        <v>702</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="3:4">
+      <c r="C79" s="1">
+        <v>703</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="3:4">
+      <c r="C80" s="1">
+        <v>704</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3030,5 +3747,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/global/Item.xlsx
+++ b/global/Item.xlsx
@@ -52,7 +52,11 @@
 120-499：各种卡牌碎片
 500-599：礼物道具
 600-699：换肤道具
-700-799：家园道具</t>
+700-799：家园道具
+800-999：礼包
+1000-1999：装备
+2000-2999：晶石
+</t>
         </r>
       </text>
     </comment>
@@ -61,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="153">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -492,6 +496,45 @@
   </si>
   <si>
     <t>家园道具5</t>
+  </si>
+  <si>
+    <t>礼包1</t>
+  </si>
+  <si>
+    <t>礼包2</t>
+  </si>
+  <si>
+    <t>礼包3</t>
+  </si>
+  <si>
+    <t>装备1</t>
+  </si>
+  <si>
+    <t>装备2</t>
+  </si>
+  <si>
+    <t>装备3</t>
+  </si>
+  <si>
+    <t>装备4</t>
+  </si>
+  <si>
+    <t>装备5</t>
+  </si>
+  <si>
+    <t>晶石1</t>
+  </si>
+  <si>
+    <t>晶石2</t>
+  </si>
+  <si>
+    <t>晶石3</t>
+  </si>
+  <si>
+    <t>晶石4</t>
+  </si>
+  <si>
+    <t>晶石5</t>
   </si>
 </sst>
 </file>
@@ -2370,10 +2413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U80"/>
+  <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15:U93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
@@ -3001,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>9999</v>
@@ -3061,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
         <v>9999</v>
@@ -3121,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14" s="1">
         <v>9999</v>
@@ -3181,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K15" s="1">
         <v>9999</v>
@@ -3218,7 +3261,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="3:5">
+    <row r="16" customHeight="1" spans="3:21">
       <c r="C16" s="6">
         <v>14</v>
       </c>
@@ -3228,517 +3271,4128 @@
       <c r="E16" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" customHeight="1" spans="3:4">
+      <c r="F16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>4</v>
+      </c>
+      <c r="K16" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L16" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M16" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P16" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>0</v>
+      </c>
+      <c r="R16" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S16" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T16" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U16" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:21">
       <c r="C17" s="1">
         <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="18" customHeight="1" spans="3:4">
+      <c r="E17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L17" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M17" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P17" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>0</v>
+      </c>
+      <c r="R17" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S17" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T17" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U17" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:21">
       <c r="C18" s="1">
         <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="3:4">
+      <c r="E18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L18" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M18" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P18" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>0</v>
+      </c>
+      <c r="R18" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S18" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T18" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U18" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:21">
       <c r="C19" s="1">
         <v>22</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:4">
+      <c r="E19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L19" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M19" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P19" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>0</v>
+      </c>
+      <c r="R19" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S19" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T19" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U19" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:21">
       <c r="C20" s="1">
         <v>23</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:4">
+      <c r="E20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>3</v>
+      </c>
+      <c r="K20" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L20" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M20" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P20" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>0</v>
+      </c>
+      <c r="R20" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S20" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T20" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U20" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:21">
       <c r="C21" s="1">
         <v>24</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:4">
+      <c r="E21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>4</v>
+      </c>
+      <c r="K21" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L21" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M21" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P21" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>0</v>
+      </c>
+      <c r="R21" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S21" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T21" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U21" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:21">
       <c r="C22" s="1">
         <v>30</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:4">
+      <c r="E22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L22" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M22" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P22" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>0</v>
+      </c>
+      <c r="R22" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S22" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T22" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U22" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:21">
       <c r="C23" s="1">
         <v>31</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:4">
+      <c r="E23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L23" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M23" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P23" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>0</v>
+      </c>
+      <c r="R23" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S23" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T23" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U23" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:21">
       <c r="C24" s="1">
         <v>32</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:4">
+      <c r="E24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <v>2</v>
+      </c>
+      <c r="K24" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L24" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M24" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P24" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>0</v>
+      </c>
+      <c r="R24" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S24" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T24" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U24" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:21">
       <c r="C25" s="1">
         <v>33</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:4">
+      <c r="E25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6">
+        <v>3</v>
+      </c>
+      <c r="K25" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L25" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M25" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P25" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>0</v>
+      </c>
+      <c r="R25" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S25" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T25" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U25" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:21">
       <c r="C26" s="1">
         <v>34</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:4">
+      <c r="E26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>4</v>
+      </c>
+      <c r="K26" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L26" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M26" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P26" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>0</v>
+      </c>
+      <c r="R26" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S26" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T26" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U26" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:21">
       <c r="C27" s="1">
         <v>40</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="28" customHeight="1" spans="3:4">
+      <c r="E27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L27" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M27" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P27" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>0</v>
+      </c>
+      <c r="R27" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S27" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T27" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U27" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:21">
       <c r="C28" s="1">
         <v>41</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:4">
+      <c r="E28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L28" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M28" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P28" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>0</v>
+      </c>
+      <c r="R28" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S28" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T28" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U28" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:21">
       <c r="C29" s="1">
         <v>42</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="30" customHeight="1" spans="3:4">
+      <c r="E29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6">
+        <v>2</v>
+      </c>
+      <c r="K29" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L29" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M29" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P29" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>0</v>
+      </c>
+      <c r="R29" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S29" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T29" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U29" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:21">
       <c r="C30" s="1">
         <v>43</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="31" customHeight="1" spans="3:4">
+      <c r="E30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
+        <v>3</v>
+      </c>
+      <c r="K30" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L30" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M30" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P30" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>0</v>
+      </c>
+      <c r="R30" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S30" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T30" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U30" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:21">
       <c r="C31" s="1">
         <v>44</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="32" customHeight="1" spans="3:4">
+      <c r="E31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6">
+        <v>4</v>
+      </c>
+      <c r="K31" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L31" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M31" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P31" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>0</v>
+      </c>
+      <c r="R31" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S31" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T31" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U31" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:21">
       <c r="C32" s="1">
         <v>50</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="33" customHeight="1" spans="3:4">
+      <c r="E32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L32" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M32" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P32" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>0</v>
+      </c>
+      <c r="R32" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S32" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T32" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U32" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:21">
       <c r="C33" s="1">
         <v>51</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="34" customHeight="1" spans="3:4">
+      <c r="E33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L33" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M33" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P33" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>0</v>
+      </c>
+      <c r="R33" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S33" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T33" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U33" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:21">
       <c r="C34" s="1">
         <v>52</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:4">
+      <c r="E34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6">
+        <v>2</v>
+      </c>
+      <c r="K34" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L34" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M34" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P34" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>0</v>
+      </c>
+      <c r="R34" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S34" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T34" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U34" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:21">
       <c r="C35" s="1">
         <v>53</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:4">
+      <c r="E35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6">
+        <v>3</v>
+      </c>
+      <c r="K35" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L35" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M35" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P35" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>0</v>
+      </c>
+      <c r="R35" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S35" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T35" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U35" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:21">
       <c r="C36" s="1">
         <v>54</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:4">
+      <c r="E36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6">
+        <v>4</v>
+      </c>
+      <c r="K36" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L36" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M36" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P36" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>0</v>
+      </c>
+      <c r="R36" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S36" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T36" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U36" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:21">
       <c r="C37" s="1">
         <v>60</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:4">
+      <c r="E37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0</v>
+      </c>
+      <c r="J37" s="6">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L37" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M37" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P37" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="8">
+        <v>0</v>
+      </c>
+      <c r="R37" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S37" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T37" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U37" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:21">
       <c r="C38" s="1">
         <v>61</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:4">
+      <c r="E38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38" s="6">
+        <v>0</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6">
+        <v>1</v>
+      </c>
+      <c r="K38" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L38" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M38" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P38" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="8">
+        <v>0</v>
+      </c>
+      <c r="R38" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S38" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T38" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U38" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:21">
       <c r="C39" s="1">
         <v>62</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:4">
+      <c r="E39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0</v>
+      </c>
+      <c r="J39" s="6">
+        <v>2</v>
+      </c>
+      <c r="K39" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L39" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M39" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P39" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="8">
+        <v>0</v>
+      </c>
+      <c r="R39" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S39" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T39" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U39" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:21">
       <c r="C40" s="1">
         <v>63</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="41" customHeight="1" spans="3:4">
+      <c r="E40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0</v>
+      </c>
+      <c r="J40" s="6">
+        <v>3</v>
+      </c>
+      <c r="K40" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L40" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M40" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P40" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="8">
+        <v>0</v>
+      </c>
+      <c r="R40" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S40" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T40" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U40" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:21">
       <c r="C41" s="1">
         <v>64</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" customHeight="1" spans="3:4">
+      <c r="E41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6">
+        <v>4</v>
+      </c>
+      <c r="K41" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L41" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M41" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P41" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="8">
+        <v>0</v>
+      </c>
+      <c r="R41" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S41" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T41" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U41" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:21">
       <c r="C42" s="1">
         <v>70</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="43" customHeight="1" spans="3:4">
+      <c r="E42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0</v>
+      </c>
+      <c r="J42" s="6">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L42" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M42" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P42" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="8">
+        <v>0</v>
+      </c>
+      <c r="R42" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S42" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T42" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U42" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:21">
       <c r="C43" s="1">
         <v>71</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="44" customHeight="1" spans="3:4">
+      <c r="E43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0</v>
+      </c>
+      <c r="J43" s="6">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L43" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M43" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P43" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="8">
+        <v>0</v>
+      </c>
+      <c r="R43" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S43" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T43" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U43" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:21">
       <c r="C44" s="1">
         <v>72</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="45" customHeight="1" spans="3:4">
+      <c r="E44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0</v>
+      </c>
+      <c r="J44" s="6">
+        <v>2</v>
+      </c>
+      <c r="K44" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L44" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M44" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P44" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>0</v>
+      </c>
+      <c r="R44" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S44" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T44" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U44" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:21">
       <c r="C45" s="1">
         <v>73</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="46" customHeight="1" spans="3:4">
+      <c r="E45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0</v>
+      </c>
+      <c r="J45" s="6">
+        <v>3</v>
+      </c>
+      <c r="K45" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L45" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M45" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P45" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="8">
+        <v>0</v>
+      </c>
+      <c r="R45" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S45" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T45" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U45" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:21">
       <c r="C46" s="1">
         <v>74</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="47" customHeight="1" spans="3:4">
+      <c r="E46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6">
+        <v>4</v>
+      </c>
+      <c r="K46" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L46" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M46" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P46" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="8">
+        <v>0</v>
+      </c>
+      <c r="R46" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S46" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T46" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U46" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:21">
       <c r="C47" s="1">
         <v>80</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="48" customHeight="1" spans="3:4">
+      <c r="E47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" s="6">
+        <v>0</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L47" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M47" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P47" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="8">
+        <v>0</v>
+      </c>
+      <c r="R47" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S47" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T47" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U47" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:21">
       <c r="C48" s="1">
         <v>81</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="49" customHeight="1" spans="3:4">
+      <c r="E48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H48" s="6">
+        <v>0</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0</v>
+      </c>
+      <c r="J48" s="6">
+        <v>1</v>
+      </c>
+      <c r="K48" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L48" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M48" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P48" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="8">
+        <v>0</v>
+      </c>
+      <c r="R48" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S48" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T48" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U48" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:21">
       <c r="C49" s="1">
         <v>82</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="50" customHeight="1" spans="3:4">
+      <c r="E49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6">
+        <v>2</v>
+      </c>
+      <c r="K49" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L49" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M49" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P49" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="8">
+        <v>0</v>
+      </c>
+      <c r="R49" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S49" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T49" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U49" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:21">
       <c r="C50" s="1">
         <v>83</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="51" customHeight="1" spans="3:4">
+      <c r="E50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6">
+        <v>3</v>
+      </c>
+      <c r="K50" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L50" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M50" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P50" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="8">
+        <v>0</v>
+      </c>
+      <c r="R50" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S50" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T50" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U50" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:21">
       <c r="C51" s="1">
         <v>84</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="52" customHeight="1" spans="3:4">
+      <c r="E51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0</v>
+      </c>
+      <c r="I51" s="6">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6">
+        <v>4</v>
+      </c>
+      <c r="K51" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L51" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M51" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P51" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="8">
+        <v>0</v>
+      </c>
+      <c r="R51" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S51" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T51" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U51" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:21">
       <c r="C52" s="1">
         <v>90</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="53" customHeight="1" spans="3:4">
+      <c r="E52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" s="6">
+        <v>0</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0</v>
+      </c>
+      <c r="J52" s="6">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L52" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M52" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P52" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="8">
+        <v>0</v>
+      </c>
+      <c r="R52" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S52" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T52" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U52" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:21">
       <c r="C53" s="1">
         <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="54" customHeight="1" spans="3:4">
+      <c r="E53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H53" s="6">
+        <v>0</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0</v>
+      </c>
+      <c r="J53" s="6">
+        <v>1</v>
+      </c>
+      <c r="K53" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L53" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M53" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P53" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="8">
+        <v>0</v>
+      </c>
+      <c r="R53" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S53" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T53" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U53" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:21">
       <c r="C54" s="1">
         <v>92</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="55" customHeight="1" spans="3:4">
+      <c r="E54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H54" s="6">
+        <v>0</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0</v>
+      </c>
+      <c r="J54" s="6">
+        <v>2</v>
+      </c>
+      <c r="K54" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L54" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M54" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P54" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="8">
+        <v>0</v>
+      </c>
+      <c r="R54" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S54" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T54" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U54" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:21">
       <c r="C55" s="1">
         <v>93</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="56" customHeight="1" spans="3:4">
+      <c r="E55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H55" s="6">
+        <v>0</v>
+      </c>
+      <c r="I55" s="6">
+        <v>0</v>
+      </c>
+      <c r="J55" s="6">
+        <v>3</v>
+      </c>
+      <c r="K55" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L55" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M55" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P55" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="8">
+        <v>0</v>
+      </c>
+      <c r="R55" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S55" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T55" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U55" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:21">
       <c r="C56" s="1">
         <v>94</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="57" customHeight="1" spans="3:4">
+      <c r="E56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56" s="6">
+        <v>0</v>
+      </c>
+      <c r="I56" s="6">
+        <v>0</v>
+      </c>
+      <c r="J56" s="6">
+        <v>4</v>
+      </c>
+      <c r="K56" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L56" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M56" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P56" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="8">
+        <v>0</v>
+      </c>
+      <c r="R56" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S56" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T56" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U56" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="3:21">
       <c r="C57" s="1">
         <v>100</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="58" customHeight="1" spans="3:4">
+      <c r="E57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57" s="6">
+        <v>0</v>
+      </c>
+      <c r="I57" s="6">
+        <v>0</v>
+      </c>
+      <c r="J57" s="6">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L57" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M57" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P57" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="8">
+        <v>0</v>
+      </c>
+      <c r="R57" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S57" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T57" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U57" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="3:21">
       <c r="C58" s="1">
         <v>101</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="59" customHeight="1" spans="3:4">
+      <c r="E58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H58" s="6">
+        <v>0</v>
+      </c>
+      <c r="I58" s="6">
+        <v>0</v>
+      </c>
+      <c r="J58" s="6">
+        <v>1</v>
+      </c>
+      <c r="K58" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L58" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M58" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P58" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="8">
+        <v>0</v>
+      </c>
+      <c r="R58" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S58" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T58" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U58" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="3:21">
       <c r="C59" s="1">
         <v>102</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="60" customHeight="1" spans="3:4">
+      <c r="E59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59" s="6">
+        <v>0</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0</v>
+      </c>
+      <c r="J59" s="6">
+        <v>2</v>
+      </c>
+      <c r="K59" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L59" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M59" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P59" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="8">
+        <v>0</v>
+      </c>
+      <c r="R59" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S59" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T59" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U59" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="3:21">
       <c r="C60" s="1">
         <v>103</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="61" customHeight="1" spans="3:4">
+      <c r="E60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H60" s="6">
+        <v>0</v>
+      </c>
+      <c r="I60" s="6">
+        <v>0</v>
+      </c>
+      <c r="J60" s="6">
+        <v>3</v>
+      </c>
+      <c r="K60" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L60" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M60" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P60" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="8">
+        <v>0</v>
+      </c>
+      <c r="R60" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S60" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T60" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U60" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="3:21">
       <c r="C61" s="1">
         <v>104</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="62" customHeight="1" spans="3:4">
+      <c r="E61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H61" s="6">
+        <v>0</v>
+      </c>
+      <c r="I61" s="6">
+        <v>0</v>
+      </c>
+      <c r="J61" s="6">
+        <v>4</v>
+      </c>
+      <c r="K61" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L61" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M61" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P61" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="8">
+        <v>0</v>
+      </c>
+      <c r="R61" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S61" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T61" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U61" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="3:21">
       <c r="C62" s="1">
         <v>110</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="63" customHeight="1" spans="3:4">
+      <c r="E62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H62" s="6">
+        <v>0</v>
+      </c>
+      <c r="I62" s="6">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L62" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M62" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P62" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="8">
+        <v>0</v>
+      </c>
+      <c r="R62" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S62" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T62" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U62" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="3:21">
       <c r="C63" s="1">
         <v>120</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="64" customHeight="1" spans="3:4">
+      <c r="E63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63" s="6">
+        <v>0</v>
+      </c>
+      <c r="I63" s="6">
+        <v>0</v>
+      </c>
+      <c r="J63" s="6">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L63" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M63" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P63" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="8">
+        <v>0</v>
+      </c>
+      <c r="R63" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S63" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T63" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U63" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="3:21">
       <c r="C64" s="1">
         <v>121</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="65" customHeight="1" spans="3:4">
+      <c r="E64" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H64" s="6">
+        <v>0</v>
+      </c>
+      <c r="I64" s="6">
+        <v>0</v>
+      </c>
+      <c r="J64" s="6">
+        <v>1</v>
+      </c>
+      <c r="K64" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L64" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M64" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P64" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="8">
+        <v>0</v>
+      </c>
+      <c r="R64" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S64" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T64" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U64" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="3:21">
       <c r="C65" s="1">
         <v>122</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="66" customHeight="1" spans="3:4">
+      <c r="E65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H65" s="6">
+        <v>0</v>
+      </c>
+      <c r="I65" s="6">
+        <v>0</v>
+      </c>
+      <c r="J65" s="6">
+        <v>2</v>
+      </c>
+      <c r="K65" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L65" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M65" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P65" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="8">
+        <v>0</v>
+      </c>
+      <c r="R65" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S65" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T65" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U65" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="3:21">
       <c r="C66" s="1">
         <v>123</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="67" customHeight="1" spans="3:4">
+      <c r="E66" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" s="6">
+        <v>0</v>
+      </c>
+      <c r="I66" s="6">
+        <v>0</v>
+      </c>
+      <c r="J66" s="6">
+        <v>3</v>
+      </c>
+      <c r="K66" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L66" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M66" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P66" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="8">
+        <v>0</v>
+      </c>
+      <c r="R66" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S66" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T66" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U66" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="3:21">
       <c r="C67" s="1">
         <v>124</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="68" customHeight="1" spans="3:4">
+      <c r="E67" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H67" s="6">
+        <v>0</v>
+      </c>
+      <c r="I67" s="6">
+        <v>0</v>
+      </c>
+      <c r="J67" s="6">
+        <v>4</v>
+      </c>
+      <c r="K67" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L67" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M67" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P67" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="8">
+        <v>0</v>
+      </c>
+      <c r="R67" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S67" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T67" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U67" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="3:21">
       <c r="C68" s="1">
         <v>500</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="69" customHeight="1" spans="3:4">
+      <c r="E68" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H68" s="6">
+        <v>0</v>
+      </c>
+      <c r="I68" s="6">
+        <v>0</v>
+      </c>
+      <c r="J68" s="6">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L68" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M68" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P68" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="8">
+        <v>0</v>
+      </c>
+      <c r="R68" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S68" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T68" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U68" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="3:21">
       <c r="C69" s="1">
         <v>501</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="70" customHeight="1" spans="3:4">
+      <c r="E69" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H69" s="6">
+        <v>0</v>
+      </c>
+      <c r="I69" s="6">
+        <v>0</v>
+      </c>
+      <c r="J69" s="6">
+        <v>1</v>
+      </c>
+      <c r="K69" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L69" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M69" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P69" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="8">
+        <v>0</v>
+      </c>
+      <c r="R69" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S69" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T69" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U69" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="3:21">
       <c r="C70" s="1">
         <v>502</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="71" customHeight="1" spans="3:4">
+      <c r="E70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H70" s="6">
+        <v>0</v>
+      </c>
+      <c r="I70" s="6">
+        <v>0</v>
+      </c>
+      <c r="J70" s="6">
+        <v>2</v>
+      </c>
+      <c r="K70" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L70" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M70" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P70" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="8">
+        <v>0</v>
+      </c>
+      <c r="R70" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S70" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T70" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U70" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="3:21">
       <c r="C71" s="1">
         <v>503</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="72" customHeight="1" spans="3:4">
+      <c r="E71" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H71" s="6">
+        <v>0</v>
+      </c>
+      <c r="I71" s="6">
+        <v>0</v>
+      </c>
+      <c r="J71" s="6">
+        <v>3</v>
+      </c>
+      <c r="K71" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L71" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M71" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P71" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="8">
+        <v>0</v>
+      </c>
+      <c r="R71" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S71" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T71" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U71" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="3:21">
       <c r="C72" s="1">
         <v>504</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="73" customHeight="1" spans="3:4">
+      <c r="E72" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H72" s="6">
+        <v>0</v>
+      </c>
+      <c r="I72" s="6">
+        <v>0</v>
+      </c>
+      <c r="J72" s="6">
+        <v>4</v>
+      </c>
+      <c r="K72" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L72" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M72" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P72" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="8">
+        <v>0</v>
+      </c>
+      <c r="R72" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S72" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T72" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U72" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="3:21">
       <c r="C73" s="1">
         <v>600</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="74" customHeight="1" spans="3:4">
+      <c r="E73" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H73" s="6">
+        <v>0</v>
+      </c>
+      <c r="I73" s="6">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L73" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M73" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P73" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="8">
+        <v>0</v>
+      </c>
+      <c r="R73" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S73" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T73" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U73" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="3:21">
       <c r="C74" s="1">
         <v>601</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="75" customHeight="1" spans="3:4">
+      <c r="E74" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H74" s="6">
+        <v>0</v>
+      </c>
+      <c r="I74" s="6">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1">
+        <v>1</v>
+      </c>
+      <c r="K74" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L74" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M74" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P74" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="8">
+        <v>0</v>
+      </c>
+      <c r="R74" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S74" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T74" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U74" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="3:21">
       <c r="C75" s="1">
         <v>602</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="76" customHeight="1" spans="3:4">
+      <c r="E75" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H75" s="6">
+        <v>0</v>
+      </c>
+      <c r="I75" s="6">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1">
+        <v>2</v>
+      </c>
+      <c r="K75" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L75" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M75" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P75" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="8">
+        <v>0</v>
+      </c>
+      <c r="R75" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S75" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T75" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U75" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="3:21">
       <c r="C76" s="1">
         <v>700</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="77" customHeight="1" spans="3:4">
+      <c r="E76" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H76" s="6">
+        <v>0</v>
+      </c>
+      <c r="I76" s="6">
+        <v>0</v>
+      </c>
+      <c r="J76" s="6">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L76" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M76" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P76" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="8">
+        <v>0</v>
+      </c>
+      <c r="R76" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S76" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T76" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U76" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="3:21">
       <c r="C77" s="1">
         <v>701</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="78" customHeight="1" spans="3:4">
+      <c r="E77" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H77" s="6">
+        <v>0</v>
+      </c>
+      <c r="I77" s="6">
+        <v>0</v>
+      </c>
+      <c r="J77" s="6">
+        <v>1</v>
+      </c>
+      <c r="K77" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L77" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M77" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P77" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="8">
+        <v>0</v>
+      </c>
+      <c r="R77" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S77" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T77" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U77" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="3:21">
       <c r="C78" s="1">
         <v>702</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="79" customHeight="1" spans="3:4">
+      <c r="E78" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H78" s="6">
+        <v>0</v>
+      </c>
+      <c r="I78" s="6">
+        <v>0</v>
+      </c>
+      <c r="J78" s="6">
+        <v>2</v>
+      </c>
+      <c r="K78" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L78" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M78" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P78" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="8">
+        <v>0</v>
+      </c>
+      <c r="R78" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S78" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T78" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U78" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="3:21">
       <c r="C79" s="1">
         <v>703</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="80" customHeight="1" spans="3:4">
+      <c r="E79" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H79" s="6">
+        <v>0</v>
+      </c>
+      <c r="I79" s="6">
+        <v>0</v>
+      </c>
+      <c r="J79" s="6">
+        <v>3</v>
+      </c>
+      <c r="K79" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L79" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M79" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P79" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="8">
+        <v>0</v>
+      </c>
+      <c r="R79" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S79" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T79" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U79" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="3:21">
       <c r="C80" s="1">
         <v>704</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>139</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H80" s="6">
+        <v>0</v>
+      </c>
+      <c r="I80" s="6">
+        <v>0</v>
+      </c>
+      <c r="J80" s="6">
+        <v>4</v>
+      </c>
+      <c r="K80" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L80" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M80" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P80" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="8">
+        <v>0</v>
+      </c>
+      <c r="R80" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S80" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T80" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U80" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="3:21">
+      <c r="C81" s="1">
+        <v>800</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H81" s="1">
+        <v>3</v>
+      </c>
+      <c r="I81" s="6">
+        <v>0</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0</v>
+      </c>
+      <c r="K81" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L81" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M81" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P81" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="8">
+        <v>0</v>
+      </c>
+      <c r="R81" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S81" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T81" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U81" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="3:21">
+      <c r="C82" s="1">
+        <v>801</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H82" s="1">
+        <v>3</v>
+      </c>
+      <c r="I82" s="6">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1">
+        <v>1</v>
+      </c>
+      <c r="K82" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L82" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M82" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P82" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="8">
+        <v>0</v>
+      </c>
+      <c r="R82" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S82" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T82" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U82" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="3:21">
+      <c r="C83" s="1">
+        <v>802</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H83" s="1">
+        <v>3</v>
+      </c>
+      <c r="I83" s="6">
+        <v>0</v>
+      </c>
+      <c r="J83" s="1">
+        <v>2</v>
+      </c>
+      <c r="K83" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L83" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M83" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P83" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="8">
+        <v>0</v>
+      </c>
+      <c r="R83" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S83" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T83" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U83" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="3:21">
+      <c r="C84" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H84" s="1">
+        <v>1</v>
+      </c>
+      <c r="I84" s="6">
+        <v>0</v>
+      </c>
+      <c r="J84" s="6">
+        <v>0</v>
+      </c>
+      <c r="K84" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L84" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M84" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P84" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="8">
+        <v>0</v>
+      </c>
+      <c r="R84" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S84" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T84" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U84" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="3:21">
+      <c r="C85" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H85" s="1">
+        <v>1</v>
+      </c>
+      <c r="I85" s="6">
+        <v>0</v>
+      </c>
+      <c r="J85" s="6">
+        <v>1</v>
+      </c>
+      <c r="K85" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L85" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M85" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P85" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="8">
+        <v>0</v>
+      </c>
+      <c r="R85" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S85" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T85" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U85" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="3:21">
+      <c r="C86" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H86" s="1">
+        <v>1</v>
+      </c>
+      <c r="I86" s="6">
+        <v>0</v>
+      </c>
+      <c r="J86" s="6">
+        <v>2</v>
+      </c>
+      <c r="K86" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L86" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M86" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P86" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="8">
+        <v>0</v>
+      </c>
+      <c r="R86" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S86" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T86" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U86" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="3:21">
+      <c r="C87" s="1">
+        <v>1003</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H87" s="1">
+        <v>1</v>
+      </c>
+      <c r="I87" s="6">
+        <v>0</v>
+      </c>
+      <c r="J87" s="6">
+        <v>3</v>
+      </c>
+      <c r="K87" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L87" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M87" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P87" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="8">
+        <v>0</v>
+      </c>
+      <c r="R87" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S87" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T87" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U87" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="3:21">
+      <c r="C88" s="1">
+        <v>1004</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H88" s="1">
+        <v>1</v>
+      </c>
+      <c r="I88" s="6">
+        <v>0</v>
+      </c>
+      <c r="J88" s="6">
+        <v>4</v>
+      </c>
+      <c r="K88" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L88" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M88" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P88" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="8">
+        <v>0</v>
+      </c>
+      <c r="R88" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S88" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T88" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U88" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="3:21">
+      <c r="C89" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H89" s="1">
+        <v>2</v>
+      </c>
+      <c r="I89" s="6">
+        <v>0</v>
+      </c>
+      <c r="J89" s="6">
+        <v>0</v>
+      </c>
+      <c r="K89" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L89" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M89" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P89" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="8">
+        <v>0</v>
+      </c>
+      <c r="R89" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S89" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T89" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U89" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="3:21">
+      <c r="C90" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H90" s="1">
+        <v>2</v>
+      </c>
+      <c r="I90" s="6">
+        <v>0</v>
+      </c>
+      <c r="J90" s="6">
+        <v>1</v>
+      </c>
+      <c r="K90" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L90" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M90" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P90" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="8">
+        <v>0</v>
+      </c>
+      <c r="R90" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S90" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T90" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U90" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="3:21">
+      <c r="C91" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H91" s="1">
+        <v>2</v>
+      </c>
+      <c r="I91" s="6">
+        <v>0</v>
+      </c>
+      <c r="J91" s="6">
+        <v>2</v>
+      </c>
+      <c r="K91" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L91" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M91" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P91" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="8">
+        <v>0</v>
+      </c>
+      <c r="R91" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S91" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T91" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U91" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="3:21">
+      <c r="C92" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H92" s="1">
+        <v>2</v>
+      </c>
+      <c r="I92" s="6">
+        <v>0</v>
+      </c>
+      <c r="J92" s="6">
+        <v>3</v>
+      </c>
+      <c r="K92" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L92" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M92" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P92" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="8">
+        <v>0</v>
+      </c>
+      <c r="R92" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S92" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T92" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U92" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="3:21">
+      <c r="C93" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H93" s="1">
+        <v>2</v>
+      </c>
+      <c r="I93" s="6">
+        <v>0</v>
+      </c>
+      <c r="J93" s="6">
+        <v>4</v>
+      </c>
+      <c r="K93" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L93" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M93" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P93" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q93" s="8">
+        <v>0</v>
+      </c>
+      <c r="R93" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S93" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T93" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U93" s="6">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/global/Item.xlsx
+++ b/global/Item.xlsx
@@ -541,12 +541,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -563,16 +562,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -580,15 +592,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,7 +607,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -617,60 +635,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,14 +667,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
@@ -708,7 +675,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,7 +745,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,79 +895,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,73 +907,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,13 +925,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,22 +958,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1003,6 +1011,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1017,190 +1051,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1210,9 +1209,8 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2415,8 +2413,8 @@
   <sheetPr/>
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15:U93"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15:O93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
@@ -2751,14 +2749,14 @@
         <v>-1</v>
       </c>
       <c r="M7" s="6">
-        <v>30</v>
+        <v>-1</v>
       </c>
       <c r="N7" s="7">
-        <v>44234.645625</v>
+        <v>25569.3333333333</v>
       </c>
       <c r="O7" s="8">
-        <f>(N7-70*365-19)*86400-8*3600</f>
-        <v>1612682982</v>
+        <f t="shared" ref="O7:O15" si="0">(N7-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
       </c>
       <c r="P7" s="8">
         <v>0</v>
@@ -2813,14 +2811,14 @@
         <v>-1</v>
       </c>
       <c r="M8" s="6">
-        <v>60</v>
+        <v>-1</v>
       </c>
       <c r="N8" s="7">
-        <v>44234.5622916667</v>
+        <v>25569.3333333333</v>
       </c>
       <c r="O8" s="8">
-        <f>(N8-70*365-19)*86400-8*3600</f>
-        <v>1612675782</v>
+        <f t="shared" si="0"/>
+        <v>-2.93366611003876e-6</v>
       </c>
       <c r="P8" s="8">
         <v>0</v>
@@ -2875,11 +2873,11 @@
       <c r="M9" s="6">
         <v>-1</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="7">
         <v>25569.3333333333</v>
       </c>
       <c r="O9" s="8">
-        <f>(N9-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P9" s="8">
@@ -2935,11 +2933,11 @@
       <c r="M10" s="6">
         <v>-1</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="7">
         <v>25569.3333333333</v>
       </c>
       <c r="O10" s="8">
-        <f>(N10-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P10" s="8">
@@ -2995,11 +2993,11 @@
       <c r="M11" s="6">
         <v>-1</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="7">
         <v>25569.3333333333</v>
       </c>
       <c r="O11" s="8">
-        <f>(N11-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P11" s="8">
@@ -3055,11 +3053,11 @@
       <c r="M12" s="6">
         <v>-1</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="7">
         <v>25569.3333333333</v>
       </c>
       <c r="O12" s="8">
-        <f>(N12-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P12" s="8">
@@ -3115,11 +3113,11 @@
       <c r="M13" s="6">
         <v>-1</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="7">
         <v>25569.3333333333</v>
       </c>
       <c r="O13" s="8">
-        <f>(N13-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P13" s="8">
@@ -3175,11 +3173,11 @@
       <c r="M14" s="6">
         <v>-1</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="7">
         <v>25569.3333333333</v>
       </c>
       <c r="O14" s="8">
-        <f>(N14-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P14" s="8">
@@ -3235,11 +3233,11 @@
       <c r="M15" s="6">
         <v>-1</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="7">
         <v>25569.3333333333</v>
       </c>
       <c r="O15" s="8">
-        <f>(N15-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P15" s="8">
@@ -3295,6 +3293,13 @@
       <c r="M16" s="6">
         <v>-1</v>
       </c>
+      <c r="N16" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O16" s="8">
+        <f t="shared" ref="O16:O47" si="1">(N16-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P16" s="8">
         <v>1</v>
       </c>
@@ -3348,6 +3353,13 @@
       <c r="M17" s="6">
         <v>-1</v>
       </c>
+      <c r="N17" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O17" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P17" s="8">
         <v>1</v>
       </c>
@@ -3401,6 +3413,13 @@
       <c r="M18" s="6">
         <v>-1</v>
       </c>
+      <c r="N18" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O18" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P18" s="8">
         <v>1</v>
       </c>
@@ -3454,6 +3473,13 @@
       <c r="M19" s="6">
         <v>-1</v>
       </c>
+      <c r="N19" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O19" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P19" s="8">
         <v>1</v>
       </c>
@@ -3507,6 +3533,13 @@
       <c r="M20" s="6">
         <v>-1</v>
       </c>
+      <c r="N20" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O20" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P20" s="8">
         <v>1</v>
       </c>
@@ -3560,6 +3593,13 @@
       <c r="M21" s="6">
         <v>-1</v>
       </c>
+      <c r="N21" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O21" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P21" s="8">
         <v>1</v>
       </c>
@@ -3613,6 +3653,13 @@
       <c r="M22" s="6">
         <v>-1</v>
       </c>
+      <c r="N22" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O22" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P22" s="8">
         <v>1</v>
       </c>
@@ -3666,6 +3713,13 @@
       <c r="M23" s="6">
         <v>-1</v>
       </c>
+      <c r="N23" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O23" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P23" s="8">
         <v>1</v>
       </c>
@@ -3719,6 +3773,13 @@
       <c r="M24" s="6">
         <v>-1</v>
       </c>
+      <c r="N24" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O24" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P24" s="8">
         <v>1</v>
       </c>
@@ -3772,6 +3833,13 @@
       <c r="M25" s="6">
         <v>-1</v>
       </c>
+      <c r="N25" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O25" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P25" s="8">
         <v>1</v>
       </c>
@@ -3825,6 +3893,13 @@
       <c r="M26" s="6">
         <v>-1</v>
       </c>
+      <c r="N26" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O26" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P26" s="8">
         <v>1</v>
       </c>
@@ -3878,6 +3953,13 @@
       <c r="M27" s="6">
         <v>-1</v>
       </c>
+      <c r="N27" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O27" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P27" s="8">
         <v>1</v>
       </c>
@@ -3931,6 +4013,13 @@
       <c r="M28" s="6">
         <v>-1</v>
       </c>
+      <c r="N28" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O28" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P28" s="8">
         <v>1</v>
       </c>
@@ -3984,6 +4073,13 @@
       <c r="M29" s="6">
         <v>-1</v>
       </c>
+      <c r="N29" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O29" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P29" s="8">
         <v>1</v>
       </c>
@@ -4037,6 +4133,13 @@
       <c r="M30" s="6">
         <v>-1</v>
       </c>
+      <c r="N30" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O30" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P30" s="8">
         <v>1</v>
       </c>
@@ -4090,6 +4193,13 @@
       <c r="M31" s="6">
         <v>-1</v>
       </c>
+      <c r="N31" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O31" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P31" s="8">
         <v>1</v>
       </c>
@@ -4143,6 +4253,13 @@
       <c r="M32" s="6">
         <v>-1</v>
       </c>
+      <c r="N32" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O32" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P32" s="8">
         <v>1</v>
       </c>
@@ -4196,6 +4313,13 @@
       <c r="M33" s="6">
         <v>-1</v>
       </c>
+      <c r="N33" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O33" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P33" s="8">
         <v>1</v>
       </c>
@@ -4249,6 +4373,13 @@
       <c r="M34" s="6">
         <v>-1</v>
       </c>
+      <c r="N34" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O34" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P34" s="8">
         <v>1</v>
       </c>
@@ -4302,6 +4433,13 @@
       <c r="M35" s="6">
         <v>-1</v>
       </c>
+      <c r="N35" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O35" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P35" s="8">
         <v>1</v>
       </c>
@@ -4355,6 +4493,13 @@
       <c r="M36" s="6">
         <v>-1</v>
       </c>
+      <c r="N36" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O36" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P36" s="8">
         <v>1</v>
       </c>
@@ -4408,6 +4553,13 @@
       <c r="M37" s="6">
         <v>-1</v>
       </c>
+      <c r="N37" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O37" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P37" s="8">
         <v>1</v>
       </c>
@@ -4461,6 +4613,13 @@
       <c r="M38" s="6">
         <v>-1</v>
       </c>
+      <c r="N38" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O38" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P38" s="8">
         <v>1</v>
       </c>
@@ -4513,6 +4672,13 @@
       </c>
       <c r="M39" s="6">
         <v>-1</v>
+      </c>
+      <c r="N39" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O39" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
       </c>
       <c r="P39" s="8">
         <v>1</v>
@@ -4567,6 +4733,13 @@
       <c r="M40" s="6">
         <v>-1</v>
       </c>
+      <c r="N40" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O40" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P40" s="8">
         <v>1</v>
       </c>
@@ -4620,6 +4793,13 @@
       <c r="M41" s="6">
         <v>-1</v>
       </c>
+      <c r="N41" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O41" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P41" s="8">
         <v>1</v>
       </c>
@@ -4673,6 +4853,13 @@
       <c r="M42" s="6">
         <v>-1</v>
       </c>
+      <c r="N42" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O42" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P42" s="8">
         <v>1</v>
       </c>
@@ -4726,6 +4913,13 @@
       <c r="M43" s="6">
         <v>-1</v>
       </c>
+      <c r="N43" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O43" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P43" s="8">
         <v>1</v>
       </c>
@@ -4779,6 +4973,13 @@
       <c r="M44" s="6">
         <v>-1</v>
       </c>
+      <c r="N44" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O44" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P44" s="8">
         <v>1</v>
       </c>
@@ -4832,6 +5033,13 @@
       <c r="M45" s="6">
         <v>-1</v>
       </c>
+      <c r="N45" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O45" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P45" s="8">
         <v>1</v>
       </c>
@@ -4885,6 +5093,13 @@
       <c r="M46" s="6">
         <v>-1</v>
       </c>
+      <c r="N46" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O46" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P46" s="8">
         <v>1</v>
       </c>
@@ -4938,6 +5153,13 @@
       <c r="M47" s="6">
         <v>-1</v>
       </c>
+      <c r="N47" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O47" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P47" s="8">
         <v>1</v>
       </c>
@@ -4991,6 +5213,13 @@
       <c r="M48" s="6">
         <v>-1</v>
       </c>
+      <c r="N48" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O48" s="8">
+        <f t="shared" ref="O48:O79" si="2">(N48-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P48" s="8">
         <v>1</v>
       </c>
@@ -5044,6 +5273,13 @@
       <c r="M49" s="6">
         <v>-1</v>
       </c>
+      <c r="N49" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O49" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P49" s="8">
         <v>1</v>
       </c>
@@ -5097,6 +5333,13 @@
       <c r="M50" s="6">
         <v>-1</v>
       </c>
+      <c r="N50" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O50" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P50" s="8">
         <v>1</v>
       </c>
@@ -5150,6 +5393,13 @@
       <c r="M51" s="6">
         <v>-1</v>
       </c>
+      <c r="N51" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O51" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P51" s="8">
         <v>1</v>
       </c>
@@ -5203,6 +5453,13 @@
       <c r="M52" s="6">
         <v>-1</v>
       </c>
+      <c r="N52" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O52" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P52" s="8">
         <v>1</v>
       </c>
@@ -5256,6 +5513,13 @@
       <c r="M53" s="6">
         <v>-1</v>
       </c>
+      <c r="N53" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O53" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P53" s="8">
         <v>1</v>
       </c>
@@ -5309,6 +5573,13 @@
       <c r="M54" s="6">
         <v>-1</v>
       </c>
+      <c r="N54" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O54" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P54" s="8">
         <v>1</v>
       </c>
@@ -5362,6 +5633,13 @@
       <c r="M55" s="6">
         <v>-1</v>
       </c>
+      <c r="N55" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O55" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P55" s="8">
         <v>1</v>
       </c>
@@ -5415,6 +5693,13 @@
       <c r="M56" s="6">
         <v>-1</v>
       </c>
+      <c r="N56" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O56" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P56" s="8">
         <v>1</v>
       </c>
@@ -5468,6 +5753,13 @@
       <c r="M57" s="6">
         <v>-1</v>
       </c>
+      <c r="N57" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O57" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P57" s="8">
         <v>1</v>
       </c>
@@ -5521,6 +5813,13 @@
       <c r="M58" s="6">
         <v>-1</v>
       </c>
+      <c r="N58" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O58" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P58" s="8">
         <v>1</v>
       </c>
@@ -5574,6 +5873,13 @@
       <c r="M59" s="6">
         <v>-1</v>
       </c>
+      <c r="N59" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O59" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P59" s="8">
         <v>1</v>
       </c>
@@ -5627,6 +5933,13 @@
       <c r="M60" s="6">
         <v>-1</v>
       </c>
+      <c r="N60" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O60" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P60" s="8">
         <v>1</v>
       </c>
@@ -5680,6 +5993,13 @@
       <c r="M61" s="6">
         <v>-1</v>
       </c>
+      <c r="N61" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O61" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P61" s="8">
         <v>1</v>
       </c>
@@ -5733,6 +6053,13 @@
       <c r="M62" s="6">
         <v>-1</v>
       </c>
+      <c r="N62" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O62" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P62" s="8">
         <v>1</v>
       </c>
@@ -5786,6 +6113,13 @@
       <c r="M63" s="6">
         <v>-1</v>
       </c>
+      <c r="N63" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O63" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P63" s="8">
         <v>1</v>
       </c>
@@ -5839,6 +6173,13 @@
       <c r="M64" s="6">
         <v>-1</v>
       </c>
+      <c r="N64" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O64" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P64" s="8">
         <v>1</v>
       </c>
@@ -5892,6 +6233,13 @@
       <c r="M65" s="6">
         <v>-1</v>
       </c>
+      <c r="N65" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O65" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P65" s="8">
         <v>1</v>
       </c>
@@ -5945,6 +6293,13 @@
       <c r="M66" s="6">
         <v>-1</v>
       </c>
+      <c r="N66" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O66" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P66" s="8">
         <v>1</v>
       </c>
@@ -5998,6 +6353,13 @@
       <c r="M67" s="6">
         <v>-1</v>
       </c>
+      <c r="N67" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O67" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P67" s="8">
         <v>1</v>
       </c>
@@ -6051,6 +6413,13 @@
       <c r="M68" s="6">
         <v>-1</v>
       </c>
+      <c r="N68" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O68" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P68" s="8">
         <v>1</v>
       </c>
@@ -6104,6 +6473,13 @@
       <c r="M69" s="6">
         <v>-1</v>
       </c>
+      <c r="N69" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O69" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P69" s="8">
         <v>1</v>
       </c>
@@ -6157,6 +6533,13 @@
       <c r="M70" s="6">
         <v>-1</v>
       </c>
+      <c r="N70" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O70" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P70" s="8">
         <v>1</v>
       </c>
@@ -6210,6 +6593,13 @@
       <c r="M71" s="6">
         <v>-1</v>
       </c>
+      <c r="N71" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O71" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P71" s="8">
         <v>1</v>
       </c>
@@ -6263,6 +6653,13 @@
       <c r="M72" s="6">
         <v>-1</v>
       </c>
+      <c r="N72" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O72" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P72" s="8">
         <v>1</v>
       </c>
@@ -6316,6 +6713,13 @@
       <c r="M73" s="6">
         <v>-1</v>
       </c>
+      <c r="N73" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O73" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P73" s="8">
         <v>1</v>
       </c>
@@ -6369,6 +6773,13 @@
       <c r="M74" s="6">
         <v>-1</v>
       </c>
+      <c r="N74" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O74" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P74" s="8">
         <v>1</v>
       </c>
@@ -6422,6 +6833,13 @@
       <c r="M75" s="6">
         <v>-1</v>
       </c>
+      <c r="N75" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O75" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P75" s="8">
         <v>1</v>
       </c>
@@ -6475,6 +6893,13 @@
       <c r="M76" s="6">
         <v>-1</v>
       </c>
+      <c r="N76" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O76" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P76" s="8">
         <v>1</v>
       </c>
@@ -6528,6 +6953,13 @@
       <c r="M77" s="6">
         <v>-1</v>
       </c>
+      <c r="N77" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O77" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P77" s="8">
         <v>1</v>
       </c>
@@ -6581,6 +7013,13 @@
       <c r="M78" s="6">
         <v>-1</v>
       </c>
+      <c r="N78" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O78" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P78" s="8">
         <v>1</v>
       </c>
@@ -6634,6 +7073,13 @@
       <c r="M79" s="6">
         <v>-1</v>
       </c>
+      <c r="N79" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O79" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P79" s="8">
         <v>1</v>
       </c>
@@ -6687,6 +7133,13 @@
       <c r="M80" s="6">
         <v>-1</v>
       </c>
+      <c r="N80" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O80" s="8">
+        <f>(N80-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P80" s="8">
         <v>1</v>
       </c>
@@ -6740,6 +7193,13 @@
       <c r="M81" s="6">
         <v>-1</v>
       </c>
+      <c r="N81" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O81" s="8">
+        <f>(N81-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P81" s="8">
         <v>1</v>
       </c>
@@ -6793,6 +7253,13 @@
       <c r="M82" s="6">
         <v>-1</v>
       </c>
+      <c r="N82" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O82" s="8">
+        <f>(N82-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P82" s="8">
         <v>1</v>
       </c>
@@ -6846,6 +7313,13 @@
       <c r="M83" s="6">
         <v>-1</v>
       </c>
+      <c r="N83" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O83" s="8">
+        <f>(N83-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P83" s="8">
         <v>1</v>
       </c>
@@ -6898,6 +7372,13 @@
       </c>
       <c r="M84" s="6">
         <v>-1</v>
+      </c>
+      <c r="N84" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O84" s="8">
+        <f>(N84-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
       </c>
       <c r="P84" s="8">
         <v>1</v>
@@ -6952,6 +7433,13 @@
       <c r="M85" s="6">
         <v>-1</v>
       </c>
+      <c r="N85" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O85" s="8">
+        <f>(N85-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P85" s="8">
         <v>1</v>
       </c>
@@ -7005,6 +7493,13 @@
       <c r="M86" s="6">
         <v>-1</v>
       </c>
+      <c r="N86" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O86" s="8">
+        <f>(N86-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P86" s="8">
         <v>1</v>
       </c>
@@ -7058,6 +7553,13 @@
       <c r="M87" s="6">
         <v>-1</v>
       </c>
+      <c r="N87" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O87" s="8">
+        <f>(N87-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P87" s="8">
         <v>1</v>
       </c>
@@ -7111,6 +7613,13 @@
       <c r="M88" s="6">
         <v>-1</v>
       </c>
+      <c r="N88" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O88" s="8">
+        <f>(N88-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P88" s="8">
         <v>1</v>
       </c>
@@ -7164,6 +7673,13 @@
       <c r="M89" s="6">
         <v>-1</v>
       </c>
+      <c r="N89" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O89" s="8">
+        <f>(N89-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P89" s="8">
         <v>1</v>
       </c>
@@ -7217,6 +7733,13 @@
       <c r="M90" s="6">
         <v>-1</v>
       </c>
+      <c r="N90" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O90" s="8">
+        <f>(N90-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P90" s="8">
         <v>1</v>
       </c>
@@ -7270,6 +7793,13 @@
       <c r="M91" s="6">
         <v>-1</v>
       </c>
+      <c r="N91" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O91" s="8">
+        <f>(N91-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P91" s="8">
         <v>1</v>
       </c>
@@ -7323,6 +7853,13 @@
       <c r="M92" s="6">
         <v>-1</v>
       </c>
+      <c r="N92" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O92" s="8">
+        <f>(N92-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
       <c r="P92" s="8">
         <v>1</v>
       </c>
@@ -7375,6 +7912,13 @@
       </c>
       <c r="M93" s="6">
         <v>-1</v>
+      </c>
+      <c r="N93" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O93" s="8">
+        <f>(N93-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
       </c>
       <c r="P93" s="8">
         <v>1</v>

--- a/global/Item.xlsx
+++ b/global/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -542,12 +542,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -563,9 +563,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -576,8 +583,116 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,136 +707,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -745,19 +734,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,49 +800,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,55 +830,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,7 +866,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,25 +908,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,8 +946,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,11 +991,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,15 +1023,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1022,180 +1032,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1214,54 +1203,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2409,12 +2398,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15:O93"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
@@ -2422,9 +2411,10 @@
     <col min="1" max="7" width="19.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="37" style="1" customWidth="1"/>
     <col min="9" max="13" width="19.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="26.3833333333333" style="1" customWidth="1"/>
-    <col min="15" max="19" width="32.15" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="19.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.3846153846154" style="1" customWidth="1"/>
+    <col min="15" max="19" width="32.1538461538462" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25.3846153846154" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="19.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1" spans="1:21">
@@ -2755,7 +2745,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O7" s="8">
-        <f t="shared" ref="O7:O15" si="0">(N7-70*365-19)*86400-8*3600</f>
+        <f>(N7-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P7" s="8">
@@ -2817,7 +2807,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O8" s="8">
-        <f t="shared" si="0"/>
+        <f>(N8-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P8" s="8">
@@ -2877,7 +2867,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O9" s="8">
-        <f t="shared" si="0"/>
+        <f>(N9-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P9" s="8">
@@ -2937,7 +2927,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O10" s="8">
-        <f t="shared" si="0"/>
+        <f>(N10-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P10" s="8">
@@ -2997,7 +2987,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O11" s="8">
-        <f t="shared" si="0"/>
+        <f>(N11-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P11" s="8">
@@ -3057,7 +3047,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O12" s="8">
-        <f t="shared" si="0"/>
+        <f>(N12-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P12" s="8">
@@ -3117,7 +3107,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O13" s="8">
-        <f t="shared" si="0"/>
+        <f>(N13-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P13" s="8">
@@ -3177,7 +3167,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O14" s="8">
-        <f t="shared" si="0"/>
+        <f>(N14-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P14" s="8">
@@ -3237,7 +3227,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O15" s="8">
-        <f t="shared" si="0"/>
+        <f>(N15-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P15" s="8">
@@ -3297,7 +3287,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O16" s="8">
-        <f t="shared" ref="O16:O47" si="1">(N16-70*365-19)*86400-8*3600</f>
+        <f t="shared" ref="O16:O47" si="0">(N16-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P16" s="8">
@@ -3357,7 +3347,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P17" s="8">
@@ -3417,7 +3407,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O18" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P18" s="8">
@@ -3477,7 +3467,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O19" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P19" s="8">
@@ -3537,7 +3527,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O20" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P20" s="8">
@@ -3597,7 +3587,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O21" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P21" s="8">
@@ -3657,7 +3647,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O22" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P22" s="8">
@@ -3717,7 +3707,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P23" s="8">
@@ -3777,7 +3767,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P24" s="8">
@@ -3837,7 +3827,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P25" s="8">
@@ -3897,7 +3887,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O26" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P26" s="8">
@@ -3957,7 +3947,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O27" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P27" s="8">
@@ -4017,7 +4007,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O28" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P28" s="8">
@@ -4077,7 +4067,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O29" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P29" s="8">
@@ -4137,7 +4127,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O30" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P30" s="8">
@@ -4197,7 +4187,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O31" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P31" s="8">
@@ -4257,7 +4247,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O32" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P32" s="8">
@@ -4317,7 +4307,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P33" s="8">
@@ -4377,7 +4367,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O34" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P34" s="8">
@@ -4437,7 +4427,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O35" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P35" s="8">
@@ -4497,7 +4487,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O36" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P36" s="8">
@@ -4557,7 +4547,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O37" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P37" s="8">
@@ -4617,7 +4607,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O38" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P38" s="8">
@@ -4677,7 +4667,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O39" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P39" s="8">
@@ -4737,7 +4727,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O40" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P40" s="8">
@@ -4797,7 +4787,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P41" s="8">
@@ -4857,7 +4847,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O42" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P42" s="8">
@@ -4917,7 +4907,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P43" s="8">
@@ -4977,7 +4967,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O44" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P44" s="8">
@@ -5037,7 +5027,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O45" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P45" s="8">
@@ -5097,7 +5087,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O46" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P46" s="8">
@@ -5157,7 +5147,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O47" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P47" s="8">
@@ -5217,7 +5207,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O48" s="8">
-        <f t="shared" ref="O48:O79" si="2">(N48-70*365-19)*86400-8*3600</f>
+        <f t="shared" ref="O48:O93" si="1">(N48-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P48" s="8">
@@ -5277,7 +5267,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O49" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P49" s="8">
@@ -5337,7 +5327,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O50" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P50" s="8">
@@ -5397,7 +5387,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O51" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P51" s="8">
@@ -5457,7 +5447,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O52" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P52" s="8">
@@ -5517,7 +5507,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O53" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P53" s="8">
@@ -5577,7 +5567,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O54" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P54" s="8">
@@ -5637,7 +5627,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O55" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P55" s="8">
@@ -5697,7 +5687,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O56" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P56" s="8">
@@ -5757,7 +5747,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O57" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P57" s="8">
@@ -5817,7 +5807,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O58" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P58" s="8">
@@ -5877,7 +5867,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O59" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P59" s="8">
@@ -5937,7 +5927,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O60" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P60" s="8">
@@ -5997,7 +5987,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O61" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P61" s="8">
@@ -6057,7 +6047,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O62" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P62" s="8">
@@ -6117,7 +6107,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O63" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P63" s="8">
@@ -6177,7 +6167,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O64" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P64" s="8">
@@ -6237,7 +6227,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O65" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P65" s="8">
@@ -6297,7 +6287,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O66" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P66" s="8">
@@ -6357,7 +6347,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O67" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P67" s="8">
@@ -6417,7 +6407,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O68" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P68" s="8">
@@ -6477,7 +6467,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O69" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P69" s="8">
@@ -6537,7 +6527,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O70" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P70" s="8">
@@ -6597,7 +6587,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O71" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P71" s="8">
@@ -6657,7 +6647,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O72" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P72" s="8">
@@ -6717,7 +6707,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O73" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P73" s="8">
@@ -6777,7 +6767,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O74" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P74" s="8">
@@ -6837,7 +6827,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O75" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P75" s="8">
@@ -6897,7 +6887,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O76" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P76" s="8">
@@ -6957,7 +6947,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O77" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P77" s="8">
@@ -7017,7 +7007,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O78" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P78" s="8">
@@ -7077,7 +7067,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O79" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P79" s="8">
@@ -7137,7 +7127,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O80" s="8">
-        <f>(N80-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P80" s="8">
@@ -7197,7 +7187,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O81" s="8">
-        <f>(N81-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P81" s="8">
@@ -7257,7 +7247,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O82" s="8">
-        <f>(N82-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P82" s="8">
@@ -7317,7 +7307,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O83" s="8">
-        <f>(N83-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P83" s="8">
@@ -7377,7 +7367,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O84" s="8">
-        <f>(N84-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P84" s="8">
@@ -7437,7 +7427,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O85" s="8">
-        <f>(N85-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P85" s="8">
@@ -7497,7 +7487,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O86" s="8">
-        <f>(N86-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P86" s="8">
@@ -7557,7 +7547,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O87" s="8">
-        <f>(N87-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P87" s="8">
@@ -7617,7 +7607,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O88" s="8">
-        <f>(N88-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P88" s="8">
@@ -7677,7 +7667,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O89" s="8">
-        <f>(N89-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P89" s="8">
@@ -7737,7 +7727,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O90" s="8">
-        <f>(N90-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P90" s="8">
@@ -7797,7 +7787,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O91" s="8">
-        <f>(N91-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P91" s="8">
@@ -7857,7 +7847,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O92" s="8">
-        <f>(N92-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P92" s="8">
@@ -7917,7 +7907,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O93" s="8">
-        <f>(N93-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P93" s="8">

--- a/global/Item.xlsx
+++ b/global/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="328">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -507,19 +507,544 @@
     <t>礼包3</t>
   </si>
   <si>
+    <t>单手剑1</t>
+  </si>
+  <si>
     <t>装备1</t>
   </si>
   <si>
+    <t>单手剑2</t>
+  </si>
+  <si>
     <t>装备2</t>
   </si>
   <si>
+    <t>单手剑3</t>
+  </si>
+  <si>
     <t>装备3</t>
   </si>
   <si>
+    <t>单手剑4</t>
+  </si>
+  <si>
     <t>装备4</t>
   </si>
   <si>
+    <t>单手剑5</t>
+  </si>
+  <si>
     <t>装备5</t>
+  </si>
+  <si>
+    <t>单手剑6</t>
+  </si>
+  <si>
+    <t>装备6</t>
+  </si>
+  <si>
+    <t>单手剑7</t>
+  </si>
+  <si>
+    <t>装备7</t>
+  </si>
+  <si>
+    <t>单手剑8</t>
+  </si>
+  <si>
+    <t>装备8</t>
+  </si>
+  <si>
+    <t>单手剑9</t>
+  </si>
+  <si>
+    <t>装备9</t>
+  </si>
+  <si>
+    <t>单手剑10</t>
+  </si>
+  <si>
+    <t>装备10</t>
+  </si>
+  <si>
+    <t>双手剑1</t>
+  </si>
+  <si>
+    <t>装备11</t>
+  </si>
+  <si>
+    <t>双手剑2</t>
+  </si>
+  <si>
+    <t>装备12</t>
+  </si>
+  <si>
+    <t>双手剑3</t>
+  </si>
+  <si>
+    <t>装备13</t>
+  </si>
+  <si>
+    <t>双手剑4</t>
+  </si>
+  <si>
+    <t>装备14</t>
+  </si>
+  <si>
+    <t>双手剑5</t>
+  </si>
+  <si>
+    <t>装备15</t>
+  </si>
+  <si>
+    <t>双手剑6</t>
+  </si>
+  <si>
+    <t>装备16</t>
+  </si>
+  <si>
+    <t>双手剑7</t>
+  </si>
+  <si>
+    <t>装备17</t>
+  </si>
+  <si>
+    <t>双手剑8</t>
+  </si>
+  <si>
+    <t>装备18</t>
+  </si>
+  <si>
+    <t>双手剑9</t>
+  </si>
+  <si>
+    <t>装备19</t>
+  </si>
+  <si>
+    <t>双手剑10</t>
+  </si>
+  <si>
+    <t>装备20</t>
+  </si>
+  <si>
+    <t>长柄1</t>
+  </si>
+  <si>
+    <t>装备21</t>
+  </si>
+  <si>
+    <t>长柄2</t>
+  </si>
+  <si>
+    <t>装备22</t>
+  </si>
+  <si>
+    <t>长柄3</t>
+  </si>
+  <si>
+    <t>装备23</t>
+  </si>
+  <si>
+    <t>长柄4</t>
+  </si>
+  <si>
+    <t>装备24</t>
+  </si>
+  <si>
+    <t>长柄5</t>
+  </si>
+  <si>
+    <t>装备25</t>
+  </si>
+  <si>
+    <t>长柄6</t>
+  </si>
+  <si>
+    <t>装备26</t>
+  </si>
+  <si>
+    <t>长柄7</t>
+  </si>
+  <si>
+    <t>装备27</t>
+  </si>
+  <si>
+    <t>长柄8</t>
+  </si>
+  <si>
+    <t>装备28</t>
+  </si>
+  <si>
+    <t>长柄9</t>
+  </si>
+  <si>
+    <t>装备29</t>
+  </si>
+  <si>
+    <t>长柄10</t>
+  </si>
+  <si>
+    <t>装备30</t>
+  </si>
+  <si>
+    <t>手枪1</t>
+  </si>
+  <si>
+    <t>装备31</t>
+  </si>
+  <si>
+    <t>手枪2</t>
+  </si>
+  <si>
+    <t>装备32</t>
+  </si>
+  <si>
+    <t>手枪3</t>
+  </si>
+  <si>
+    <t>装备33</t>
+  </si>
+  <si>
+    <t>手枪4</t>
+  </si>
+  <si>
+    <t>装备34</t>
+  </si>
+  <si>
+    <t>手枪5</t>
+  </si>
+  <si>
+    <t>装备35</t>
+  </si>
+  <si>
+    <t>手枪6</t>
+  </si>
+  <si>
+    <t>装备36</t>
+  </si>
+  <si>
+    <t>手枪7</t>
+  </si>
+  <si>
+    <t>装备37</t>
+  </si>
+  <si>
+    <t>手枪8</t>
+  </si>
+  <si>
+    <t>装备38</t>
+  </si>
+  <si>
+    <t>手枪9</t>
+  </si>
+  <si>
+    <t>装备39</t>
+  </si>
+  <si>
+    <t>手枪10</t>
+  </si>
+  <si>
+    <t>装备40</t>
+  </si>
+  <si>
+    <t>法杖1</t>
+  </si>
+  <si>
+    <t>装备41</t>
+  </si>
+  <si>
+    <t>法杖2</t>
+  </si>
+  <si>
+    <t>装备42</t>
+  </si>
+  <si>
+    <t>法杖3</t>
+  </si>
+  <si>
+    <t>装备43</t>
+  </si>
+  <si>
+    <t>法杖4</t>
+  </si>
+  <si>
+    <t>装备44</t>
+  </si>
+  <si>
+    <t>法杖5</t>
+  </si>
+  <si>
+    <t>装备45</t>
+  </si>
+  <si>
+    <t>法杖6</t>
+  </si>
+  <si>
+    <t>装备46</t>
+  </si>
+  <si>
+    <t>法杖7</t>
+  </si>
+  <si>
+    <t>装备47</t>
+  </si>
+  <si>
+    <t>法杖8</t>
+  </si>
+  <si>
+    <t>装备48</t>
+  </si>
+  <si>
+    <t>法杖9</t>
+  </si>
+  <si>
+    <t>装备49</t>
+  </si>
+  <si>
+    <t>法杖10</t>
+  </si>
+  <si>
+    <t>装备50</t>
+  </si>
+  <si>
+    <t>召唤物1</t>
+  </si>
+  <si>
+    <t>装备51</t>
+  </si>
+  <si>
+    <t>召唤物2</t>
+  </si>
+  <si>
+    <t>装备52</t>
+  </si>
+  <si>
+    <t>召唤物3</t>
+  </si>
+  <si>
+    <t>装备53</t>
+  </si>
+  <si>
+    <t>召唤物4</t>
+  </si>
+  <si>
+    <t>装备54</t>
+  </si>
+  <si>
+    <t>召唤物5</t>
+  </si>
+  <si>
+    <t>装备55</t>
+  </si>
+  <si>
+    <t>召唤物6</t>
+  </si>
+  <si>
+    <t>装备56</t>
+  </si>
+  <si>
+    <t>召唤物7</t>
+  </si>
+  <si>
+    <t>装备57</t>
+  </si>
+  <si>
+    <t>召唤物8</t>
+  </si>
+  <si>
+    <t>装备58</t>
+  </si>
+  <si>
+    <t>召唤物9</t>
+  </si>
+  <si>
+    <t>装备59</t>
+  </si>
+  <si>
+    <t>召唤物10</t>
+  </si>
+  <si>
+    <t>装备60</t>
+  </si>
+  <si>
+    <t>衣服1</t>
+  </si>
+  <si>
+    <t>装备61</t>
+  </si>
+  <si>
+    <t>衣服2</t>
+  </si>
+  <si>
+    <t>装备62</t>
+  </si>
+  <si>
+    <t>衣服3</t>
+  </si>
+  <si>
+    <t>装备63</t>
+  </si>
+  <si>
+    <t>衣服4</t>
+  </si>
+  <si>
+    <t>装备64</t>
+  </si>
+  <si>
+    <t>衣服5</t>
+  </si>
+  <si>
+    <t>装备65</t>
+  </si>
+  <si>
+    <t>衣服6</t>
+  </si>
+  <si>
+    <t>装备66</t>
+  </si>
+  <si>
+    <t>衣服7</t>
+  </si>
+  <si>
+    <t>装备67</t>
+  </si>
+  <si>
+    <t>衣服8</t>
+  </si>
+  <si>
+    <t>装备68</t>
+  </si>
+  <si>
+    <t>衣服9</t>
+  </si>
+  <si>
+    <t>装备69</t>
+  </si>
+  <si>
+    <t>衣服10</t>
+  </si>
+  <si>
+    <t>装备70</t>
+  </si>
+  <si>
+    <t>裤子1</t>
+  </si>
+  <si>
+    <t>装备71</t>
+  </si>
+  <si>
+    <t>裤子2</t>
+  </si>
+  <si>
+    <t>装备72</t>
+  </si>
+  <si>
+    <t>裤子3</t>
+  </si>
+  <si>
+    <t>装备73</t>
+  </si>
+  <si>
+    <t>裤子4</t>
+  </si>
+  <si>
+    <t>装备74</t>
+  </si>
+  <si>
+    <t>裤子5</t>
+  </si>
+  <si>
+    <t>装备75</t>
+  </si>
+  <si>
+    <t>裤子6</t>
+  </si>
+  <si>
+    <t>装备76</t>
+  </si>
+  <si>
+    <t>裤子7</t>
+  </si>
+  <si>
+    <t>装备77</t>
+  </si>
+  <si>
+    <t>裤子8</t>
+  </si>
+  <si>
+    <t>装备78</t>
+  </si>
+  <si>
+    <t>裤子9</t>
+  </si>
+  <si>
+    <t>装备79</t>
+  </si>
+  <si>
+    <t>裤子10</t>
+  </si>
+  <si>
+    <t>装备80</t>
+  </si>
+  <si>
+    <t>饰品1</t>
+  </si>
+  <si>
+    <t>装备81</t>
+  </si>
+  <si>
+    <t>饰品2</t>
+  </si>
+  <si>
+    <t>装备82</t>
+  </si>
+  <si>
+    <t>饰品3</t>
+  </si>
+  <si>
+    <t>装备83</t>
+  </si>
+  <si>
+    <t>饰品4</t>
+  </si>
+  <si>
+    <t>装备84</t>
+  </si>
+  <si>
+    <t>饰品5</t>
+  </si>
+  <si>
+    <t>装备85</t>
+  </si>
+  <si>
+    <t>饰品6</t>
+  </si>
+  <si>
+    <t>装备86</t>
+  </si>
+  <si>
+    <t>饰品7</t>
+  </si>
+  <si>
+    <t>装备87</t>
+  </si>
+  <si>
+    <t>饰品8</t>
+  </si>
+  <si>
+    <t>装备88</t>
+  </si>
+  <si>
+    <t>饰品9</t>
+  </si>
+  <si>
+    <t>装备89</t>
+  </si>
+  <si>
+    <t>饰品10</t>
+  </si>
+  <si>
+    <t>装备90</t>
   </si>
   <si>
     <t>晶石1</t>
@@ -542,12 +1067,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -572,12 +1097,43 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,7 +1148,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -608,59 +1217,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,43 +1231,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -734,19 +1270,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,13 +1324,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,43 +1372,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,19 +1396,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,67 +1438,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,11 +1488,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,201 +1576,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1203,54 +1739,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2398,12 +2934,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U93"/>
+  <dimension ref="A1:U178"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88:U173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
@@ -2411,9 +2947,9 @@
     <col min="1" max="7" width="19.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="37" style="1" customWidth="1"/>
     <col min="9" max="13" width="19.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="26.3846153846154" style="1" customWidth="1"/>
-    <col min="15" max="19" width="32.1538461538462" style="1" customWidth="1"/>
-    <col min="20" max="20" width="25.3846153846154" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.3833333333333" style="1" customWidth="1"/>
+    <col min="15" max="19" width="32.15" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25.3833333333333" style="1" customWidth="1"/>
     <col min="21" max="16384" width="19.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2745,7 +3281,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O7" s="8">
-        <f>(N7-70*365-19)*86400-8*3600</f>
+        <f t="shared" ref="O7:O15" si="0">(N7-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P7" s="8">
@@ -2807,7 +3343,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O8" s="8">
-        <f>(N8-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P8" s="8">
@@ -2867,7 +3403,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O9" s="8">
-        <f>(N9-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P9" s="8">
@@ -2927,7 +3463,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O10" s="8">
-        <f>(N10-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P10" s="8">
@@ -2987,7 +3523,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O11" s="8">
-        <f>(N11-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P11" s="8">
@@ -3047,7 +3583,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O12" s="8">
-        <f>(N12-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P12" s="8">
@@ -3107,7 +3643,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O13" s="8">
-        <f>(N13-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P13" s="8">
@@ -3167,7 +3703,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O14" s="8">
-        <f>(N14-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P14" s="8">
@@ -3227,7 +3763,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O15" s="8">
-        <f>(N15-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P15" s="8">
@@ -3287,7 +3823,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O16" s="8">
-        <f t="shared" ref="O16:O47" si="0">(N16-70*365-19)*86400-8*3600</f>
+        <f t="shared" ref="O16:O47" si="1">(N16-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P16" s="8">
@@ -3347,7 +3883,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P17" s="8">
@@ -3407,7 +3943,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O18" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P18" s="8">
@@ -3467,7 +4003,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O19" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P19" s="8">
@@ -3527,7 +4063,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O20" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P20" s="8">
@@ -3587,7 +4123,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O21" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P21" s="8">
@@ -3647,7 +4183,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O22" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P22" s="8">
@@ -3707,7 +4243,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P23" s="8">
@@ -3767,7 +4303,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P24" s="8">
@@ -3827,7 +4363,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P25" s="8">
@@ -3887,7 +4423,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O26" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P26" s="8">
@@ -3947,7 +4483,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O27" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P27" s="8">
@@ -4007,7 +4543,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O28" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P28" s="8">
@@ -4067,7 +4603,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O29" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P29" s="8">
@@ -4127,7 +4663,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O30" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P30" s="8">
@@ -4187,7 +4723,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O31" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P31" s="8">
@@ -4247,7 +4783,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O32" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P32" s="8">
@@ -4307,7 +4843,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O33" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P33" s="8">
@@ -4367,7 +4903,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O34" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P34" s="8">
@@ -4427,7 +4963,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O35" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P35" s="8">
@@ -4487,7 +5023,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O36" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P36" s="8">
@@ -4547,7 +5083,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O37" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P37" s="8">
@@ -4607,7 +5143,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O38" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P38" s="8">
@@ -4667,7 +5203,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O39" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P39" s="8">
@@ -4727,7 +5263,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O40" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P40" s="8">
@@ -4787,7 +5323,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P41" s="8">
@@ -4847,7 +5383,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O42" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P42" s="8">
@@ -4907,7 +5443,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O43" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P43" s="8">
@@ -4967,7 +5503,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O44" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P44" s="8">
@@ -5027,7 +5563,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O45" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P45" s="8">
@@ -5087,7 +5623,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O46" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P46" s="8">
@@ -5147,7 +5683,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O47" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P47" s="8">
@@ -5207,7 +5743,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O48" s="8">
-        <f t="shared" ref="O48:O93" si="1">(N48-70*365-19)*86400-8*3600</f>
+        <f t="shared" ref="O48:O93" si="2">(N48-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P48" s="8">
@@ -5267,7 +5803,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O49" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P49" s="8">
@@ -5327,7 +5863,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O50" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P50" s="8">
@@ -5387,7 +5923,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O51" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P51" s="8">
@@ -5447,7 +5983,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O52" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P52" s="8">
@@ -5507,7 +6043,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O53" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P53" s="8">
@@ -5567,7 +6103,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O54" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P54" s="8">
@@ -5627,7 +6163,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O55" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P55" s="8">
@@ -5687,7 +6223,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O56" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P56" s="8">
@@ -5747,7 +6283,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O57" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P57" s="8">
@@ -5807,7 +6343,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O58" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P58" s="8">
@@ -5867,7 +6403,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O59" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P59" s="8">
@@ -5927,7 +6463,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O60" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P60" s="8">
@@ -5987,7 +6523,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O61" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P61" s="8">
@@ -6047,7 +6583,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O62" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P62" s="8">
@@ -6107,7 +6643,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O63" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P63" s="8">
@@ -6167,7 +6703,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O64" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P64" s="8">
@@ -6227,7 +6763,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O65" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P65" s="8">
@@ -6287,7 +6823,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O66" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P66" s="8">
@@ -6347,7 +6883,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O67" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P67" s="8">
@@ -6407,7 +6943,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O68" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P68" s="8">
@@ -6467,7 +7003,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O69" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P69" s="8">
@@ -6527,7 +7063,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O70" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P70" s="8">
@@ -6587,7 +7123,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O71" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P71" s="8">
@@ -6647,7 +7183,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O72" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P72" s="8">
@@ -6707,7 +7243,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O73" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P73" s="8">
@@ -6767,7 +7303,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O74" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P74" s="8">
@@ -6827,7 +7363,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O75" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P75" s="8">
@@ -6887,7 +7423,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O76" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P76" s="8">
@@ -6947,7 +7483,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O77" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P77" s="8">
@@ -7007,7 +7543,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O78" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P78" s="8">
@@ -7067,7 +7603,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O79" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P79" s="8">
@@ -7127,7 +7663,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O80" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P80" s="8">
@@ -7187,7 +7723,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O81" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P81" s="8">
@@ -7247,7 +7783,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O82" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P82" s="8">
@@ -7307,7 +7843,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O83" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P83" s="8">
@@ -7333,11 +7869,11 @@
       <c r="C84" s="1">
         <v>1000</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>59</v>
@@ -7367,7 +7903,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O84" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P84" s="8">
@@ -7393,11 +7929,11 @@
       <c r="C85" s="1">
         <v>1001</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>144</v>
+      <c r="D85" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>59</v>
@@ -7427,7 +7963,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O85" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P85" s="8">
@@ -7453,11 +7989,11 @@
       <c r="C86" s="1">
         <v>1002</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>145</v>
+      <c r="D86" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>59</v>
@@ -7487,7 +8023,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O86" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P86" s="8">
@@ -7513,11 +8049,11 @@
       <c r="C87" s="1">
         <v>1003</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>146</v>
+      <c r="D87" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>59</v>
@@ -7547,7 +8083,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O87" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P87" s="8">
@@ -7573,11 +8109,11 @@
       <c r="C88" s="1">
         <v>1004</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>147</v>
+      <c r="D88" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>59</v>
@@ -7607,7 +8143,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O88" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P88" s="8">
@@ -7631,13 +8167,13 @@
     </row>
     <row r="89" customHeight="1" spans="3:21">
       <c r="C89" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>148</v>
+        <v>1005</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>59</v>
@@ -7646,13 +8182,13 @@
         <v>62</v>
       </c>
       <c r="H89" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" s="6">
         <v>0</v>
       </c>
       <c r="J89" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K89" s="1">
         <v>9999</v>
@@ -7667,7 +8203,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O89" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="O89:O120" si="3">(N89-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P89" s="8">
@@ -7691,13 +8227,13 @@
     </row>
     <row r="90" customHeight="1" spans="3:21">
       <c r="C90" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>149</v>
+        <v>1006</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>59</v>
@@ -7706,13 +8242,13 @@
         <v>62</v>
       </c>
       <c r="H90" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" s="6">
         <v>0</v>
       </c>
       <c r="J90" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K90" s="1">
         <v>9999</v>
@@ -7727,7 +8263,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O90" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P90" s="8">
@@ -7751,13 +8287,13 @@
     </row>
     <row r="91" customHeight="1" spans="3:21">
       <c r="C91" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>150</v>
+        <v>1007</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>59</v>
@@ -7766,13 +8302,13 @@
         <v>62</v>
       </c>
       <c r="H91" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" s="6">
         <v>0</v>
       </c>
       <c r="J91" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K91" s="1">
         <v>9999</v>
@@ -7787,7 +8323,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O91" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P91" s="8">
@@ -7811,13 +8347,13 @@
     </row>
     <row r="92" customHeight="1" spans="3:21">
       <c r="C92" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>151</v>
+        <v>1008</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>59</v>
@@ -7826,13 +8362,13 @@
         <v>62</v>
       </c>
       <c r="H92" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" s="6">
         <v>0</v>
       </c>
       <c r="J92" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K92" s="1">
         <v>9999</v>
@@ -7847,7 +8383,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O92" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P92" s="8">
@@ -7871,13 +8407,13 @@
     </row>
     <row r="93" customHeight="1" spans="3:21">
       <c r="C93" s="1">
-        <v>2004</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>152</v>
+        <v>1009</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>59</v>
@@ -7886,7 +8422,7 @@
         <v>62</v>
       </c>
       <c r="H93" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" s="6">
         <v>0</v>
@@ -7907,7 +8443,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O93" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P93" s="8">
@@ -7926,6 +8462,5106 @@
         <v>-1</v>
       </c>
       <c r="U93" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="3:21">
+      <c r="C94" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H94" s="1">
+        <v>1</v>
+      </c>
+      <c r="I94" s="6">
+        <v>0</v>
+      </c>
+      <c r="J94" s="6">
+        <v>4</v>
+      </c>
+      <c r="K94" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L94" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M94" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N94" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O94" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P94" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="8">
+        <v>0</v>
+      </c>
+      <c r="R94" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S94" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T94" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U94" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="3:21">
+      <c r="C95" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H95" s="1">
+        <v>1</v>
+      </c>
+      <c r="I95" s="6">
+        <v>0</v>
+      </c>
+      <c r="J95" s="6">
+        <v>4</v>
+      </c>
+      <c r="K95" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L95" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M95" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N95" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O95" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P95" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="8">
+        <v>0</v>
+      </c>
+      <c r="R95" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S95" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T95" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U95" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="3:21">
+      <c r="C96" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H96" s="1">
+        <v>1</v>
+      </c>
+      <c r="I96" s="6">
+        <v>0</v>
+      </c>
+      <c r="J96" s="6">
+        <v>4</v>
+      </c>
+      <c r="K96" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L96" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M96" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N96" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O96" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P96" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q96" s="8">
+        <v>0</v>
+      </c>
+      <c r="R96" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S96" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T96" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U96" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="3:21">
+      <c r="C97" s="1">
+        <v>1013</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H97" s="1">
+        <v>1</v>
+      </c>
+      <c r="I97" s="6">
+        <v>0</v>
+      </c>
+      <c r="J97" s="6">
+        <v>4</v>
+      </c>
+      <c r="K97" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L97" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M97" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N97" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O97" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P97" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q97" s="8">
+        <v>0</v>
+      </c>
+      <c r="R97" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S97" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T97" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U97" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="3:21">
+      <c r="C98" s="1">
+        <v>1014</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H98" s="1">
+        <v>1</v>
+      </c>
+      <c r="I98" s="6">
+        <v>0</v>
+      </c>
+      <c r="J98" s="6">
+        <v>4</v>
+      </c>
+      <c r="K98" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L98" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M98" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N98" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O98" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P98" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q98" s="8">
+        <v>0</v>
+      </c>
+      <c r="R98" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S98" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T98" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U98" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="3:21">
+      <c r="C99" s="1">
+        <v>1015</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H99" s="1">
+        <v>1</v>
+      </c>
+      <c r="I99" s="6">
+        <v>0</v>
+      </c>
+      <c r="J99" s="6">
+        <v>4</v>
+      </c>
+      <c r="K99" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L99" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M99" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N99" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O99" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P99" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q99" s="8">
+        <v>0</v>
+      </c>
+      <c r="R99" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S99" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T99" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U99" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="3:21">
+      <c r="C100" s="1">
+        <v>1016</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H100" s="1">
+        <v>1</v>
+      </c>
+      <c r="I100" s="6">
+        <v>0</v>
+      </c>
+      <c r="J100" s="6">
+        <v>4</v>
+      </c>
+      <c r="K100" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L100" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M100" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N100" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O100" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P100" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q100" s="8">
+        <v>0</v>
+      </c>
+      <c r="R100" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S100" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T100" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U100" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="3:21">
+      <c r="C101" s="1">
+        <v>1017</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H101" s="1">
+        <v>1</v>
+      </c>
+      <c r="I101" s="6">
+        <v>0</v>
+      </c>
+      <c r="J101" s="6">
+        <v>4</v>
+      </c>
+      <c r="K101" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L101" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M101" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N101" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O101" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P101" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q101" s="8">
+        <v>0</v>
+      </c>
+      <c r="R101" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S101" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T101" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U101" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="3:21">
+      <c r="C102" s="1">
+        <v>1018</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H102" s="1">
+        <v>1</v>
+      </c>
+      <c r="I102" s="6">
+        <v>0</v>
+      </c>
+      <c r="J102" s="6">
+        <v>4</v>
+      </c>
+      <c r="K102" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L102" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M102" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N102" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O102" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P102" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q102" s="8">
+        <v>0</v>
+      </c>
+      <c r="R102" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S102" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T102" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U102" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="3:21">
+      <c r="C103" s="1">
+        <v>1019</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H103" s="1">
+        <v>1</v>
+      </c>
+      <c r="I103" s="6">
+        <v>0</v>
+      </c>
+      <c r="J103" s="6">
+        <v>4</v>
+      </c>
+      <c r="K103" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L103" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M103" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N103" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O103" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P103" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q103" s="8">
+        <v>0</v>
+      </c>
+      <c r="R103" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S103" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T103" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U103" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="3:21">
+      <c r="C104" s="1">
+        <v>1020</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H104" s="1">
+        <v>1</v>
+      </c>
+      <c r="I104" s="6">
+        <v>0</v>
+      </c>
+      <c r="J104" s="6">
+        <v>4</v>
+      </c>
+      <c r="K104" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L104" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M104" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N104" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O104" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P104" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q104" s="8">
+        <v>0</v>
+      </c>
+      <c r="R104" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S104" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T104" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U104" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="3:21">
+      <c r="C105" s="1">
+        <v>1021</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H105" s="1">
+        <v>1</v>
+      </c>
+      <c r="I105" s="6">
+        <v>0</v>
+      </c>
+      <c r="J105" s="6">
+        <v>4</v>
+      </c>
+      <c r="K105" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L105" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M105" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N105" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O105" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P105" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q105" s="8">
+        <v>0</v>
+      </c>
+      <c r="R105" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S105" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T105" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U105" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="3:21">
+      <c r="C106" s="1">
+        <v>1022</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H106" s="1">
+        <v>1</v>
+      </c>
+      <c r="I106" s="6">
+        <v>0</v>
+      </c>
+      <c r="J106" s="6">
+        <v>4</v>
+      </c>
+      <c r="K106" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L106" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M106" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N106" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O106" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P106" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q106" s="8">
+        <v>0</v>
+      </c>
+      <c r="R106" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S106" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T106" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U106" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="3:21">
+      <c r="C107" s="1">
+        <v>1023</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H107" s="1">
+        <v>1</v>
+      </c>
+      <c r="I107" s="6">
+        <v>0</v>
+      </c>
+      <c r="J107" s="6">
+        <v>4</v>
+      </c>
+      <c r="K107" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L107" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M107" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N107" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O107" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P107" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q107" s="8">
+        <v>0</v>
+      </c>
+      <c r="R107" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S107" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T107" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U107" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="3:21">
+      <c r="C108" s="1">
+        <v>1024</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H108" s="1">
+        <v>1</v>
+      </c>
+      <c r="I108" s="6">
+        <v>0</v>
+      </c>
+      <c r="J108" s="6">
+        <v>4</v>
+      </c>
+      <c r="K108" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L108" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M108" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N108" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O108" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P108" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q108" s="8">
+        <v>0</v>
+      </c>
+      <c r="R108" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S108" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T108" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U108" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="3:21">
+      <c r="C109" s="1">
+        <v>1025</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H109" s="1">
+        <v>1</v>
+      </c>
+      <c r="I109" s="6">
+        <v>0</v>
+      </c>
+      <c r="J109" s="6">
+        <v>4</v>
+      </c>
+      <c r="K109" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L109" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M109" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N109" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O109" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P109" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q109" s="8">
+        <v>0</v>
+      </c>
+      <c r="R109" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S109" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T109" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U109" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="3:21">
+      <c r="C110" s="1">
+        <v>1026</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H110" s="1">
+        <v>1</v>
+      </c>
+      <c r="I110" s="6">
+        <v>0</v>
+      </c>
+      <c r="J110" s="6">
+        <v>4</v>
+      </c>
+      <c r="K110" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L110" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M110" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N110" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O110" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P110" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q110" s="8">
+        <v>0</v>
+      </c>
+      <c r="R110" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S110" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T110" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U110" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="3:21">
+      <c r="C111" s="1">
+        <v>1027</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H111" s="1">
+        <v>1</v>
+      </c>
+      <c r="I111" s="6">
+        <v>0</v>
+      </c>
+      <c r="J111" s="6">
+        <v>4</v>
+      </c>
+      <c r="K111" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L111" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M111" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N111" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O111" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P111" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q111" s="8">
+        <v>0</v>
+      </c>
+      <c r="R111" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S111" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T111" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U111" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="3:21">
+      <c r="C112" s="1">
+        <v>1028</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H112" s="1">
+        <v>1</v>
+      </c>
+      <c r="I112" s="6">
+        <v>0</v>
+      </c>
+      <c r="J112" s="6">
+        <v>4</v>
+      </c>
+      <c r="K112" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L112" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M112" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N112" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O112" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P112" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q112" s="8">
+        <v>0</v>
+      </c>
+      <c r="R112" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S112" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T112" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U112" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="3:21">
+      <c r="C113" s="1">
+        <v>1029</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H113" s="1">
+        <v>1</v>
+      </c>
+      <c r="I113" s="6">
+        <v>0</v>
+      </c>
+      <c r="J113" s="6">
+        <v>4</v>
+      </c>
+      <c r="K113" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L113" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M113" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N113" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O113" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P113" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q113" s="8">
+        <v>0</v>
+      </c>
+      <c r="R113" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S113" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T113" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U113" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="3:21">
+      <c r="C114" s="1">
+        <v>1030</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H114" s="1">
+        <v>1</v>
+      </c>
+      <c r="I114" s="6">
+        <v>0</v>
+      </c>
+      <c r="J114" s="6">
+        <v>4</v>
+      </c>
+      <c r="K114" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L114" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M114" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N114" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O114" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P114" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q114" s="8">
+        <v>0</v>
+      </c>
+      <c r="R114" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S114" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T114" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U114" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="3:21">
+      <c r="C115" s="1">
+        <v>1031</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H115" s="1">
+        <v>1</v>
+      </c>
+      <c r="I115" s="6">
+        <v>0</v>
+      </c>
+      <c r="J115" s="6">
+        <v>4</v>
+      </c>
+      <c r="K115" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L115" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M115" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N115" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O115" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P115" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q115" s="8">
+        <v>0</v>
+      </c>
+      <c r="R115" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S115" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T115" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U115" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="3:21">
+      <c r="C116" s="1">
+        <v>1032</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H116" s="1">
+        <v>1</v>
+      </c>
+      <c r="I116" s="6">
+        <v>0</v>
+      </c>
+      <c r="J116" s="6">
+        <v>4</v>
+      </c>
+      <c r="K116" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L116" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M116" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N116" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O116" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P116" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q116" s="8">
+        <v>0</v>
+      </c>
+      <c r="R116" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S116" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T116" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U116" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="3:21">
+      <c r="C117" s="1">
+        <v>1033</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H117" s="1">
+        <v>1</v>
+      </c>
+      <c r="I117" s="6">
+        <v>0</v>
+      </c>
+      <c r="J117" s="6">
+        <v>4</v>
+      </c>
+      <c r="K117" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L117" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M117" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N117" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O117" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P117" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q117" s="8">
+        <v>0</v>
+      </c>
+      <c r="R117" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S117" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T117" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U117" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="3:21">
+      <c r="C118" s="1">
+        <v>1034</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H118" s="1">
+        <v>1</v>
+      </c>
+      <c r="I118" s="6">
+        <v>0</v>
+      </c>
+      <c r="J118" s="6">
+        <v>4</v>
+      </c>
+      <c r="K118" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L118" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M118" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N118" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O118" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P118" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q118" s="8">
+        <v>0</v>
+      </c>
+      <c r="R118" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S118" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T118" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U118" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="3:21">
+      <c r="C119" s="1">
+        <v>1035</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H119" s="1">
+        <v>1</v>
+      </c>
+      <c r="I119" s="6">
+        <v>0</v>
+      </c>
+      <c r="J119" s="6">
+        <v>4</v>
+      </c>
+      <c r="K119" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L119" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M119" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N119" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O119" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P119" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q119" s="8">
+        <v>0</v>
+      </c>
+      <c r="R119" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S119" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T119" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U119" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="3:21">
+      <c r="C120" s="1">
+        <v>1036</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H120" s="1">
+        <v>1</v>
+      </c>
+      <c r="I120" s="6">
+        <v>0</v>
+      </c>
+      <c r="J120" s="6">
+        <v>4</v>
+      </c>
+      <c r="K120" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L120" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M120" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N120" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O120" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P120" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q120" s="8">
+        <v>0</v>
+      </c>
+      <c r="R120" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S120" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T120" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U120" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="3:21">
+      <c r="C121" s="1">
+        <v>1037</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H121" s="1">
+        <v>1</v>
+      </c>
+      <c r="I121" s="6">
+        <v>0</v>
+      </c>
+      <c r="J121" s="6">
+        <v>4</v>
+      </c>
+      <c r="K121" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L121" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M121" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N121" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O121" s="8">
+        <f t="shared" ref="O121:O152" si="4">(N121-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P121" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q121" s="8">
+        <v>0</v>
+      </c>
+      <c r="R121" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S121" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T121" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U121" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="3:21">
+      <c r="C122" s="1">
+        <v>1038</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H122" s="1">
+        <v>1</v>
+      </c>
+      <c r="I122" s="6">
+        <v>0</v>
+      </c>
+      <c r="J122" s="6">
+        <v>4</v>
+      </c>
+      <c r="K122" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L122" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M122" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N122" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O122" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P122" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q122" s="8">
+        <v>0</v>
+      </c>
+      <c r="R122" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S122" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T122" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U122" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="123" customHeight="1" spans="3:21">
+      <c r="C123" s="1">
+        <v>1039</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H123" s="1">
+        <v>1</v>
+      </c>
+      <c r="I123" s="6">
+        <v>0</v>
+      </c>
+      <c r="J123" s="6">
+        <v>4</v>
+      </c>
+      <c r="K123" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L123" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M123" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N123" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O123" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P123" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q123" s="8">
+        <v>0</v>
+      </c>
+      <c r="R123" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S123" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T123" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U123" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="124" customHeight="1" spans="3:21">
+      <c r="C124" s="1">
+        <v>1040</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H124" s="1">
+        <v>1</v>
+      </c>
+      <c r="I124" s="6">
+        <v>0</v>
+      </c>
+      <c r="J124" s="6">
+        <v>4</v>
+      </c>
+      <c r="K124" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L124" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M124" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N124" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O124" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P124" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q124" s="8">
+        <v>0</v>
+      </c>
+      <c r="R124" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S124" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T124" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U124" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="3:21">
+      <c r="C125" s="1">
+        <v>1041</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H125" s="1">
+        <v>1</v>
+      </c>
+      <c r="I125" s="6">
+        <v>0</v>
+      </c>
+      <c r="J125" s="6">
+        <v>4</v>
+      </c>
+      <c r="K125" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L125" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M125" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N125" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O125" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P125" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q125" s="8">
+        <v>0</v>
+      </c>
+      <c r="R125" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S125" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T125" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U125" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="126" customHeight="1" spans="3:21">
+      <c r="C126" s="1">
+        <v>1042</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H126" s="1">
+        <v>1</v>
+      </c>
+      <c r="I126" s="6">
+        <v>0</v>
+      </c>
+      <c r="J126" s="6">
+        <v>4</v>
+      </c>
+      <c r="K126" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L126" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M126" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N126" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O126" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P126" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q126" s="8">
+        <v>0</v>
+      </c>
+      <c r="R126" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S126" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T126" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U126" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="3:21">
+      <c r="C127" s="1">
+        <v>1043</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H127" s="1">
+        <v>1</v>
+      </c>
+      <c r="I127" s="6">
+        <v>0</v>
+      </c>
+      <c r="J127" s="6">
+        <v>4</v>
+      </c>
+      <c r="K127" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L127" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M127" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N127" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O127" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P127" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q127" s="8">
+        <v>0</v>
+      </c>
+      <c r="R127" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S127" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T127" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U127" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="128" customHeight="1" spans="3:21">
+      <c r="C128" s="1">
+        <v>1044</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H128" s="1">
+        <v>1</v>
+      </c>
+      <c r="I128" s="6">
+        <v>0</v>
+      </c>
+      <c r="J128" s="6">
+        <v>4</v>
+      </c>
+      <c r="K128" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L128" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M128" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N128" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O128" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P128" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q128" s="8">
+        <v>0</v>
+      </c>
+      <c r="R128" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S128" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T128" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U128" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="3:21">
+      <c r="C129" s="1">
+        <v>1045</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H129" s="1">
+        <v>1</v>
+      </c>
+      <c r="I129" s="6">
+        <v>0</v>
+      </c>
+      <c r="J129" s="6">
+        <v>4</v>
+      </c>
+      <c r="K129" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L129" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M129" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N129" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O129" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P129" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q129" s="8">
+        <v>0</v>
+      </c>
+      <c r="R129" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S129" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T129" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U129" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="3:21">
+      <c r="C130" s="1">
+        <v>1046</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H130" s="1">
+        <v>1</v>
+      </c>
+      <c r="I130" s="6">
+        <v>0</v>
+      </c>
+      <c r="J130" s="6">
+        <v>4</v>
+      </c>
+      <c r="K130" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L130" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M130" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N130" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O130" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P130" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q130" s="8">
+        <v>0</v>
+      </c>
+      <c r="R130" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S130" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T130" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U130" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="3:21">
+      <c r="C131" s="1">
+        <v>1047</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H131" s="1">
+        <v>1</v>
+      </c>
+      <c r="I131" s="6">
+        <v>0</v>
+      </c>
+      <c r="J131" s="6">
+        <v>4</v>
+      </c>
+      <c r="K131" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L131" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M131" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N131" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O131" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P131" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q131" s="8">
+        <v>0</v>
+      </c>
+      <c r="R131" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S131" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T131" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U131" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="3:21">
+      <c r="C132" s="1">
+        <v>1048</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H132" s="1">
+        <v>1</v>
+      </c>
+      <c r="I132" s="6">
+        <v>0</v>
+      </c>
+      <c r="J132" s="6">
+        <v>4</v>
+      </c>
+      <c r="K132" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L132" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M132" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N132" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O132" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P132" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q132" s="8">
+        <v>0</v>
+      </c>
+      <c r="R132" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S132" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T132" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U132" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="3:21">
+      <c r="C133" s="1">
+        <v>1049</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H133" s="1">
+        <v>1</v>
+      </c>
+      <c r="I133" s="6">
+        <v>0</v>
+      </c>
+      <c r="J133" s="6">
+        <v>4</v>
+      </c>
+      <c r="K133" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L133" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M133" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N133" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O133" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P133" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q133" s="8">
+        <v>0</v>
+      </c>
+      <c r="R133" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S133" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T133" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U133" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="3:21">
+      <c r="C134" s="1">
+        <v>1050</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H134" s="1">
+        <v>1</v>
+      </c>
+      <c r="I134" s="6">
+        <v>0</v>
+      </c>
+      <c r="J134" s="6">
+        <v>4</v>
+      </c>
+      <c r="K134" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L134" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M134" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N134" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O134" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P134" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q134" s="8">
+        <v>0</v>
+      </c>
+      <c r="R134" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S134" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T134" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U134" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="3:21">
+      <c r="C135" s="1">
+        <v>1051</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H135" s="1">
+        <v>1</v>
+      </c>
+      <c r="I135" s="6">
+        <v>0</v>
+      </c>
+      <c r="J135" s="6">
+        <v>4</v>
+      </c>
+      <c r="K135" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L135" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M135" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N135" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O135" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P135" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q135" s="8">
+        <v>0</v>
+      </c>
+      <c r="R135" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S135" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T135" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U135" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="3:21">
+      <c r="C136" s="1">
+        <v>1052</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H136" s="1">
+        <v>1</v>
+      </c>
+      <c r="I136" s="6">
+        <v>0</v>
+      </c>
+      <c r="J136" s="6">
+        <v>4</v>
+      </c>
+      <c r="K136" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L136" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M136" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N136" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O136" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P136" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q136" s="8">
+        <v>0</v>
+      </c>
+      <c r="R136" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S136" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T136" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U136" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="3:21">
+      <c r="C137" s="1">
+        <v>1053</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H137" s="1">
+        <v>1</v>
+      </c>
+      <c r="I137" s="6">
+        <v>0</v>
+      </c>
+      <c r="J137" s="6">
+        <v>4</v>
+      </c>
+      <c r="K137" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L137" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M137" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N137" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O137" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P137" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q137" s="8">
+        <v>0</v>
+      </c>
+      <c r="R137" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S137" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T137" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U137" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="3:21">
+      <c r="C138" s="1">
+        <v>1054</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H138" s="1">
+        <v>1</v>
+      </c>
+      <c r="I138" s="6">
+        <v>0</v>
+      </c>
+      <c r="J138" s="6">
+        <v>4</v>
+      </c>
+      <c r="K138" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L138" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M138" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N138" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O138" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P138" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q138" s="8">
+        <v>0</v>
+      </c>
+      <c r="R138" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S138" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T138" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U138" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="3:21">
+      <c r="C139" s="1">
+        <v>1055</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H139" s="1">
+        <v>1</v>
+      </c>
+      <c r="I139" s="6">
+        <v>0</v>
+      </c>
+      <c r="J139" s="6">
+        <v>4</v>
+      </c>
+      <c r="K139" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L139" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M139" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N139" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O139" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P139" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q139" s="8">
+        <v>0</v>
+      </c>
+      <c r="R139" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S139" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T139" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U139" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="3:21">
+      <c r="C140" s="1">
+        <v>1056</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H140" s="1">
+        <v>1</v>
+      </c>
+      <c r="I140" s="6">
+        <v>0</v>
+      </c>
+      <c r="J140" s="6">
+        <v>4</v>
+      </c>
+      <c r="K140" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L140" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M140" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N140" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O140" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P140" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q140" s="8">
+        <v>0</v>
+      </c>
+      <c r="R140" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S140" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T140" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U140" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="3:21">
+      <c r="C141" s="1">
+        <v>1057</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H141" s="1">
+        <v>1</v>
+      </c>
+      <c r="I141" s="6">
+        <v>0</v>
+      </c>
+      <c r="J141" s="6">
+        <v>4</v>
+      </c>
+      <c r="K141" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L141" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M141" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N141" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O141" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P141" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q141" s="8">
+        <v>0</v>
+      </c>
+      <c r="R141" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S141" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T141" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U141" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="3:21">
+      <c r="C142" s="1">
+        <v>1058</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H142" s="1">
+        <v>1</v>
+      </c>
+      <c r="I142" s="6">
+        <v>0</v>
+      </c>
+      <c r="J142" s="6">
+        <v>4</v>
+      </c>
+      <c r="K142" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L142" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M142" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N142" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O142" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P142" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q142" s="8">
+        <v>0</v>
+      </c>
+      <c r="R142" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S142" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T142" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U142" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="3:21">
+      <c r="C143" s="1">
+        <v>1059</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H143" s="1">
+        <v>1</v>
+      </c>
+      <c r="I143" s="6">
+        <v>0</v>
+      </c>
+      <c r="J143" s="6">
+        <v>4</v>
+      </c>
+      <c r="K143" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L143" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M143" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N143" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O143" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P143" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q143" s="8">
+        <v>0</v>
+      </c>
+      <c r="R143" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S143" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T143" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U143" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="3:21">
+      <c r="C144" s="1">
+        <v>1060</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H144" s="1">
+        <v>1</v>
+      </c>
+      <c r="I144" s="6">
+        <v>0</v>
+      </c>
+      <c r="J144" s="6">
+        <v>4</v>
+      </c>
+      <c r="K144" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L144" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M144" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N144" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O144" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P144" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q144" s="8">
+        <v>0</v>
+      </c>
+      <c r="R144" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S144" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T144" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U144" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="3:21">
+      <c r="C145" s="1">
+        <v>1061</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H145" s="1">
+        <v>1</v>
+      </c>
+      <c r="I145" s="6">
+        <v>0</v>
+      </c>
+      <c r="J145" s="6">
+        <v>4</v>
+      </c>
+      <c r="K145" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L145" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M145" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N145" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O145" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P145" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q145" s="8">
+        <v>0</v>
+      </c>
+      <c r="R145" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S145" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T145" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U145" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="3:21">
+      <c r="C146" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H146" s="1">
+        <v>1</v>
+      </c>
+      <c r="I146" s="6">
+        <v>0</v>
+      </c>
+      <c r="J146" s="6">
+        <v>4</v>
+      </c>
+      <c r="K146" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L146" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M146" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N146" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O146" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P146" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q146" s="8">
+        <v>0</v>
+      </c>
+      <c r="R146" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S146" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T146" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U146" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="3:21">
+      <c r="C147" s="1">
+        <v>1063</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H147" s="1">
+        <v>1</v>
+      </c>
+      <c r="I147" s="6">
+        <v>0</v>
+      </c>
+      <c r="J147" s="6">
+        <v>4</v>
+      </c>
+      <c r="K147" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L147" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M147" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N147" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O147" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P147" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q147" s="8">
+        <v>0</v>
+      </c>
+      <c r="R147" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S147" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T147" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U147" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="3:21">
+      <c r="C148" s="1">
+        <v>1064</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H148" s="1">
+        <v>1</v>
+      </c>
+      <c r="I148" s="6">
+        <v>0</v>
+      </c>
+      <c r="J148" s="6">
+        <v>4</v>
+      </c>
+      <c r="K148" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L148" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M148" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N148" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O148" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P148" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q148" s="8">
+        <v>0</v>
+      </c>
+      <c r="R148" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S148" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T148" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U148" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="3:21">
+      <c r="C149" s="1">
+        <v>1065</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H149" s="1">
+        <v>1</v>
+      </c>
+      <c r="I149" s="6">
+        <v>0</v>
+      </c>
+      <c r="J149" s="6">
+        <v>4</v>
+      </c>
+      <c r="K149" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L149" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M149" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N149" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O149" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P149" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q149" s="8">
+        <v>0</v>
+      </c>
+      <c r="R149" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S149" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T149" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U149" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="3:21">
+      <c r="C150" s="1">
+        <v>1066</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H150" s="1">
+        <v>1</v>
+      </c>
+      <c r="I150" s="6">
+        <v>0</v>
+      </c>
+      <c r="J150" s="6">
+        <v>4</v>
+      </c>
+      <c r="K150" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L150" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M150" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N150" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O150" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P150" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q150" s="8">
+        <v>0</v>
+      </c>
+      <c r="R150" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S150" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T150" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U150" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="3:21">
+      <c r="C151" s="1">
+        <v>1067</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H151" s="1">
+        <v>1</v>
+      </c>
+      <c r="I151" s="6">
+        <v>0</v>
+      </c>
+      <c r="J151" s="6">
+        <v>4</v>
+      </c>
+      <c r="K151" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L151" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M151" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N151" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O151" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P151" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q151" s="8">
+        <v>0</v>
+      </c>
+      <c r="R151" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S151" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T151" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U151" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="152" customHeight="1" spans="3:21">
+      <c r="C152" s="1">
+        <v>1068</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H152" s="1">
+        <v>1</v>
+      </c>
+      <c r="I152" s="6">
+        <v>0</v>
+      </c>
+      <c r="J152" s="6">
+        <v>4</v>
+      </c>
+      <c r="K152" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L152" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M152" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N152" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O152" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P152" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q152" s="8">
+        <v>0</v>
+      </c>
+      <c r="R152" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S152" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T152" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U152" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="153" customHeight="1" spans="3:21">
+      <c r="C153" s="1">
+        <v>1069</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H153" s="1">
+        <v>1</v>
+      </c>
+      <c r="I153" s="6">
+        <v>0</v>
+      </c>
+      <c r="J153" s="6">
+        <v>4</v>
+      </c>
+      <c r="K153" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L153" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M153" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N153" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O153" s="8">
+        <f t="shared" ref="O153:O173" si="5">(N153-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P153" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q153" s="8">
+        <v>0</v>
+      </c>
+      <c r="R153" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S153" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T153" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U153" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="3:21">
+      <c r="C154" s="1">
+        <v>1070</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H154" s="1">
+        <v>1</v>
+      </c>
+      <c r="I154" s="6">
+        <v>0</v>
+      </c>
+      <c r="J154" s="6">
+        <v>4</v>
+      </c>
+      <c r="K154" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L154" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M154" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N154" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O154" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P154" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q154" s="8">
+        <v>0</v>
+      </c>
+      <c r="R154" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S154" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T154" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U154" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="155" customHeight="1" spans="3:21">
+      <c r="C155" s="1">
+        <v>1071</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H155" s="1">
+        <v>1</v>
+      </c>
+      <c r="I155" s="6">
+        <v>0</v>
+      </c>
+      <c r="J155" s="6">
+        <v>4</v>
+      </c>
+      <c r="K155" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L155" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M155" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N155" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O155" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P155" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q155" s="8">
+        <v>0</v>
+      </c>
+      <c r="R155" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S155" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T155" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U155" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="156" customHeight="1" spans="3:21">
+      <c r="C156" s="1">
+        <v>1072</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H156" s="1">
+        <v>1</v>
+      </c>
+      <c r="I156" s="6">
+        <v>0</v>
+      </c>
+      <c r="J156" s="6">
+        <v>4</v>
+      </c>
+      <c r="K156" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L156" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M156" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N156" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O156" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P156" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q156" s="8">
+        <v>0</v>
+      </c>
+      <c r="R156" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S156" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T156" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U156" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="157" customHeight="1" spans="3:21">
+      <c r="C157" s="1">
+        <v>1073</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H157" s="1">
+        <v>1</v>
+      </c>
+      <c r="I157" s="6">
+        <v>0</v>
+      </c>
+      <c r="J157" s="6">
+        <v>4</v>
+      </c>
+      <c r="K157" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L157" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M157" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N157" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O157" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P157" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q157" s="8">
+        <v>0</v>
+      </c>
+      <c r="R157" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S157" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T157" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U157" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="158" customHeight="1" spans="3:21">
+      <c r="C158" s="1">
+        <v>1074</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H158" s="1">
+        <v>1</v>
+      </c>
+      <c r="I158" s="6">
+        <v>0</v>
+      </c>
+      <c r="J158" s="6">
+        <v>4</v>
+      </c>
+      <c r="K158" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L158" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M158" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N158" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O158" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P158" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q158" s="8">
+        <v>0</v>
+      </c>
+      <c r="R158" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S158" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T158" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U158" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="159" customHeight="1" spans="3:21">
+      <c r="C159" s="1">
+        <v>1075</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H159" s="1">
+        <v>1</v>
+      </c>
+      <c r="I159" s="6">
+        <v>0</v>
+      </c>
+      <c r="J159" s="6">
+        <v>4</v>
+      </c>
+      <c r="K159" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L159" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M159" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N159" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O159" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P159" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q159" s="8">
+        <v>0</v>
+      </c>
+      <c r="R159" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S159" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T159" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U159" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="160" customHeight="1" spans="3:21">
+      <c r="C160" s="1">
+        <v>1076</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H160" s="1">
+        <v>1</v>
+      </c>
+      <c r="I160" s="6">
+        <v>0</v>
+      </c>
+      <c r="J160" s="6">
+        <v>4</v>
+      </c>
+      <c r="K160" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L160" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M160" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N160" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O160" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P160" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q160" s="8">
+        <v>0</v>
+      </c>
+      <c r="R160" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S160" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T160" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U160" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="161" customHeight="1" spans="3:21">
+      <c r="C161" s="1">
+        <v>1077</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H161" s="1">
+        <v>1</v>
+      </c>
+      <c r="I161" s="6">
+        <v>0</v>
+      </c>
+      <c r="J161" s="6">
+        <v>4</v>
+      </c>
+      <c r="K161" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L161" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M161" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N161" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O161" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P161" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q161" s="8">
+        <v>0</v>
+      </c>
+      <c r="R161" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S161" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T161" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U161" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="162" customHeight="1" spans="3:21">
+      <c r="C162" s="1">
+        <v>1078</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H162" s="1">
+        <v>1</v>
+      </c>
+      <c r="I162" s="6">
+        <v>0</v>
+      </c>
+      <c r="J162" s="6">
+        <v>4</v>
+      </c>
+      <c r="K162" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L162" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M162" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N162" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O162" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P162" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q162" s="8">
+        <v>0</v>
+      </c>
+      <c r="R162" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S162" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T162" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U162" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="163" customHeight="1" spans="3:21">
+      <c r="C163" s="1">
+        <v>1079</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H163" s="1">
+        <v>1</v>
+      </c>
+      <c r="I163" s="6">
+        <v>0</v>
+      </c>
+      <c r="J163" s="6">
+        <v>4</v>
+      </c>
+      <c r="K163" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L163" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M163" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N163" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O163" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P163" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q163" s="8">
+        <v>0</v>
+      </c>
+      <c r="R163" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S163" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T163" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U163" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="164" customHeight="1" spans="3:21">
+      <c r="C164" s="1">
+        <v>1080</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H164" s="1">
+        <v>1</v>
+      </c>
+      <c r="I164" s="6">
+        <v>0</v>
+      </c>
+      <c r="J164" s="6">
+        <v>4</v>
+      </c>
+      <c r="K164" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L164" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M164" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N164" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O164" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P164" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q164" s="8">
+        <v>0</v>
+      </c>
+      <c r="R164" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S164" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T164" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U164" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="165" customHeight="1" spans="3:21">
+      <c r="C165" s="1">
+        <v>1081</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H165" s="1">
+        <v>1</v>
+      </c>
+      <c r="I165" s="6">
+        <v>0</v>
+      </c>
+      <c r="J165" s="6">
+        <v>4</v>
+      </c>
+      <c r="K165" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L165" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M165" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N165" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O165" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P165" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q165" s="8">
+        <v>0</v>
+      </c>
+      <c r="R165" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S165" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T165" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U165" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="166" customHeight="1" spans="3:21">
+      <c r="C166" s="1">
+        <v>1082</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H166" s="1">
+        <v>1</v>
+      </c>
+      <c r="I166" s="6">
+        <v>0</v>
+      </c>
+      <c r="J166" s="6">
+        <v>4</v>
+      </c>
+      <c r="K166" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L166" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M166" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N166" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O166" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P166" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q166" s="8">
+        <v>0</v>
+      </c>
+      <c r="R166" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S166" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T166" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U166" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="167" customHeight="1" spans="3:21">
+      <c r="C167" s="1">
+        <v>1083</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H167" s="1">
+        <v>1</v>
+      </c>
+      <c r="I167" s="6">
+        <v>0</v>
+      </c>
+      <c r="J167" s="6">
+        <v>4</v>
+      </c>
+      <c r="K167" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L167" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M167" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N167" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O167" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P167" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q167" s="8">
+        <v>0</v>
+      </c>
+      <c r="R167" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S167" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T167" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U167" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="168" customHeight="1" spans="3:21">
+      <c r="C168" s="1">
+        <v>1084</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H168" s="1">
+        <v>1</v>
+      </c>
+      <c r="I168" s="6">
+        <v>0</v>
+      </c>
+      <c r="J168" s="6">
+        <v>4</v>
+      </c>
+      <c r="K168" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L168" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M168" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N168" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O168" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P168" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q168" s="8">
+        <v>0</v>
+      </c>
+      <c r="R168" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S168" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T168" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U168" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="169" customHeight="1" spans="3:21">
+      <c r="C169" s="1">
+        <v>1085</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H169" s="1">
+        <v>1</v>
+      </c>
+      <c r="I169" s="6">
+        <v>0</v>
+      </c>
+      <c r="J169" s="6">
+        <v>4</v>
+      </c>
+      <c r="K169" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L169" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M169" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N169" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O169" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P169" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q169" s="8">
+        <v>0</v>
+      </c>
+      <c r="R169" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S169" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T169" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U169" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="170" customHeight="1" spans="3:21">
+      <c r="C170" s="1">
+        <v>1086</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H170" s="1">
+        <v>1</v>
+      </c>
+      <c r="I170" s="6">
+        <v>0</v>
+      </c>
+      <c r="J170" s="6">
+        <v>4</v>
+      </c>
+      <c r="K170" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L170" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M170" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N170" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O170" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P170" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q170" s="8">
+        <v>0</v>
+      </c>
+      <c r="R170" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S170" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T170" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U170" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="171" customHeight="1" spans="3:21">
+      <c r="C171" s="1">
+        <v>1087</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H171" s="1">
+        <v>1</v>
+      </c>
+      <c r="I171" s="6">
+        <v>0</v>
+      </c>
+      <c r="J171" s="6">
+        <v>4</v>
+      </c>
+      <c r="K171" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L171" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M171" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N171" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O171" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P171" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q171" s="8">
+        <v>0</v>
+      </c>
+      <c r="R171" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S171" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T171" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U171" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="172" customHeight="1" spans="3:21">
+      <c r="C172" s="1">
+        <v>1088</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H172" s="1">
+        <v>1</v>
+      </c>
+      <c r="I172" s="6">
+        <v>0</v>
+      </c>
+      <c r="J172" s="6">
+        <v>4</v>
+      </c>
+      <c r="K172" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L172" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M172" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N172" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O172" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P172" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q172" s="8">
+        <v>0</v>
+      </c>
+      <c r="R172" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S172" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T172" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U172" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="173" customHeight="1" spans="3:21">
+      <c r="C173" s="1">
+        <v>1089</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H173" s="1">
+        <v>1</v>
+      </c>
+      <c r="I173" s="6">
+        <v>0</v>
+      </c>
+      <c r="J173" s="6">
+        <v>4</v>
+      </c>
+      <c r="K173" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L173" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M173" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N173" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O173" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P173" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q173" s="8">
+        <v>0</v>
+      </c>
+      <c r="R173" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S173" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T173" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U173" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="174" customHeight="1" spans="3:21">
+      <c r="C174" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H174" s="1">
+        <v>2</v>
+      </c>
+      <c r="I174" s="6">
+        <v>0</v>
+      </c>
+      <c r="J174" s="6">
+        <v>0</v>
+      </c>
+      <c r="K174" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L174" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M174" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N174" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O174" s="8">
+        <f>(N174-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P174" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q174" s="8">
+        <v>0</v>
+      </c>
+      <c r="R174" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S174" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T174" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U174" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="175" customHeight="1" spans="3:21">
+      <c r="C175" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H175" s="1">
+        <v>2</v>
+      </c>
+      <c r="I175" s="6">
+        <v>0</v>
+      </c>
+      <c r="J175" s="6">
+        <v>1</v>
+      </c>
+      <c r="K175" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L175" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M175" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N175" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O175" s="8">
+        <f>(N175-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P175" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q175" s="8">
+        <v>0</v>
+      </c>
+      <c r="R175" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S175" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T175" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U175" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="176" customHeight="1" spans="3:21">
+      <c r="C176" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H176" s="1">
+        <v>2</v>
+      </c>
+      <c r="I176" s="6">
+        <v>0</v>
+      </c>
+      <c r="J176" s="6">
+        <v>2</v>
+      </c>
+      <c r="K176" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L176" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M176" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N176" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O176" s="8">
+        <f>(N176-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P176" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q176" s="8">
+        <v>0</v>
+      </c>
+      <c r="R176" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S176" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T176" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U176" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="177" customHeight="1" spans="3:21">
+      <c r="C177" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H177" s="1">
+        <v>2</v>
+      </c>
+      <c r="I177" s="6">
+        <v>0</v>
+      </c>
+      <c r="J177" s="6">
+        <v>3</v>
+      </c>
+      <c r="K177" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L177" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M177" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N177" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O177" s="8">
+        <f>(N177-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P177" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q177" s="8">
+        <v>0</v>
+      </c>
+      <c r="R177" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S177" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T177" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U177" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="178" customHeight="1" spans="3:21">
+      <c r="C178" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H178" s="1">
+        <v>2</v>
+      </c>
+      <c r="I178" s="6">
+        <v>0</v>
+      </c>
+      <c r="J178" s="6">
+        <v>4</v>
+      </c>
+      <c r="K178" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L178" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M178" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N178" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O178" s="8">
+        <f>(N178-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P178" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q178" s="8">
+        <v>0</v>
+      </c>
+      <c r="R178" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S178" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T178" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U178" s="6">
         <v>-1</v>
       </c>
     </row>

--- a/global/Item.xlsx
+++ b/global/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="31240" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -79,7 +79,13 @@
 2: 晶石 3: 礼包</t>
   </si>
   <si>
-    <t>0：材料与消耗品</t>
+    <t>0：材料与消耗品
+0: 单手剑
+1: 双手剑
+2: 长柄
+3: 手枪
+4: 法杖
+5: 召唤物</t>
   </si>
   <si>
     <t>0:白 @@ -1069,10 +1075,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1088,7 +1094,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1096,6 +1124,60 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1109,8 +1191,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1119,6 +1202,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1139,114 +1229,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1270,25 +1265,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1300,25 +1277,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,7 +1295,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1348,25 +1319,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1384,67 +1427,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1482,8 +1477,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1498,6 +1517,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1532,195 +1566,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1739,54 +1734,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2934,12 +2929,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:U178"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88:U173"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
@@ -2947,9 +2942,9 @@
     <col min="1" max="7" width="19.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="37" style="1" customWidth="1"/>
     <col min="9" max="13" width="19.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="26.3833333333333" style="1" customWidth="1"/>
-    <col min="15" max="19" width="32.15" style="1" customWidth="1"/>
-    <col min="20" max="20" width="25.3833333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.3846153846154" style="1" customWidth="1"/>
+    <col min="15" max="19" width="32.1538461538462" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25.3846153846154" style="1" customWidth="1"/>
     <col min="21" max="16384" width="19.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2978,7 +2973,7 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
     </row>
-    <row r="2" ht="58" customHeight="1" spans="1:21">
+    <row r="2" ht="135" spans="1:21">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -2991,7 +2986,7 @@
       <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -12043,7 +12038,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O153" s="8">
-        <f t="shared" ref="O153:O173" si="5">(N153-70*365-19)*86400-8*3600</f>
+        <f t="shared" ref="O153:O178" si="5">(N153-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P153" s="8">
@@ -13303,7 +13298,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O174" s="8">
-        <f>(N174-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P174" s="8">
@@ -13363,7 +13358,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O175" s="8">
-        <f>(N175-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P175" s="8">
@@ -13423,7 +13418,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O176" s="8">
-        <f>(N176-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P176" s="8">
@@ -13483,7 +13478,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O177" s="8">
-        <f>(N177-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P177" s="8">
@@ -13543,7 +13538,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O178" s="8">
-        <f>(N178-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P178" s="8">

--- a/global/Item.xlsx
+++ b/global/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31240" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="328">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -1073,12 +1073,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1091,6 +1091,71 @@
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1108,6 +1173,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -1122,46 +1188,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1176,6 +1205,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
@@ -1184,10 +1221,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1201,47 +1238,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1265,169 +1276,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1445,7 +1300,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1474,11 +1485,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1501,23 +1518,37 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1537,185 +1568,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1734,54 +1745,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2929,12 +2940,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:U178"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144:D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
@@ -2942,9 +2953,9 @@
     <col min="1" max="7" width="19.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="37" style="1" customWidth="1"/>
     <col min="9" max="13" width="19.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="26.3846153846154" style="1" customWidth="1"/>
-    <col min="15" max="19" width="32.1538461538462" style="1" customWidth="1"/>
-    <col min="20" max="20" width="25.3846153846154" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.3833333333333" style="1" customWidth="1"/>
+    <col min="15" max="19" width="32.15" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25.3833333333333" style="1" customWidth="1"/>
     <col min="21" max="16384" width="19.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2973,7 +2984,7 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
     </row>
-    <row r="2" ht="135" spans="1:21">
+    <row r="2" ht="108" spans="1:21">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -8480,7 +8491,7 @@
         <v>1</v>
       </c>
       <c r="I94" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" s="6">
         <v>4</v>
@@ -8540,7 +8551,7 @@
         <v>1</v>
       </c>
       <c r="I95" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" s="6">
         <v>4</v>
@@ -8600,7 +8611,7 @@
         <v>1</v>
       </c>
       <c r="I96" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" s="6">
         <v>4</v>
@@ -8660,7 +8671,7 @@
         <v>1</v>
       </c>
       <c r="I97" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" s="6">
         <v>4</v>
@@ -8720,7 +8731,7 @@
         <v>1</v>
       </c>
       <c r="I98" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" s="6">
         <v>4</v>
@@ -8780,7 +8791,7 @@
         <v>1</v>
       </c>
       <c r="I99" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" s="6">
         <v>4</v>
@@ -8840,7 +8851,7 @@
         <v>1</v>
       </c>
       <c r="I100" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" s="6">
         <v>4</v>
@@ -8900,7 +8911,7 @@
         <v>1</v>
       </c>
       <c r="I101" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" s="6">
         <v>4</v>
@@ -8960,7 +8971,7 @@
         <v>1</v>
       </c>
       <c r="I102" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" s="6">
         <v>4</v>
@@ -9020,7 +9031,7 @@
         <v>1</v>
       </c>
       <c r="I103" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" s="6">
         <v>4</v>
@@ -9080,7 +9091,7 @@
         <v>1</v>
       </c>
       <c r="I104" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" s="6">
         <v>4</v>
@@ -9140,7 +9151,7 @@
         <v>1</v>
       </c>
       <c r="I105" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" s="6">
         <v>4</v>
@@ -9200,7 +9211,7 @@
         <v>1</v>
       </c>
       <c r="I106" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" s="6">
         <v>4</v>
@@ -9260,7 +9271,7 @@
         <v>1</v>
       </c>
       <c r="I107" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J107" s="6">
         <v>4</v>
@@ -9320,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="I108" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J108" s="6">
         <v>4</v>
@@ -9380,7 +9391,7 @@
         <v>1</v>
       </c>
       <c r="I109" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109" s="6">
         <v>4</v>
@@ -9440,7 +9451,7 @@
         <v>1</v>
       </c>
       <c r="I110" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" s="6">
         <v>4</v>
@@ -9500,7 +9511,7 @@
         <v>1</v>
       </c>
       <c r="I111" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" s="6">
         <v>4</v>
@@ -9560,7 +9571,7 @@
         <v>1</v>
       </c>
       <c r="I112" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" s="6">
         <v>4</v>
@@ -9620,7 +9631,7 @@
         <v>1</v>
       </c>
       <c r="I113" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J113" s="6">
         <v>4</v>
@@ -9680,7 +9691,7 @@
         <v>1</v>
       </c>
       <c r="I114" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J114" s="6">
         <v>4</v>
@@ -9740,7 +9751,7 @@
         <v>1</v>
       </c>
       <c r="I115" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J115" s="6">
         <v>4</v>
@@ -9800,7 +9811,7 @@
         <v>1</v>
       </c>
       <c r="I116" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J116" s="6">
         <v>4</v>
@@ -9860,7 +9871,7 @@
         <v>1</v>
       </c>
       <c r="I117" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J117" s="6">
         <v>4</v>
@@ -9920,7 +9931,7 @@
         <v>1</v>
       </c>
       <c r="I118" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J118" s="6">
         <v>4</v>
@@ -9980,7 +9991,7 @@
         <v>1</v>
       </c>
       <c r="I119" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J119" s="6">
         <v>4</v>
@@ -10040,7 +10051,7 @@
         <v>1</v>
       </c>
       <c r="I120" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J120" s="6">
         <v>4</v>
@@ -10100,7 +10111,7 @@
         <v>1</v>
       </c>
       <c r="I121" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J121" s="6">
         <v>4</v>
@@ -10160,7 +10171,7 @@
         <v>1</v>
       </c>
       <c r="I122" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J122" s="6">
         <v>4</v>
@@ -10220,7 +10231,7 @@
         <v>1</v>
       </c>
       <c r="I123" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J123" s="6">
         <v>4</v>
@@ -10280,7 +10291,7 @@
         <v>1</v>
       </c>
       <c r="I124" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J124" s="6">
         <v>4</v>
@@ -10340,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="I125" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J125" s="6">
         <v>4</v>
@@ -10400,7 +10411,7 @@
         <v>1</v>
       </c>
       <c r="I126" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J126" s="6">
         <v>4</v>
@@ -10460,7 +10471,7 @@
         <v>1</v>
       </c>
       <c r="I127" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J127" s="6">
         <v>4</v>
@@ -10520,7 +10531,7 @@
         <v>1</v>
       </c>
       <c r="I128" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J128" s="6">
         <v>4</v>
@@ -10580,7 +10591,7 @@
         <v>1</v>
       </c>
       <c r="I129" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J129" s="6">
         <v>4</v>
@@ -10640,7 +10651,7 @@
         <v>1</v>
       </c>
       <c r="I130" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J130" s="6">
         <v>4</v>
@@ -10700,7 +10711,7 @@
         <v>1</v>
       </c>
       <c r="I131" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J131" s="6">
         <v>4</v>
@@ -10760,7 +10771,7 @@
         <v>1</v>
       </c>
       <c r="I132" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J132" s="6">
         <v>4</v>
@@ -10820,7 +10831,7 @@
         <v>1</v>
       </c>
       <c r="I133" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J133" s="6">
         <v>4</v>
@@ -10880,7 +10891,7 @@
         <v>1</v>
       </c>
       <c r="I134" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J134" s="6">
         <v>4</v>
@@ -10940,7 +10951,7 @@
         <v>1</v>
       </c>
       <c r="I135" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J135" s="6">
         <v>4</v>
@@ -11000,7 +11011,7 @@
         <v>1</v>
       </c>
       <c r="I136" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J136" s="6">
         <v>4</v>
@@ -11060,7 +11071,7 @@
         <v>1</v>
       </c>
       <c r="I137" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J137" s="6">
         <v>4</v>
@@ -11120,7 +11131,7 @@
         <v>1</v>
       </c>
       <c r="I138" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J138" s="6">
         <v>4</v>
@@ -11180,7 +11191,7 @@
         <v>1</v>
       </c>
       <c r="I139" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J139" s="6">
         <v>4</v>
@@ -11240,7 +11251,7 @@
         <v>1</v>
       </c>
       <c r="I140" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J140" s="6">
         <v>4</v>
@@ -11300,7 +11311,7 @@
         <v>1</v>
       </c>
       <c r="I141" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J141" s="6">
         <v>4</v>
@@ -11360,7 +11371,7 @@
         <v>1</v>
       </c>
       <c r="I142" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J142" s="6">
         <v>4</v>
@@ -11420,7 +11431,7 @@
         <v>1</v>
       </c>
       <c r="I143" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J143" s="6">
         <v>4</v>

--- a/global/Item.xlsx
+++ b/global/Item.xlsx
@@ -1073,10 +1073,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1101,58 +1101,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1173,32 +1122,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1213,6 +1153,74 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
@@ -1221,16 +1229,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1238,7 +1238,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1276,55 +1276,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,7 +1324,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,109 +1450,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1485,6 +1485,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1496,6 +1505,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1515,40 +1553,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1567,31 +1582,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1600,133 +1600,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2944,8 +2944,8 @@
   <sheetPr/>
   <dimension ref="A1:U178"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144:D153"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>

--- a/global/Item.xlsx
+++ b/global/Item.xlsx
@@ -56,7 +56,7 @@
 800-999：礼包
 1000-1999：装备
 2000-2999：晶石
-</t>
+3000-3999：收集品</t>
         </r>
       </text>
     </comment>
@@ -1067,10 +1067,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1085,21 +1085,6 @@
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1117,13 +1102,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1132,23 +1110,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1169,17 +1156,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1192,33 +1200,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1230,7 +1231,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -1270,7 +1270,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,7 +1312,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,7 +1378,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,43 +1414,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,103 +1444,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1479,11 +1479,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1493,21 +1499,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1542,28 +1533,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1576,151 +1556,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2938,8 +2938,8 @@
   <sheetPr/>
   <dimension ref="A1:T178"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84:C173"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>

--- a/global/Item.xlsx
+++ b/global/Item.xlsx
@@ -38,18 +38,18 @@
           </rPr>
           <t xml:space="preserve">
 1-9：卡牌升级经验药水
-10-19：卡牌突破道具
-20-29：卡牌技能升级道具
-30-39：卡牌觉醒道具
-40-49：装备经验道具
-50-59：装备突破道具
-60-69：晶石经验道具
-70-79：收集品升星道具
-80-89：收集品觉醒道具
-90-99：宠物升级道具
-100-109：体力道具
-110-119：抽卡道具
-120-499：各种卡牌碎片
+10-99：卡牌突破道具
+100-109：卡牌技能升级道具
+110-149：卡牌觉醒道具
+150-159：装备经验道具
+160-199：装备突破道具
+200-209：晶石经验道具
+210-219：收集品升星道具
+220-239：收集品觉醒道具
+240-249：宠物升级道具
+250-259：体力道具
+260-269：抽卡道具
+270-499：各种卡牌碎片
 500-599：礼物道具
 600-699：换肤道具
 700-799：家园道具
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="341">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -276,34 +276,79 @@
     <t>卡牌升级经验药水5</t>
   </si>
   <si>
-    <t>卡牌突破道具1</t>
+    <t>卡牌种族1突破道具1</t>
   </si>
   <si>
     <t>第1次突破道具</t>
   </si>
   <si>
-    <t>卡牌突破道具2</t>
+    <t>卡牌种族1突破道具2</t>
   </si>
   <si>
     <t>第2次突破道具</t>
   </si>
   <si>
-    <t>卡牌突破道具3</t>
+    <t>卡牌种族1突破道具3</t>
   </si>
   <si>
     <t>第3次突破道具</t>
   </si>
   <si>
-    <t>卡牌突破道具4</t>
+    <t>卡牌种族1突破道具4</t>
   </si>
   <si>
     <t>第4次突破道具</t>
   </si>
   <si>
-    <t>卡牌突破道具5</t>
+    <t>卡牌种族1突破道具5</t>
   </si>
   <si>
     <t>第5次突破道具</t>
+  </si>
+  <si>
+    <t>卡牌种族2突破道具1</t>
+  </si>
+  <si>
+    <t>卡牌种族2突破道具2</t>
+  </si>
+  <si>
+    <t>卡牌种族2突破道具3</t>
+  </si>
+  <si>
+    <t>卡牌种族2突破道具4</t>
+  </si>
+  <si>
+    <t>卡牌种族2突破道具5</t>
+  </si>
+  <si>
+    <t>卡牌种族3突破道具1</t>
+  </si>
+  <si>
+    <t>卡牌种族3突破道具2</t>
+  </si>
+  <si>
+    <t>卡牌种族3突破道具3</t>
+  </si>
+  <si>
+    <t>卡牌种族3突破道具4</t>
+  </si>
+  <si>
+    <t>卡牌种族3突破道具5</t>
+  </si>
+  <si>
+    <t>卡牌种族4突破道具1</t>
+  </si>
+  <si>
+    <t>卡牌种族4突破道具2</t>
+  </si>
+  <si>
+    <t>卡牌种族4突破道具3</t>
+  </si>
+  <si>
+    <t>卡牌种族4突破道具4</t>
+  </si>
+  <si>
+    <t>卡牌种族4突破道具5</t>
   </si>
   <si>
     <t>卡牌技能升级道具1</t>
@@ -1067,10 +1112,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1087,11 +1132,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1102,24 +1147,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1133,24 +1176,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1165,21 +1192,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1193,8 +1206,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1208,11 +1222,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1224,10 +1253,26 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1270,7 +1315,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,7 +1369,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,67 +1477,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1366,91 +1495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1475,45 +1520,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1548,6 +1554,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1559,10 +1606,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1582,10 +1627,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1594,133 +1639,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2936,10 +2981,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T178"/>
+  <dimension ref="A1:T193"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78:C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
@@ -3782,7 +3827,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N16" s="8">
-        <f t="shared" ref="N16:N47" si="1">(M16-70*365-19)*86400-8*3600</f>
+        <f t="shared" ref="N16:N31" si="1">(M16-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O16" s="8">
@@ -3805,20 +3850,20 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:20">
-      <c r="C17" s="1">
-        <v>20</v>
+      <c r="C17" s="6">
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H17" s="6">
         <v>0</v>
@@ -3862,20 +3907,20 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:20">
-      <c r="C18" s="1">
-        <v>21</v>
+      <c r="C18" s="6">
+        <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H18" s="6">
         <v>0</v>
@@ -3919,20 +3964,20 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:20">
-      <c r="C19" s="1">
-        <v>22</v>
+      <c r="C19" s="6">
+        <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H19" s="6">
         <v>0</v>
@@ -3976,20 +4021,20 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:20">
-      <c r="C20" s="1">
-        <v>23</v>
+      <c r="C20" s="6">
+        <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H20" s="6">
         <v>0</v>
@@ -4033,14 +4078,14 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:20">
-      <c r="C21" s="1">
-        <v>24</v>
+      <c r="C21" s="6">
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>57</v>
@@ -4090,20 +4135,20 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:20">
-      <c r="C22" s="1">
-        <v>30</v>
+      <c r="C22" s="6">
+        <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H22" s="6">
         <v>0</v>
@@ -4147,20 +4192,20 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:20">
-      <c r="C23" s="1">
-        <v>31</v>
+      <c r="C23" s="6">
+        <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H23" s="6">
         <v>0</v>
@@ -4204,20 +4249,20 @@
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:20">
-      <c r="C24" s="1">
-        <v>32</v>
+      <c r="C24" s="6">
+        <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H24" s="6">
         <v>0</v>
@@ -4261,20 +4306,20 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:20">
-      <c r="C25" s="1">
-        <v>33</v>
+      <c r="C25" s="6">
+        <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H25" s="6">
         <v>0</v>
@@ -4318,14 +4363,14 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:20">
-      <c r="C26" s="1">
-        <v>34</v>
+      <c r="C26" s="6">
+        <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>57</v>
@@ -4375,20 +4420,20 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:20">
-      <c r="C27" s="1">
-        <v>40</v>
+      <c r="C27" s="6">
+        <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H27" s="6">
         <v>0</v>
@@ -4432,20 +4477,20 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:20">
-      <c r="C28" s="1">
-        <v>41</v>
+      <c r="C28" s="6">
+        <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H28" s="6">
         <v>0</v>
@@ -4489,20 +4534,20 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:20">
-      <c r="C29" s="1">
-        <v>42</v>
+      <c r="C29" s="6">
+        <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>86</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H29" s="6">
         <v>0</v>
@@ -4546,20 +4591,20 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:20">
-      <c r="C30" s="1">
-        <v>43</v>
+      <c r="C30" s="6">
+        <v>28</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H30" s="6">
         <v>0</v>
@@ -4603,14 +4648,14 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:20">
-      <c r="C31" s="1">
-        <v>44</v>
+      <c r="C31" s="6">
+        <v>29</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>88</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>57</v>
@@ -4661,7 +4706,7 @@
     </row>
     <row r="32" customHeight="1" spans="3:20">
       <c r="C32" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>89</v>
@@ -4694,7 +4739,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N32" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N32:N62" si="2">(M32-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O32" s="8">
@@ -4718,7 +4763,7 @@
     </row>
     <row r="33" customHeight="1" spans="3:20">
       <c r="C33" s="1">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>90</v>
@@ -4751,7 +4796,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O33" s="8">
@@ -4775,7 +4820,7 @@
     </row>
     <row r="34" customHeight="1" spans="3:20">
       <c r="C34" s="1">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>91</v>
@@ -4808,7 +4853,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N34" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O34" s="8">
@@ -4832,7 +4877,7 @@
     </row>
     <row r="35" customHeight="1" spans="3:20">
       <c r="C35" s="1">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>92</v>
@@ -4865,7 +4910,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N35" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O35" s="8">
@@ -4889,7 +4934,7 @@
     </row>
     <row r="36" customHeight="1" spans="3:20">
       <c r="C36" s="1">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>93</v>
@@ -4922,7 +4967,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N36" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O36" s="8">
@@ -4946,7 +4991,7 @@
     </row>
     <row r="37" customHeight="1" spans="3:20">
       <c r="C37" s="1">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>94</v>
@@ -4979,7 +5024,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N37" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O37" s="8">
@@ -5003,7 +5048,7 @@
     </row>
     <row r="38" customHeight="1" spans="3:20">
       <c r="C38" s="1">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>95</v>
@@ -5036,7 +5081,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N38" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O38" s="8">
@@ -5060,7 +5105,7 @@
     </row>
     <row r="39" customHeight="1" spans="3:20">
       <c r="C39" s="1">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>96</v>
@@ -5093,7 +5138,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N39" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O39" s="8">
@@ -5117,7 +5162,7 @@
     </row>
     <row r="40" customHeight="1" spans="3:20">
       <c r="C40" s="1">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>97</v>
@@ -5150,7 +5195,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N40" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O40" s="8">
@@ -5174,7 +5219,7 @@
     </row>
     <row r="41" customHeight="1" spans="3:20">
       <c r="C41" s="1">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>98</v>
@@ -5207,7 +5252,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O41" s="8">
@@ -5231,7 +5276,7 @@
     </row>
     <row r="42" customHeight="1" spans="3:20">
       <c r="C42" s="1">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>99</v>
@@ -5264,7 +5309,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N42" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O42" s="8">
@@ -5288,7 +5333,7 @@
     </row>
     <row r="43" customHeight="1" spans="3:20">
       <c r="C43" s="1">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>100</v>
@@ -5321,7 +5366,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O43" s="8">
@@ -5345,7 +5390,7 @@
     </row>
     <row r="44" customHeight="1" spans="3:20">
       <c r="C44" s="1">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>101</v>
@@ -5378,7 +5423,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N44" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O44" s="8">
@@ -5402,7 +5447,7 @@
     </row>
     <row r="45" customHeight="1" spans="3:20">
       <c r="C45" s="1">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>102</v>
@@ -5435,7 +5480,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N45" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O45" s="8">
@@ -5459,7 +5504,7 @@
     </row>
     <row r="46" customHeight="1" spans="3:20">
       <c r="C46" s="1">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>103</v>
@@ -5492,7 +5537,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N46" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O46" s="8">
@@ -5516,7 +5561,7 @@
     </row>
     <row r="47" customHeight="1" spans="3:20">
       <c r="C47" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>104</v>
@@ -5549,7 +5594,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N47" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O47" s="8">
@@ -5573,7 +5618,7 @@
     </row>
     <row r="48" customHeight="1" spans="3:20">
       <c r="C48" s="1">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>105</v>
@@ -5606,7 +5651,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N48" s="8">
-        <f t="shared" ref="N48:N93" si="2">(M48-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O48" s="8">
@@ -5630,7 +5675,7 @@
     </row>
     <row r="49" customHeight="1" spans="3:20">
       <c r="C49" s="1">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>106</v>
@@ -5687,7 +5732,7 @@
     </row>
     <row r="50" customHeight="1" spans="3:20">
       <c r="C50" s="1">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>107</v>
@@ -5744,7 +5789,7 @@
     </row>
     <row r="51" customHeight="1" spans="3:20">
       <c r="C51" s="1">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>108</v>
@@ -5801,7 +5846,7 @@
     </row>
     <row r="52" customHeight="1" spans="3:20">
       <c r="C52" s="1">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>109</v>
@@ -5858,7 +5903,7 @@
     </row>
     <row r="53" customHeight="1" spans="3:20">
       <c r="C53" s="1">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>110</v>
@@ -5915,7 +5960,7 @@
     </row>
     <row r="54" customHeight="1" spans="3:20">
       <c r="C54" s="1">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>111</v>
@@ -5972,7 +6017,7 @@
     </row>
     <row r="55" customHeight="1" spans="3:20">
       <c r="C55" s="1">
-        <v>93</v>
+        <v>203</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>112</v>
@@ -6029,7 +6074,7 @@
     </row>
     <row r="56" customHeight="1" spans="3:20">
       <c r="C56" s="1">
-        <v>94</v>
+        <v>204</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>113</v>
@@ -6086,7 +6131,7 @@
     </row>
     <row r="57" customHeight="1" spans="3:20">
       <c r="C57" s="1">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>114</v>
@@ -6143,7 +6188,7 @@
     </row>
     <row r="58" customHeight="1" spans="3:20">
       <c r="C58" s="1">
-        <v>101</v>
+        <v>211</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>115</v>
@@ -6200,7 +6245,7 @@
     </row>
     <row r="59" customHeight="1" spans="3:20">
       <c r="C59" s="1">
-        <v>102</v>
+        <v>212</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>116</v>
@@ -6257,7 +6302,7 @@
     </row>
     <row r="60" customHeight="1" spans="3:20">
       <c r="C60" s="1">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>117</v>
@@ -6314,7 +6359,7 @@
     </row>
     <row r="61" customHeight="1" spans="3:20">
       <c r="C61" s="1">
-        <v>104</v>
+        <v>214</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>118</v>
@@ -6371,7 +6416,7 @@
     </row>
     <row r="62" customHeight="1" spans="3:20">
       <c r="C62" s="1">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>119</v>
@@ -6391,7 +6436,7 @@
       <c r="I62" s="6">
         <v>0</v>
       </c>
-      <c r="J62" s="1">
+      <c r="J62" s="6">
         <v>0</v>
       </c>
       <c r="K62" s="1">
@@ -6428,7 +6473,7 @@
     </row>
     <row r="63" customHeight="1" spans="3:20">
       <c r="C63" s="1">
-        <v>120</v>
+        <v>221</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>120</v>
@@ -6449,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="1">
         <v>9999</v>
@@ -6461,7 +6506,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N63" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N63:N108" si="3">(M63-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O63" s="8">
@@ -6485,7 +6530,7 @@
     </row>
     <row r="64" customHeight="1" spans="3:20">
       <c r="C64" s="1">
-        <v>121</v>
+        <v>222</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>121</v>
@@ -6506,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K64" s="1">
         <v>9999</v>
@@ -6518,7 +6563,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N64" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O64" s="8">
@@ -6542,7 +6587,7 @@
     </row>
     <row r="65" customHeight="1" spans="3:20">
       <c r="C65" s="1">
-        <v>122</v>
+        <v>223</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>122</v>
@@ -6563,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K65" s="1">
         <v>9999</v>
@@ -6575,7 +6620,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N65" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O65" s="8">
@@ -6599,7 +6644,7 @@
     </row>
     <row r="66" customHeight="1" spans="3:20">
       <c r="C66" s="1">
-        <v>123</v>
+        <v>224</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>123</v>
@@ -6620,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K66" s="1">
         <v>9999</v>
@@ -6632,7 +6677,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N66" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O66" s="8">
@@ -6656,7 +6701,7 @@
     </row>
     <row r="67" customHeight="1" spans="3:20">
       <c r="C67" s="1">
-        <v>124</v>
+        <v>240</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>124</v>
@@ -6677,7 +6722,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K67" s="1">
         <v>9999</v>
@@ -6689,7 +6734,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N67" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O67" s="8">
@@ -6713,7 +6758,7 @@
     </row>
     <row r="68" customHeight="1" spans="3:20">
       <c r="C68" s="1">
-        <v>500</v>
+        <v>241</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>125</v>
@@ -6734,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="1">
         <v>9999</v>
@@ -6746,7 +6791,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N68" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O68" s="8">
@@ -6770,7 +6815,7 @@
     </row>
     <row r="69" customHeight="1" spans="3:20">
       <c r="C69" s="1">
-        <v>501</v>
+        <v>242</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>126</v>
@@ -6791,7 +6836,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K69" s="1">
         <v>9999</v>
@@ -6803,7 +6848,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N69" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O69" s="8">
@@ -6827,7 +6872,7 @@
     </row>
     <row r="70" customHeight="1" spans="3:20">
       <c r="C70" s="1">
-        <v>502</v>
+        <v>243</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>127</v>
@@ -6848,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K70" s="1">
         <v>9999</v>
@@ -6860,7 +6905,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N70" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O70" s="8">
@@ -6884,7 +6929,7 @@
     </row>
     <row r="71" customHeight="1" spans="3:20">
       <c r="C71" s="1">
-        <v>503</v>
+        <v>244</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>128</v>
@@ -6905,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K71" s="1">
         <v>9999</v>
@@ -6917,7 +6962,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N71" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O71" s="8">
@@ -6941,7 +6986,7 @@
     </row>
     <row r="72" customHeight="1" spans="3:20">
       <c r="C72" s="1">
-        <v>504</v>
+        <v>250</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>129</v>
@@ -6962,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K72" s="1">
         <v>9999</v>
@@ -6974,7 +7019,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N72" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O72" s="8">
@@ -6998,7 +7043,7 @@
     </row>
     <row r="73" customHeight="1" spans="3:20">
       <c r="C73" s="1">
-        <v>600</v>
+        <v>251</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>130</v>
@@ -7018,8 +7063,8 @@
       <c r="I73" s="6">
         <v>0</v>
       </c>
-      <c r="J73" s="1">
-        <v>0</v>
+      <c r="J73" s="6">
+        <v>1</v>
       </c>
       <c r="K73" s="1">
         <v>9999</v>
@@ -7031,7 +7076,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N73" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O73" s="8">
@@ -7055,7 +7100,7 @@
     </row>
     <row r="74" customHeight="1" spans="3:20">
       <c r="C74" s="1">
-        <v>601</v>
+        <v>252</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>131</v>
@@ -7075,8 +7120,8 @@
       <c r="I74" s="6">
         <v>0</v>
       </c>
-      <c r="J74" s="1">
-        <v>1</v>
+      <c r="J74" s="6">
+        <v>2</v>
       </c>
       <c r="K74" s="1">
         <v>9999</v>
@@ -7088,7 +7133,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N74" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O74" s="8">
@@ -7112,7 +7157,7 @@
     </row>
     <row r="75" customHeight="1" spans="3:20">
       <c r="C75" s="1">
-        <v>602</v>
+        <v>253</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>132</v>
@@ -7132,8 +7177,8 @@
       <c r="I75" s="6">
         <v>0</v>
       </c>
-      <c r="J75" s="1">
-        <v>2</v>
+      <c r="J75" s="6">
+        <v>3</v>
       </c>
       <c r="K75" s="1">
         <v>9999</v>
@@ -7145,7 +7190,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N75" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O75" s="8">
@@ -7169,7 +7214,7 @@
     </row>
     <row r="76" customHeight="1" spans="3:20">
       <c r="C76" s="1">
-        <v>700</v>
+        <v>254</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>133</v>
@@ -7190,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K76" s="1">
         <v>9999</v>
@@ -7202,7 +7247,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N76" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O76" s="8">
@@ -7226,7 +7271,7 @@
     </row>
     <row r="77" customHeight="1" spans="3:20">
       <c r="C77" s="1">
-        <v>701</v>
+        <v>260</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>134</v>
@@ -7246,8 +7291,8 @@
       <c r="I77" s="6">
         <v>0</v>
       </c>
-      <c r="J77" s="6">
-        <v>1</v>
+      <c r="J77" s="1">
+        <v>0</v>
       </c>
       <c r="K77" s="1">
         <v>9999</v>
@@ -7259,7 +7304,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N77" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O77" s="8">
@@ -7283,7 +7328,7 @@
     </row>
     <row r="78" customHeight="1" spans="3:20">
       <c r="C78" s="1">
-        <v>702</v>
+        <v>270</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>135</v>
@@ -7304,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K78" s="1">
         <v>9999</v>
@@ -7316,7 +7361,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N78" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O78" s="8">
@@ -7340,7 +7385,7 @@
     </row>
     <row r="79" customHeight="1" spans="3:20">
       <c r="C79" s="1">
-        <v>703</v>
+        <v>271</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>136</v>
@@ -7361,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K79" s="1">
         <v>9999</v>
@@ -7373,7 +7418,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N79" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O79" s="8">
@@ -7397,7 +7442,7 @@
     </row>
     <row r="80" customHeight="1" spans="3:20">
       <c r="C80" s="1">
-        <v>704</v>
+        <v>272</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>137</v>
@@ -7418,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K80" s="1">
         <v>9999</v>
@@ -7430,7 +7475,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N80" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O80" s="8">
@@ -7454,7 +7499,7 @@
     </row>
     <row r="81" customHeight="1" spans="3:20">
       <c r="C81" s="1">
-        <v>800</v>
+        <v>273</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>138</v>
@@ -7468,15 +7513,15 @@
       <c r="G81" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H81" s="1">
+      <c r="H81" s="6">
+        <v>0</v>
+      </c>
+      <c r="I81" s="6">
+        <v>0</v>
+      </c>
+      <c r="J81" s="6">
         <v>3</v>
       </c>
-      <c r="I81" s="6">
-        <v>0</v>
-      </c>
-      <c r="J81" s="1">
-        <v>0</v>
-      </c>
       <c r="K81" s="1">
         <v>9999</v>
       </c>
@@ -7487,7 +7532,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N81" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O81" s="8">
@@ -7511,7 +7556,7 @@
     </row>
     <row r="82" customHeight="1" spans="3:20">
       <c r="C82" s="1">
-        <v>801</v>
+        <v>274</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>139</v>
@@ -7525,14 +7570,14 @@
       <c r="G82" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H82" s="1">
-        <v>3</v>
+      <c r="H82" s="6">
+        <v>0</v>
       </c>
       <c r="I82" s="6">
         <v>0</v>
       </c>
-      <c r="J82" s="1">
-        <v>1</v>
+      <c r="J82" s="6">
+        <v>4</v>
       </c>
       <c r="K82" s="1">
         <v>9999</v>
@@ -7544,7 +7589,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N82" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O82" s="8">
@@ -7568,7 +7613,7 @@
     </row>
     <row r="83" customHeight="1" spans="3:20">
       <c r="C83" s="1">
-        <v>802</v>
+        <v>500</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>140</v>
@@ -7582,14 +7627,14 @@
       <c r="G83" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H83" s="1">
-        <v>3</v>
+      <c r="H83" s="6">
+        <v>0</v>
       </c>
       <c r="I83" s="6">
         <v>0</v>
       </c>
-      <c r="J83" s="1">
-        <v>2</v>
+      <c r="J83" s="6">
+        <v>0</v>
       </c>
       <c r="K83" s="1">
         <v>9999</v>
@@ -7601,7 +7646,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N83" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O83" s="8">
@@ -7625,13 +7670,13 @@
     </row>
     <row r="84" customHeight="1" spans="3:20">
       <c r="C84" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D84" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>57</v>
@@ -7639,14 +7684,14 @@
       <c r="G84" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H84" s="1">
-        <v>1</v>
+      <c r="H84" s="6">
+        <v>0</v>
       </c>
       <c r="I84" s="6">
         <v>0</v>
       </c>
       <c r="J84" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" s="1">
         <v>9999</v>
@@ -7658,7 +7703,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N84" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O84" s="8">
@@ -7682,13 +7727,13 @@
     </row>
     <row r="85" customHeight="1" spans="3:20">
       <c r="C85" s="1">
-        <v>1001</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>143</v>
+        <v>502</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>57</v>
@@ -7696,14 +7741,14 @@
       <c r="G85" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H85" s="1">
-        <v>1</v>
+      <c r="H85" s="6">
+        <v>0</v>
       </c>
       <c r="I85" s="6">
         <v>0</v>
       </c>
       <c r="J85" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K85" s="1">
         <v>9999</v>
@@ -7715,7 +7760,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N85" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O85" s="8">
@@ -7739,13 +7784,13 @@
     </row>
     <row r="86" customHeight="1" spans="3:20">
       <c r="C86" s="1">
-        <v>1002</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>145</v>
+        <v>503</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>57</v>
@@ -7753,14 +7798,14 @@
       <c r="G86" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H86" s="1">
-        <v>1</v>
+      <c r="H86" s="6">
+        <v>0</v>
       </c>
       <c r="I86" s="6">
         <v>0</v>
       </c>
       <c r="J86" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K86" s="1">
         <v>9999</v>
@@ -7772,7 +7817,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N86" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O86" s="8">
@@ -7796,13 +7841,13 @@
     </row>
     <row r="87" customHeight="1" spans="3:20">
       <c r="C87" s="1">
-        <v>1003</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>147</v>
+        <v>504</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>57</v>
@@ -7810,14 +7855,14 @@
       <c r="G87" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H87" s="1">
-        <v>1</v>
+      <c r="H87" s="6">
+        <v>0</v>
       </c>
       <c r="I87" s="6">
         <v>0</v>
       </c>
       <c r="J87" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K87" s="1">
         <v>9999</v>
@@ -7829,7 +7874,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N87" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O87" s="8">
@@ -7853,13 +7898,13 @@
     </row>
     <row r="88" customHeight="1" spans="3:20">
       <c r="C88" s="1">
-        <v>1004</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>149</v>
+        <v>600</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>57</v>
@@ -7867,14 +7912,14 @@
       <c r="G88" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H88" s="1">
-        <v>1</v>
+      <c r="H88" s="6">
+        <v>0</v>
       </c>
       <c r="I88" s="6">
         <v>0</v>
       </c>
-      <c r="J88" s="6">
-        <v>4</v>
+      <c r="J88" s="1">
+        <v>0</v>
       </c>
       <c r="K88" s="1">
         <v>9999</v>
@@ -7886,7 +7931,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N88" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O88" s="8">
@@ -7910,13 +7955,13 @@
     </row>
     <row r="89" customHeight="1" spans="3:20">
       <c r="C89" s="1">
-        <v>1005</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>151</v>
+        <v>601</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>57</v>
@@ -7924,14 +7969,14 @@
       <c r="G89" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H89" s="1">
-        <v>1</v>
+      <c r="H89" s="6">
+        <v>0</v>
       </c>
       <c r="I89" s="6">
         <v>0</v>
       </c>
-      <c r="J89" s="6">
-        <v>4</v>
+      <c r="J89" s="1">
+        <v>1</v>
       </c>
       <c r="K89" s="1">
         <v>9999</v>
@@ -7943,7 +7988,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N89" s="8">
-        <f t="shared" ref="N89:N120" si="3">(M89-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O89" s="8">
@@ -7967,13 +8012,13 @@
     </row>
     <row r="90" customHeight="1" spans="3:20">
       <c r="C90" s="1">
-        <v>1006</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>153</v>
+        <v>602</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>57</v>
@@ -7981,14 +8026,14 @@
       <c r="G90" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H90" s="1">
-        <v>1</v>
+      <c r="H90" s="6">
+        <v>0</v>
       </c>
       <c r="I90" s="6">
         <v>0</v>
       </c>
-      <c r="J90" s="6">
-        <v>4</v>
+      <c r="J90" s="1">
+        <v>2</v>
       </c>
       <c r="K90" s="1">
         <v>9999</v>
@@ -8024,13 +8069,13 @@
     </row>
     <row r="91" customHeight="1" spans="3:20">
       <c r="C91" s="1">
-        <v>1007</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>155</v>
+        <v>700</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>57</v>
@@ -8038,14 +8083,14 @@
       <c r="G91" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H91" s="1">
-        <v>1</v>
+      <c r="H91" s="6">
+        <v>0</v>
       </c>
       <c r="I91" s="6">
         <v>0</v>
       </c>
       <c r="J91" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K91" s="1">
         <v>9999</v>
@@ -8081,13 +8126,13 @@
     </row>
     <row r="92" customHeight="1" spans="3:20">
       <c r="C92" s="1">
-        <v>1008</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>157</v>
+        <v>701</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>57</v>
@@ -8095,14 +8140,14 @@
       <c r="G92" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H92" s="1">
-        <v>1</v>
+      <c r="H92" s="6">
+        <v>0</v>
       </c>
       <c r="I92" s="6">
         <v>0</v>
       </c>
       <c r="J92" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K92" s="1">
         <v>9999</v>
@@ -8138,13 +8183,13 @@
     </row>
     <row r="93" customHeight="1" spans="3:20">
       <c r="C93" s="1">
-        <v>1009</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>159</v>
+        <v>702</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>57</v>
@@ -8152,14 +8197,14 @@
       <c r="G93" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H93" s="1">
-        <v>1</v>
+      <c r="H93" s="6">
+        <v>0</v>
       </c>
       <c r="I93" s="6">
         <v>0</v>
       </c>
       <c r="J93" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K93" s="1">
         <v>9999</v>
@@ -8195,13 +8240,13 @@
     </row>
     <row r="94" customHeight="1" spans="3:20">
       <c r="C94" s="1">
-        <v>1010</v>
+        <v>703</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>57</v>
@@ -8209,14 +8254,14 @@
       <c r="G94" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H94" s="1">
-        <v>1</v>
+      <c r="H94" s="6">
+        <v>0</v>
       </c>
       <c r="I94" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K94" s="1">
         <v>9999</v>
@@ -8252,13 +8297,13 @@
     </row>
     <row r="95" customHeight="1" spans="3:20">
       <c r="C95" s="1">
-        <v>1011</v>
+        <v>704</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>57</v>
@@ -8266,11 +8311,11 @@
       <c r="G95" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H95" s="1">
-        <v>1</v>
+      <c r="H95" s="6">
+        <v>0</v>
       </c>
       <c r="I95" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" s="6">
         <v>4</v>
@@ -8309,13 +8354,13 @@
     </row>
     <row r="96" customHeight="1" spans="3:20">
       <c r="C96" s="1">
-        <v>1012</v>
+        <v>800</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>57</v>
@@ -8324,13 +8369,13 @@
         <v>60</v>
       </c>
       <c r="H96" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I96" s="6">
-        <v>1</v>
-      </c>
-      <c r="J96" s="6">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0</v>
       </c>
       <c r="K96" s="1">
         <v>9999</v>
@@ -8366,13 +8411,13 @@
     </row>
     <row r="97" customHeight="1" spans="3:20">
       <c r="C97" s="1">
-        <v>1013</v>
+        <v>801</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>57</v>
@@ -8381,13 +8426,13 @@
         <v>60</v>
       </c>
       <c r="H97" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I97" s="6">
-        <v>1</v>
-      </c>
-      <c r="J97" s="6">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="J97" s="1">
+        <v>1</v>
       </c>
       <c r="K97" s="1">
         <v>9999</v>
@@ -8423,13 +8468,13 @@
     </row>
     <row r="98" customHeight="1" spans="3:20">
       <c r="C98" s="1">
-        <v>1014</v>
+        <v>802</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>57</v>
@@ -8438,13 +8483,13 @@
         <v>60</v>
       </c>
       <c r="H98" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I98" s="6">
-        <v>1</v>
-      </c>
-      <c r="J98" s="6">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="J98" s="1">
+        <v>2</v>
       </c>
       <c r="K98" s="1">
         <v>9999</v>
@@ -8480,13 +8525,13 @@
     </row>
     <row r="99" customHeight="1" spans="3:20">
       <c r="C99" s="1">
-        <v>1015</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>171</v>
+        <v>1000</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>57</v>
@@ -8498,10 +8543,10 @@
         <v>1</v>
       </c>
       <c r="I99" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K99" s="1">
         <v>9999</v>
@@ -8537,13 +8582,13 @@
     </row>
     <row r="100" customHeight="1" spans="3:20">
       <c r="C100" s="1">
-        <v>1016</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>173</v>
+        <v>1001</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>57</v>
@@ -8555,10 +8600,10 @@
         <v>1</v>
       </c>
       <c r="I100" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K100" s="1">
         <v>9999</v>
@@ -8594,13 +8639,13 @@
     </row>
     <row r="101" customHeight="1" spans="3:20">
       <c r="C101" s="1">
-        <v>1017</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>175</v>
+        <v>1002</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>57</v>
@@ -8612,10 +8657,10 @@
         <v>1</v>
       </c>
       <c r="I101" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K101" s="1">
         <v>9999</v>
@@ -8651,13 +8696,13 @@
     </row>
     <row r="102" customHeight="1" spans="3:20">
       <c r="C102" s="1">
-        <v>1018</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>177</v>
+        <v>1003</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>57</v>
@@ -8669,10 +8714,10 @@
         <v>1</v>
       </c>
       <c r="I102" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K102" s="1">
         <v>9999</v>
@@ -8708,13 +8753,13 @@
     </row>
     <row r="103" customHeight="1" spans="3:20">
       <c r="C103" s="1">
-        <v>1019</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>179</v>
+        <v>1004</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>57</v>
@@ -8726,7 +8771,7 @@
         <v>1</v>
       </c>
       <c r="I103" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" s="6">
         <v>4</v>
@@ -8765,13 +8810,13 @@
     </row>
     <row r="104" customHeight="1" spans="3:20">
       <c r="C104" s="1">
-        <v>1020</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>181</v>
+        <v>1005</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>57</v>
@@ -8783,7 +8828,7 @@
         <v>1</v>
       </c>
       <c r="I104" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" s="6">
         <v>4</v>
@@ -8798,7 +8843,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N104" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="N104:N135" si="4">(M104-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O104" s="8">
@@ -8822,13 +8867,13 @@
     </row>
     <row r="105" customHeight="1" spans="3:20">
       <c r="C105" s="1">
-        <v>1021</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>183</v>
+        <v>1006</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>57</v>
@@ -8840,7 +8885,7 @@
         <v>1</v>
       </c>
       <c r="I105" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" s="6">
         <v>4</v>
@@ -8855,7 +8900,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N105" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O105" s="8">
@@ -8879,13 +8924,13 @@
     </row>
     <row r="106" customHeight="1" spans="3:20">
       <c r="C106" s="1">
-        <v>1022</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>185</v>
+        <v>1007</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>57</v>
@@ -8897,7 +8942,7 @@
         <v>1</v>
       </c>
       <c r="I106" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" s="6">
         <v>4</v>
@@ -8912,7 +8957,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N106" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O106" s="8">
@@ -8936,13 +8981,13 @@
     </row>
     <row r="107" customHeight="1" spans="3:20">
       <c r="C107" s="1">
-        <v>1023</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>187</v>
+        <v>1008</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>57</v>
@@ -8954,7 +8999,7 @@
         <v>1</v>
       </c>
       <c r="I107" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J107" s="6">
         <v>4</v>
@@ -8969,7 +9014,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N107" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O107" s="8">
@@ -8993,13 +9038,13 @@
     </row>
     <row r="108" customHeight="1" spans="3:20">
       <c r="C108" s="1">
-        <v>1024</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>189</v>
+        <v>1009</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>57</v>
@@ -9011,7 +9056,7 @@
         <v>1</v>
       </c>
       <c r="I108" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108" s="6">
         <v>4</v>
@@ -9026,7 +9071,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N108" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O108" s="8">
@@ -9050,13 +9095,13 @@
     </row>
     <row r="109" customHeight="1" spans="3:20">
       <c r="C109" s="1">
-        <v>1025</v>
+        <v>1010</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>57</v>
@@ -9068,7 +9113,7 @@
         <v>1</v>
       </c>
       <c r="I109" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J109" s="6">
         <v>4</v>
@@ -9083,7 +9128,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N109" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O109" s="8">
@@ -9107,13 +9152,13 @@
     </row>
     <row r="110" customHeight="1" spans="3:20">
       <c r="C110" s="1">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>57</v>
@@ -9125,7 +9170,7 @@
         <v>1</v>
       </c>
       <c r="I110" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J110" s="6">
         <v>4</v>
@@ -9140,7 +9185,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N110" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O110" s="8">
@@ -9164,13 +9209,13 @@
     </row>
     <row r="111" customHeight="1" spans="3:20">
       <c r="C111" s="1">
-        <v>1027</v>
+        <v>1012</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>57</v>
@@ -9182,7 +9227,7 @@
         <v>1</v>
       </c>
       <c r="I111" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111" s="6">
         <v>4</v>
@@ -9197,7 +9242,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N111" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O111" s="8">
@@ -9221,13 +9266,13 @@
     </row>
     <row r="112" customHeight="1" spans="3:20">
       <c r="C112" s="1">
-        <v>1028</v>
+        <v>1013</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>57</v>
@@ -9239,7 +9284,7 @@
         <v>1</v>
       </c>
       <c r="I112" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" s="6">
         <v>4</v>
@@ -9254,7 +9299,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N112" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O112" s="8">
@@ -9278,13 +9323,13 @@
     </row>
     <row r="113" customHeight="1" spans="3:20">
       <c r="C113" s="1">
-        <v>1029</v>
+        <v>1014</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>57</v>
@@ -9296,7 +9341,7 @@
         <v>1</v>
       </c>
       <c r="I113" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J113" s="6">
         <v>4</v>
@@ -9311,7 +9356,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N113" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O113" s="8">
@@ -9335,13 +9380,13 @@
     </row>
     <row r="114" customHeight="1" spans="3:20">
       <c r="C114" s="1">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>57</v>
@@ -9353,7 +9398,7 @@
         <v>1</v>
       </c>
       <c r="I114" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J114" s="6">
         <v>4</v>
@@ -9368,7 +9413,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N114" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O114" s="8">
@@ -9392,13 +9437,13 @@
     </row>
     <row r="115" customHeight="1" spans="3:20">
       <c r="C115" s="1">
-        <v>1031</v>
+        <v>1016</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>57</v>
@@ -9410,7 +9455,7 @@
         <v>1</v>
       </c>
       <c r="I115" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J115" s="6">
         <v>4</v>
@@ -9425,7 +9470,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N115" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O115" s="8">
@@ -9449,13 +9494,13 @@
     </row>
     <row r="116" customHeight="1" spans="3:20">
       <c r="C116" s="1">
-        <v>1032</v>
+        <v>1017</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>57</v>
@@ -9467,7 +9512,7 @@
         <v>1</v>
       </c>
       <c r="I116" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J116" s="6">
         <v>4</v>
@@ -9482,7 +9527,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N116" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O116" s="8">
@@ -9506,13 +9551,13 @@
     </row>
     <row r="117" customHeight="1" spans="3:20">
       <c r="C117" s="1">
-        <v>1033</v>
+        <v>1018</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>57</v>
@@ -9524,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="I117" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J117" s="6">
         <v>4</v>
@@ -9539,7 +9584,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N117" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O117" s="8">
@@ -9563,13 +9608,13 @@
     </row>
     <row r="118" customHeight="1" spans="3:20">
       <c r="C118" s="1">
-        <v>1034</v>
+        <v>1019</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>57</v>
@@ -9581,7 +9626,7 @@
         <v>1</v>
       </c>
       <c r="I118" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J118" s="6">
         <v>4</v>
@@ -9596,7 +9641,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N118" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O118" s="8">
@@ -9620,13 +9665,13 @@
     </row>
     <row r="119" customHeight="1" spans="3:20">
       <c r="C119" s="1">
-        <v>1035</v>
+        <v>1020</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>57</v>
@@ -9638,7 +9683,7 @@
         <v>1</v>
       </c>
       <c r="I119" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J119" s="6">
         <v>4</v>
@@ -9653,7 +9698,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N119" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O119" s="8">
@@ -9677,13 +9722,13 @@
     </row>
     <row r="120" customHeight="1" spans="3:20">
       <c r="C120" s="1">
-        <v>1036</v>
+        <v>1021</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>57</v>
@@ -9695,7 +9740,7 @@
         <v>1</v>
       </c>
       <c r="I120" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J120" s="6">
         <v>4</v>
@@ -9710,7 +9755,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N120" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O120" s="8">
@@ -9734,13 +9779,13 @@
     </row>
     <row r="121" customHeight="1" spans="3:20">
       <c r="C121" s="1">
-        <v>1037</v>
+        <v>1022</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>57</v>
@@ -9752,7 +9797,7 @@
         <v>1</v>
       </c>
       <c r="I121" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J121" s="6">
         <v>4</v>
@@ -9767,7 +9812,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N121" s="8">
-        <f t="shared" ref="N121:N152" si="4">(M121-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O121" s="8">
@@ -9791,13 +9836,13 @@
     </row>
     <row r="122" customHeight="1" spans="3:20">
       <c r="C122" s="1">
-        <v>1038</v>
+        <v>1023</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>57</v>
@@ -9809,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="I122" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J122" s="6">
         <v>4</v>
@@ -9848,13 +9893,13 @@
     </row>
     <row r="123" customHeight="1" spans="3:20">
       <c r="C123" s="1">
-        <v>1039</v>
+        <v>1024</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>57</v>
@@ -9866,7 +9911,7 @@
         <v>1</v>
       </c>
       <c r="I123" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J123" s="6">
         <v>4</v>
@@ -9905,13 +9950,13 @@
     </row>
     <row r="124" customHeight="1" spans="3:20">
       <c r="C124" s="1">
-        <v>1040</v>
+        <v>1025</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>57</v>
@@ -9923,7 +9968,7 @@
         <v>1</v>
       </c>
       <c r="I124" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J124" s="6">
         <v>4</v>
@@ -9962,13 +10007,13 @@
     </row>
     <row r="125" customHeight="1" spans="3:20">
       <c r="C125" s="1">
-        <v>1041</v>
+        <v>1026</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>57</v>
@@ -9980,7 +10025,7 @@
         <v>1</v>
       </c>
       <c r="I125" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J125" s="6">
         <v>4</v>
@@ -10019,13 +10064,13 @@
     </row>
     <row r="126" customHeight="1" spans="3:20">
       <c r="C126" s="1">
-        <v>1042</v>
+        <v>1027</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>57</v>
@@ -10037,7 +10082,7 @@
         <v>1</v>
       </c>
       <c r="I126" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J126" s="6">
         <v>4</v>
@@ -10076,13 +10121,13 @@
     </row>
     <row r="127" customHeight="1" spans="3:20">
       <c r="C127" s="1">
-        <v>1043</v>
+        <v>1028</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>57</v>
@@ -10094,7 +10139,7 @@
         <v>1</v>
       </c>
       <c r="I127" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J127" s="6">
         <v>4</v>
@@ -10133,13 +10178,13 @@
     </row>
     <row r="128" customHeight="1" spans="3:20">
       <c r="C128" s="1">
-        <v>1044</v>
+        <v>1029</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>57</v>
@@ -10151,7 +10196,7 @@
         <v>1</v>
       </c>
       <c r="I128" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J128" s="6">
         <v>4</v>
@@ -10190,13 +10235,13 @@
     </row>
     <row r="129" customHeight="1" spans="3:20">
       <c r="C129" s="1">
-        <v>1045</v>
+        <v>1030</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>57</v>
@@ -10208,7 +10253,7 @@
         <v>1</v>
       </c>
       <c r="I129" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J129" s="6">
         <v>4</v>
@@ -10247,13 +10292,13 @@
     </row>
     <row r="130" customHeight="1" spans="3:20">
       <c r="C130" s="1">
-        <v>1046</v>
+        <v>1031</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>57</v>
@@ -10265,7 +10310,7 @@
         <v>1</v>
       </c>
       <c r="I130" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J130" s="6">
         <v>4</v>
@@ -10304,13 +10349,13 @@
     </row>
     <row r="131" customHeight="1" spans="3:20">
       <c r="C131" s="1">
-        <v>1047</v>
+        <v>1032</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>57</v>
@@ -10322,7 +10367,7 @@
         <v>1</v>
       </c>
       <c r="I131" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J131" s="6">
         <v>4</v>
@@ -10361,13 +10406,13 @@
     </row>
     <row r="132" customHeight="1" spans="3:20">
       <c r="C132" s="1">
-        <v>1048</v>
+        <v>1033</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>57</v>
@@ -10379,7 +10424,7 @@
         <v>1</v>
       </c>
       <c r="I132" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J132" s="6">
         <v>4</v>
@@ -10418,13 +10463,13 @@
     </row>
     <row r="133" customHeight="1" spans="3:20">
       <c r="C133" s="1">
-        <v>1049</v>
+        <v>1034</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>57</v>
@@ -10436,7 +10481,7 @@
         <v>1</v>
       </c>
       <c r="I133" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J133" s="6">
         <v>4</v>
@@ -10475,13 +10520,13 @@
     </row>
     <row r="134" customHeight="1" spans="3:20">
       <c r="C134" s="1">
-        <v>1050</v>
+        <v>1035</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>57</v>
@@ -10493,7 +10538,7 @@
         <v>1</v>
       </c>
       <c r="I134" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J134" s="6">
         <v>4</v>
@@ -10532,13 +10577,13 @@
     </row>
     <row r="135" customHeight="1" spans="3:20">
       <c r="C135" s="1">
-        <v>1051</v>
+        <v>1036</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>57</v>
@@ -10550,7 +10595,7 @@
         <v>1</v>
       </c>
       <c r="I135" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J135" s="6">
         <v>4</v>
@@ -10589,13 +10634,13 @@
     </row>
     <row r="136" customHeight="1" spans="3:20">
       <c r="C136" s="1">
-        <v>1052</v>
+        <v>1037</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>57</v>
@@ -10607,7 +10652,7 @@
         <v>1</v>
       </c>
       <c r="I136" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J136" s="6">
         <v>4</v>
@@ -10622,7 +10667,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N136" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="N136:N167" si="5">(M136-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O136" s="8">
@@ -10646,13 +10691,13 @@
     </row>
     <row r="137" customHeight="1" spans="3:20">
       <c r="C137" s="1">
-        <v>1053</v>
+        <v>1038</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>57</v>
@@ -10664,7 +10709,7 @@
         <v>1</v>
       </c>
       <c r="I137" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J137" s="6">
         <v>4</v>
@@ -10679,7 +10724,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N137" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O137" s="8">
@@ -10703,13 +10748,13 @@
     </row>
     <row r="138" customHeight="1" spans="3:20">
       <c r="C138" s="1">
-        <v>1054</v>
+        <v>1039</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>57</v>
@@ -10721,7 +10766,7 @@
         <v>1</v>
       </c>
       <c r="I138" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J138" s="6">
         <v>4</v>
@@ -10736,7 +10781,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N138" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O138" s="8">
@@ -10760,13 +10805,13 @@
     </row>
     <row r="139" customHeight="1" spans="3:20">
       <c r="C139" s="1">
-        <v>1055</v>
+        <v>1040</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>57</v>
@@ -10778,7 +10823,7 @@
         <v>1</v>
       </c>
       <c r="I139" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J139" s="6">
         <v>4</v>
@@ -10793,7 +10838,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N139" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O139" s="8">
@@ -10817,13 +10862,13 @@
     </row>
     <row r="140" customHeight="1" spans="3:20">
       <c r="C140" s="1">
-        <v>1056</v>
+        <v>1041</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>57</v>
@@ -10835,7 +10880,7 @@
         <v>1</v>
       </c>
       <c r="I140" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J140" s="6">
         <v>4</v>
@@ -10850,7 +10895,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N140" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O140" s="8">
@@ -10874,13 +10919,13 @@
     </row>
     <row r="141" customHeight="1" spans="3:20">
       <c r="C141" s="1">
-        <v>1057</v>
+        <v>1042</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>57</v>
@@ -10892,7 +10937,7 @@
         <v>1</v>
       </c>
       <c r="I141" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J141" s="6">
         <v>4</v>
@@ -10907,7 +10952,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N141" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O141" s="8">
@@ -10931,13 +10976,13 @@
     </row>
     <row r="142" customHeight="1" spans="3:20">
       <c r="C142" s="1">
-        <v>1058</v>
+        <v>1043</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>57</v>
@@ -10949,7 +10994,7 @@
         <v>1</v>
       </c>
       <c r="I142" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J142" s="6">
         <v>4</v>
@@ -10964,7 +11009,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N142" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O142" s="8">
@@ -10988,13 +11033,13 @@
     </row>
     <row r="143" customHeight="1" spans="3:20">
       <c r="C143" s="1">
-        <v>1059</v>
+        <v>1044</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>57</v>
@@ -11006,7 +11051,7 @@
         <v>1</v>
       </c>
       <c r="I143" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J143" s="6">
         <v>4</v>
@@ -11021,7 +11066,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N143" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O143" s="8">
@@ -11045,13 +11090,13 @@
     </row>
     <row r="144" customHeight="1" spans="3:20">
       <c r="C144" s="1">
-        <v>1060</v>
+        <v>1045</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>57</v>
@@ -11063,7 +11108,7 @@
         <v>1</v>
       </c>
       <c r="I144" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J144" s="6">
         <v>4</v>
@@ -11078,7 +11123,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N144" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O144" s="8">
@@ -11102,13 +11147,13 @@
     </row>
     <row r="145" customHeight="1" spans="3:20">
       <c r="C145" s="1">
-        <v>1061</v>
+        <v>1046</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>57</v>
@@ -11120,7 +11165,7 @@
         <v>1</v>
       </c>
       <c r="I145" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J145" s="6">
         <v>4</v>
@@ -11135,7 +11180,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N145" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O145" s="8">
@@ -11159,13 +11204,13 @@
     </row>
     <row r="146" customHeight="1" spans="3:20">
       <c r="C146" s="1">
-        <v>1062</v>
+        <v>1047</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>57</v>
@@ -11177,7 +11222,7 @@
         <v>1</v>
       </c>
       <c r="I146" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J146" s="6">
         <v>4</v>
@@ -11192,7 +11237,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N146" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O146" s="8">
@@ -11216,13 +11261,13 @@
     </row>
     <row r="147" customHeight="1" spans="3:20">
       <c r="C147" s="1">
-        <v>1063</v>
+        <v>1048</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>57</v>
@@ -11234,7 +11279,7 @@
         <v>1</v>
       </c>
       <c r="I147" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J147" s="6">
         <v>4</v>
@@ -11249,7 +11294,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N147" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O147" s="8">
@@ -11273,13 +11318,13 @@
     </row>
     <row r="148" customHeight="1" spans="3:20">
       <c r="C148" s="1">
-        <v>1064</v>
+        <v>1049</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>57</v>
@@ -11291,7 +11336,7 @@
         <v>1</v>
       </c>
       <c r="I148" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J148" s="6">
         <v>4</v>
@@ -11306,7 +11351,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N148" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O148" s="8">
@@ -11330,13 +11375,13 @@
     </row>
     <row r="149" customHeight="1" spans="3:20">
       <c r="C149" s="1">
-        <v>1065</v>
+        <v>1050</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>57</v>
@@ -11348,7 +11393,7 @@
         <v>1</v>
       </c>
       <c r="I149" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J149" s="6">
         <v>4</v>
@@ -11363,7 +11408,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N149" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O149" s="8">
@@ -11387,13 +11432,13 @@
     </row>
     <row r="150" customHeight="1" spans="3:20">
       <c r="C150" s="1">
-        <v>1066</v>
+        <v>1051</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>57</v>
@@ -11405,7 +11450,7 @@
         <v>1</v>
       </c>
       <c r="I150" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J150" s="6">
         <v>4</v>
@@ -11420,7 +11465,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N150" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O150" s="8">
@@ -11444,13 +11489,13 @@
     </row>
     <row r="151" customHeight="1" spans="3:20">
       <c r="C151" s="1">
-        <v>1067</v>
+        <v>1052</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>57</v>
@@ -11462,7 +11507,7 @@
         <v>1</v>
       </c>
       <c r="I151" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J151" s="6">
         <v>4</v>
@@ -11477,7 +11522,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N151" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O151" s="8">
@@ -11501,13 +11546,13 @@
     </row>
     <row r="152" customHeight="1" spans="3:20">
       <c r="C152" s="1">
-        <v>1068</v>
+        <v>1053</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>57</v>
@@ -11519,7 +11564,7 @@
         <v>1</v>
       </c>
       <c r="I152" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J152" s="6">
         <v>4</v>
@@ -11534,7 +11579,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N152" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O152" s="8">
@@ -11558,13 +11603,13 @@
     </row>
     <row r="153" customHeight="1" spans="3:20">
       <c r="C153" s="1">
-        <v>1069</v>
+        <v>1054</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>57</v>
@@ -11576,7 +11621,7 @@
         <v>1</v>
       </c>
       <c r="I153" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J153" s="6">
         <v>4</v>
@@ -11591,7 +11636,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N153" s="8">
-        <f t="shared" ref="N153:N178" si="5">(M153-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O153" s="8">
@@ -11615,13 +11660,13 @@
     </row>
     <row r="154" customHeight="1" spans="3:20">
       <c r="C154" s="1">
-        <v>1070</v>
+        <v>1055</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>57</v>
@@ -11633,7 +11678,7 @@
         <v>1</v>
       </c>
       <c r="I154" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J154" s="6">
         <v>4</v>
@@ -11672,13 +11717,13 @@
     </row>
     <row r="155" customHeight="1" spans="3:20">
       <c r="C155" s="1">
-        <v>1071</v>
+        <v>1056</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>57</v>
@@ -11690,7 +11735,7 @@
         <v>1</v>
       </c>
       <c r="I155" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J155" s="6">
         <v>4</v>
@@ -11729,13 +11774,13 @@
     </row>
     <row r="156" customHeight="1" spans="3:20">
       <c r="C156" s="1">
-        <v>1072</v>
+        <v>1057</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>57</v>
@@ -11747,7 +11792,7 @@
         <v>1</v>
       </c>
       <c r="I156" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J156" s="6">
         <v>4</v>
@@ -11786,13 +11831,13 @@
     </row>
     <row r="157" customHeight="1" spans="3:20">
       <c r="C157" s="1">
-        <v>1073</v>
+        <v>1058</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>57</v>
@@ -11804,7 +11849,7 @@
         <v>1</v>
       </c>
       <c r="I157" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J157" s="6">
         <v>4</v>
@@ -11843,13 +11888,13 @@
     </row>
     <row r="158" customHeight="1" spans="3:20">
       <c r="C158" s="1">
-        <v>1074</v>
+        <v>1059</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>57</v>
@@ -11861,7 +11906,7 @@
         <v>1</v>
       </c>
       <c r="I158" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J158" s="6">
         <v>4</v>
@@ -11900,13 +11945,13 @@
     </row>
     <row r="159" customHeight="1" spans="3:20">
       <c r="C159" s="1">
-        <v>1075</v>
+        <v>1060</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>57</v>
@@ -11957,13 +12002,13 @@
     </row>
     <row r="160" customHeight="1" spans="3:20">
       <c r="C160" s="1">
-        <v>1076</v>
+        <v>1061</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>57</v>
@@ -12014,13 +12059,13 @@
     </row>
     <row r="161" customHeight="1" spans="3:20">
       <c r="C161" s="1">
-        <v>1077</v>
+        <v>1062</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>57</v>
@@ -12071,13 +12116,13 @@
     </row>
     <row r="162" customHeight="1" spans="3:20">
       <c r="C162" s="1">
-        <v>1078</v>
+        <v>1063</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>57</v>
@@ -12128,13 +12173,13 @@
     </row>
     <row r="163" customHeight="1" spans="3:20">
       <c r="C163" s="1">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>57</v>
@@ -12185,13 +12230,13 @@
     </row>
     <row r="164" customHeight="1" spans="3:20">
       <c r="C164" s="1">
-        <v>1080</v>
+        <v>1065</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>57</v>
@@ -12242,13 +12287,13 @@
     </row>
     <row r="165" customHeight="1" spans="3:20">
       <c r="C165" s="1">
-        <v>1081</v>
+        <v>1066</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>57</v>
@@ -12299,13 +12344,13 @@
     </row>
     <row r="166" customHeight="1" spans="3:20">
       <c r="C166" s="1">
-        <v>1082</v>
+        <v>1067</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>57</v>
@@ -12356,13 +12401,13 @@
     </row>
     <row r="167" customHeight="1" spans="3:20">
       <c r="C167" s="1">
-        <v>1083</v>
+        <v>1068</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>57</v>
@@ -12413,13 +12458,13 @@
     </row>
     <row r="168" customHeight="1" spans="3:20">
       <c r="C168" s="1">
-        <v>1084</v>
+        <v>1069</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>57</v>
@@ -12446,7 +12491,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N168" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="N168:N193" si="6">(M168-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O168" s="8">
@@ -12470,13 +12515,13 @@
     </row>
     <row r="169" customHeight="1" spans="3:20">
       <c r="C169" s="1">
-        <v>1085</v>
+        <v>1070</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>57</v>
@@ -12503,7 +12548,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N169" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O169" s="8">
@@ -12527,13 +12572,13 @@
     </row>
     <row r="170" customHeight="1" spans="3:20">
       <c r="C170" s="1">
-        <v>1086</v>
+        <v>1071</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>57</v>
@@ -12560,7 +12605,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N170" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O170" s="8">
@@ -12584,13 +12629,13 @@
     </row>
     <row r="171" customHeight="1" spans="3:20">
       <c r="C171" s="1">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>57</v>
@@ -12617,7 +12662,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N171" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O171" s="8">
@@ -12641,13 +12686,13 @@
     </row>
     <row r="172" customHeight="1" spans="3:20">
       <c r="C172" s="1">
-        <v>1088</v>
+        <v>1073</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>57</v>
@@ -12674,7 +12719,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N172" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O172" s="8">
@@ -12698,13 +12743,13 @@
     </row>
     <row r="173" customHeight="1" spans="3:20">
       <c r="C173" s="1">
-        <v>1089</v>
+        <v>1074</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>57</v>
@@ -12731,7 +12776,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N173" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O173" s="8">
@@ -12755,13 +12800,13 @@
     </row>
     <row r="174" customHeight="1" spans="3:20">
       <c r="C174" s="1">
-        <v>2000</v>
+        <v>1075</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>57</v>
@@ -12770,13 +12815,13 @@
         <v>60</v>
       </c>
       <c r="H174" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" s="6">
         <v>0</v>
       </c>
       <c r="J174" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K174" s="1">
         <v>9999</v>
@@ -12788,7 +12833,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N174" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O174" s="8">
@@ -12812,13 +12857,13 @@
     </row>
     <row r="175" customHeight="1" spans="3:20">
       <c r="C175" s="1">
-        <v>2001</v>
+        <v>1076</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>57</v>
@@ -12827,13 +12872,13 @@
         <v>60</v>
       </c>
       <c r="H175" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" s="6">
         <v>0</v>
       </c>
       <c r="J175" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K175" s="1">
         <v>9999</v>
@@ -12845,7 +12890,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N175" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O175" s="8">
@@ -12869,13 +12914,13 @@
     </row>
     <row r="176" customHeight="1" spans="3:20">
       <c r="C176" s="1">
-        <v>2002</v>
+        <v>1077</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>57</v>
@@ -12884,13 +12929,13 @@
         <v>60</v>
       </c>
       <c r="H176" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" s="6">
         <v>0</v>
       </c>
       <c r="J176" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K176" s="1">
         <v>9999</v>
@@ -12902,7 +12947,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N176" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O176" s="8">
@@ -12926,13 +12971,13 @@
     </row>
     <row r="177" customHeight="1" spans="3:20">
       <c r="C177" s="1">
-        <v>2003</v>
+        <v>1078</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>57</v>
@@ -12941,13 +12986,13 @@
         <v>60</v>
       </c>
       <c r="H177" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" s="6">
         <v>0</v>
       </c>
       <c r="J177" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K177" s="1">
         <v>9999</v>
@@ -12959,7 +13004,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N177" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O177" s="8">
@@ -12983,13 +13028,13 @@
     </row>
     <row r="178" customHeight="1" spans="3:20">
       <c r="C178" s="1">
-        <v>2004</v>
+        <v>1079</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>57</v>
@@ -12998,7 +13043,7 @@
         <v>60</v>
       </c>
       <c r="H178" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" s="6">
         <v>0</v>
@@ -13016,7 +13061,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N178" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O178" s="8">
@@ -13035,6 +13080,861 @@
         <v>-1</v>
       </c>
       <c r="T178" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="179" customHeight="1" spans="3:20">
+      <c r="C179" s="1">
+        <v>1080</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H179" s="1">
+        <v>1</v>
+      </c>
+      <c r="I179" s="6">
+        <v>0</v>
+      </c>
+      <c r="J179" s="6">
+        <v>4</v>
+      </c>
+      <c r="K179" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L179" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M179" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N179" s="8">
+        <f t="shared" si="6"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="O179" s="8">
+        <v>1</v>
+      </c>
+      <c r="P179" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q179" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R179" s="8">
+        <v>-1</v>
+      </c>
+      <c r="S179" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T179" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="180" customHeight="1" spans="3:20">
+      <c r="C180" s="1">
+        <v>1081</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H180" s="1">
+        <v>1</v>
+      </c>
+      <c r="I180" s="6">
+        <v>0</v>
+      </c>
+      <c r="J180" s="6">
+        <v>4</v>
+      </c>
+      <c r="K180" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L180" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M180" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N180" s="8">
+        <f t="shared" si="6"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="O180" s="8">
+        <v>1</v>
+      </c>
+      <c r="P180" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q180" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R180" s="8">
+        <v>-1</v>
+      </c>
+      <c r="S180" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T180" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="181" customHeight="1" spans="3:20">
+      <c r="C181" s="1">
+        <v>1082</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H181" s="1">
+        <v>1</v>
+      </c>
+      <c r="I181" s="6">
+        <v>0</v>
+      </c>
+      <c r="J181" s="6">
+        <v>4</v>
+      </c>
+      <c r="K181" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L181" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M181" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N181" s="8">
+        <f t="shared" si="6"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="O181" s="8">
+        <v>1</v>
+      </c>
+      <c r="P181" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q181" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R181" s="8">
+        <v>-1</v>
+      </c>
+      <c r="S181" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T181" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="182" customHeight="1" spans="3:20">
+      <c r="C182" s="1">
+        <v>1083</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H182" s="1">
+        <v>1</v>
+      </c>
+      <c r="I182" s="6">
+        <v>0</v>
+      </c>
+      <c r="J182" s="6">
+        <v>4</v>
+      </c>
+      <c r="K182" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L182" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M182" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N182" s="8">
+        <f t="shared" si="6"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="O182" s="8">
+        <v>1</v>
+      </c>
+      <c r="P182" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q182" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R182" s="8">
+        <v>-1</v>
+      </c>
+      <c r="S182" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T182" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="183" customHeight="1" spans="3:20">
+      <c r="C183" s="1">
+        <v>1084</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H183" s="1">
+        <v>1</v>
+      </c>
+      <c r="I183" s="6">
+        <v>0</v>
+      </c>
+      <c r="J183" s="6">
+        <v>4</v>
+      </c>
+      <c r="K183" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L183" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M183" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N183" s="8">
+        <f t="shared" si="6"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="O183" s="8">
+        <v>1</v>
+      </c>
+      <c r="P183" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q183" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R183" s="8">
+        <v>-1</v>
+      </c>
+      <c r="S183" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T183" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="184" customHeight="1" spans="3:20">
+      <c r="C184" s="1">
+        <v>1085</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H184" s="1">
+        <v>1</v>
+      </c>
+      <c r="I184" s="6">
+        <v>0</v>
+      </c>
+      <c r="J184" s="6">
+        <v>4</v>
+      </c>
+      <c r="K184" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L184" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M184" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N184" s="8">
+        <f t="shared" si="6"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="O184" s="8">
+        <v>1</v>
+      </c>
+      <c r="P184" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q184" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R184" s="8">
+        <v>-1</v>
+      </c>
+      <c r="S184" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T184" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="185" customHeight="1" spans="3:20">
+      <c r="C185" s="1">
+        <v>1086</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H185" s="1">
+        <v>1</v>
+      </c>
+      <c r="I185" s="6">
+        <v>0</v>
+      </c>
+      <c r="J185" s="6">
+        <v>4</v>
+      </c>
+      <c r="K185" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L185" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M185" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N185" s="8">
+        <f t="shared" si="6"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="O185" s="8">
+        <v>1</v>
+      </c>
+      <c r="P185" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q185" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R185" s="8">
+        <v>-1</v>
+      </c>
+      <c r="S185" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T185" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="186" customHeight="1" spans="3:20">
+      <c r="C186" s="1">
+        <v>1087</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H186" s="1">
+        <v>1</v>
+      </c>
+      <c r="I186" s="6">
+        <v>0</v>
+      </c>
+      <c r="J186" s="6">
+        <v>4</v>
+      </c>
+      <c r="K186" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L186" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M186" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N186" s="8">
+        <f t="shared" si="6"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="O186" s="8">
+        <v>1</v>
+      </c>
+      <c r="P186" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q186" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R186" s="8">
+        <v>-1</v>
+      </c>
+      <c r="S186" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T186" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="187" customHeight="1" spans="3:20">
+      <c r="C187" s="1">
+        <v>1088</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H187" s="1">
+        <v>1</v>
+      </c>
+      <c r="I187" s="6">
+        <v>0</v>
+      </c>
+      <c r="J187" s="6">
+        <v>4</v>
+      </c>
+      <c r="K187" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L187" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M187" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N187" s="8">
+        <f t="shared" si="6"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="O187" s="8">
+        <v>1</v>
+      </c>
+      <c r="P187" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q187" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R187" s="8">
+        <v>-1</v>
+      </c>
+      <c r="S187" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T187" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="188" customHeight="1" spans="3:20">
+      <c r="C188" s="1">
+        <v>1089</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H188" s="1">
+        <v>1</v>
+      </c>
+      <c r="I188" s="6">
+        <v>0</v>
+      </c>
+      <c r="J188" s="6">
+        <v>4</v>
+      </c>
+      <c r="K188" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L188" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M188" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N188" s="8">
+        <f t="shared" si="6"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="O188" s="8">
+        <v>1</v>
+      </c>
+      <c r="P188" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q188" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R188" s="8">
+        <v>-1</v>
+      </c>
+      <c r="S188" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T188" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="189" customHeight="1" spans="3:20">
+      <c r="C189" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H189" s="1">
+        <v>2</v>
+      </c>
+      <c r="I189" s="6">
+        <v>0</v>
+      </c>
+      <c r="J189" s="6">
+        <v>0</v>
+      </c>
+      <c r="K189" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L189" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M189" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N189" s="8">
+        <f t="shared" si="6"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="O189" s="8">
+        <v>1</v>
+      </c>
+      <c r="P189" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q189" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R189" s="8">
+        <v>-1</v>
+      </c>
+      <c r="S189" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T189" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="190" customHeight="1" spans="3:20">
+      <c r="C190" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H190" s="1">
+        <v>2</v>
+      </c>
+      <c r="I190" s="6">
+        <v>0</v>
+      </c>
+      <c r="J190" s="6">
+        <v>1</v>
+      </c>
+      <c r="K190" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L190" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M190" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N190" s="8">
+        <f t="shared" si="6"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="O190" s="8">
+        <v>1</v>
+      </c>
+      <c r="P190" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q190" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R190" s="8">
+        <v>-1</v>
+      </c>
+      <c r="S190" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T190" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="191" customHeight="1" spans="3:20">
+      <c r="C191" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H191" s="1">
+        <v>2</v>
+      </c>
+      <c r="I191" s="6">
+        <v>0</v>
+      </c>
+      <c r="J191" s="6">
+        <v>2</v>
+      </c>
+      <c r="K191" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L191" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M191" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N191" s="8">
+        <f t="shared" si="6"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="O191" s="8">
+        <v>1</v>
+      </c>
+      <c r="P191" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q191" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R191" s="8">
+        <v>-1</v>
+      </c>
+      <c r="S191" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T191" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="192" customHeight="1" spans="3:20">
+      <c r="C192" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H192" s="1">
+        <v>2</v>
+      </c>
+      <c r="I192" s="6">
+        <v>0</v>
+      </c>
+      <c r="J192" s="6">
+        <v>3</v>
+      </c>
+      <c r="K192" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L192" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M192" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N192" s="8">
+        <f t="shared" si="6"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="O192" s="8">
+        <v>1</v>
+      </c>
+      <c r="P192" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q192" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R192" s="8">
+        <v>-1</v>
+      </c>
+      <c r="S192" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T192" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="193" customHeight="1" spans="3:20">
+      <c r="C193" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H193" s="1">
+        <v>2</v>
+      </c>
+      <c r="I193" s="6">
+        <v>0</v>
+      </c>
+      <c r="J193" s="6">
+        <v>4</v>
+      </c>
+      <c r="K193" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L193" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M193" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N193" s="8">
+        <f t="shared" si="6"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="O193" s="8">
+        <v>1</v>
+      </c>
+      <c r="P193" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q193" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R193" s="8">
+        <v>-1</v>
+      </c>
+      <c r="S193" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T193" s="6">
         <v>-1</v>
       </c>
     </row>

--- a/global/Item.xlsx
+++ b/global/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -79,13 +79,16 @@
 2: 晶石 3: 礼包</t>
   </si>
   <si>
-    <t>0：材料与消耗品
+    <t xml:space="preserve">物品子类型
+0：材料与消耗品
+装备子类型：
 0: 单手剑
 1: 双手剑
 2: 长柄
 3: 手枪
 4: 法杖
-5: 召唤物</t>
+5: 召唤物
+</t>
   </si>
   <si>
     <t>0:白 @@ -1112,12 +1115,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1132,23 +1135,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1168,16 +1156,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1191,42 +1241,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1238,7 +1257,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -1253,29 +1272,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -1283,15 +1279,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1315,7 +1307,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,25 +1427,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1357,145 +1475,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1520,6 +1512,33 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1554,6 +1573,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1583,189 +1613,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1784,54 +1776,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2979,22 +2971,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:T193"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78:C82"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
     <col min="1" max="7" width="19.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="37" style="1" customWidth="1"/>
-    <col min="9" max="12" width="19.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="26.3833333333333" style="1" customWidth="1"/>
-    <col min="14" max="18" width="32.15" style="1" customWidth="1"/>
-    <col min="19" max="19" width="25.3833333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.3846153846154" style="1" customWidth="1"/>
+    <col min="11" max="12" width="19.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="26.3846153846154" style="1" customWidth="1"/>
+    <col min="14" max="18" width="32.1538461538462" style="1" customWidth="1"/>
+    <col min="19" max="19" width="25.3846153846154" style="1" customWidth="1"/>
     <col min="20" max="16383" width="19.25" style="1" customWidth="1"/>
     <col min="16384" max="16384" width="19.25" style="1"/>
   </cols>
@@ -3023,7 +3017,7 @@
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
     </row>
-    <row r="2" ht="108" spans="1:20">
+    <row r="2" ht="185" spans="1:20">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">

--- a/global/Item.xlsx
+++ b/global/Item.xlsx
@@ -60,26 +60,25 @@
         </r>
       </text>
     </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="390">
-  <si>
-    <t>行列头两行不会被读取</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物品id
-</t>
-  </si>
-  <si>
-    <t>0：普通物品 -1: 装备 -2: 晶石 3: 礼包</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物品子类型
+    <comment ref="I2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+物品子类型
 0：材料与消耗品
 装备子类型：
 0: 单手剑
@@ -88,10 +87,49 @@
 3: 手枪
 4: 法杖
 5: 召唤物
+晶石类型：
+0: 地
+1: 水
+2: 火
+3: 风
+4: 雷
+5: 时
+6: 空
+7：钢
+8：灭</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="390">
+  <si>
+    <t>行列头两行不会被读取</t>
+  </si>
+  <si>
+    <t xml:space="preserve">物品id
 </t>
   </si>
   <si>
+    <t>0：普通物品 +1: 装备 +2: 晶石 3: 礼包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>0:白</t>
     </r>
     <r>
@@ -1338,8 +1376,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -1370,45 +1408,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
@@ -1426,14 +1425,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1447,28 +1453,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -1477,15 +1483,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1500,15 +1506,47 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1552,7 +1590,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1564,7 +1650,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1576,13 +1716,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1594,79 +1734,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1684,55 +1752,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1775,6 +1813,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1799,30 +1861,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1833,15 +1871,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1863,6 +1892,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1877,10 +1915,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1889,133 +1927,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3239,8 +3277,8 @@
   <sheetPr/>
   <dimension ref="A1:T512"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A467" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189:C512"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A471" workbookViewId="0">
+      <selection activeCell="I189" sqref="I189:I512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
@@ -3281,7 +3319,7 @@
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
     </row>
-    <row r="2" ht="148.5" spans="1:20">
+    <row r="2" ht="43.5" spans="1:20">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -15983,7 +16021,7 @@
         <v>2</v>
       </c>
       <c r="I225" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="6">
         <v>0</v>
@@ -16040,7 +16078,7 @@
         <v>2</v>
       </c>
       <c r="I226" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="6">
         <v>1</v>
@@ -16097,7 +16135,7 @@
         <v>2</v>
       </c>
       <c r="I227" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="6">
         <v>2</v>
@@ -16154,7 +16192,7 @@
         <v>2</v>
       </c>
       <c r="I228" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="6">
         <v>3</v>
@@ -16211,7 +16249,7 @@
         <v>2</v>
       </c>
       <c r="I229" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" s="6">
         <v>4</v>
@@ -16268,7 +16306,7 @@
         <v>2</v>
       </c>
       <c r="I230" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" s="1">
         <v>5</v>
@@ -16325,7 +16363,7 @@
         <v>2</v>
       </c>
       <c r="I231" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" s="6">
         <v>0</v>
@@ -16382,7 +16420,7 @@
         <v>2</v>
       </c>
       <c r="I232" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" s="6">
         <v>1</v>
@@ -16439,7 +16477,7 @@
         <v>2</v>
       </c>
       <c r="I233" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233" s="6">
         <v>2</v>
@@ -16496,7 +16534,7 @@
         <v>2</v>
       </c>
       <c r="I234" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" s="6">
         <v>3</v>
@@ -16553,7 +16591,7 @@
         <v>2</v>
       </c>
       <c r="I235" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235" s="6">
         <v>4</v>
@@ -16610,7 +16648,7 @@
         <v>2</v>
       </c>
       <c r="I236" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" s="1">
         <v>5</v>
@@ -16667,7 +16705,7 @@
         <v>2</v>
       </c>
       <c r="I237" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" s="6">
         <v>0</v>
@@ -16724,7 +16762,7 @@
         <v>2</v>
       </c>
       <c r="I238" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" s="6">
         <v>1</v>
@@ -16781,7 +16819,7 @@
         <v>2</v>
       </c>
       <c r="I239" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" s="6">
         <v>2</v>
@@ -16838,7 +16876,7 @@
         <v>2</v>
       </c>
       <c r="I240" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" s="6">
         <v>3</v>
@@ -16895,7 +16933,7 @@
         <v>2</v>
       </c>
       <c r="I241" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" s="6">
         <v>4</v>
@@ -16952,7 +16990,7 @@
         <v>2</v>
       </c>
       <c r="I242" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J242" s="1">
         <v>5</v>
@@ -17009,7 +17047,7 @@
         <v>2</v>
       </c>
       <c r="I243" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243" s="6">
         <v>0</v>
@@ -17066,7 +17104,7 @@
         <v>2</v>
       </c>
       <c r="I244" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" s="6">
         <v>1</v>
@@ -17123,7 +17161,7 @@
         <v>2</v>
       </c>
       <c r="I245" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J245" s="6">
         <v>2</v>
@@ -17180,7 +17218,7 @@
         <v>2</v>
       </c>
       <c r="I246" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J246" s="6">
         <v>3</v>
@@ -17237,7 +17275,7 @@
         <v>2</v>
       </c>
       <c r="I247" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J247" s="6">
         <v>4</v>
@@ -17294,7 +17332,7 @@
         <v>2</v>
       </c>
       <c r="I248" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" s="1">
         <v>5</v>
@@ -17351,7 +17389,7 @@
         <v>2</v>
       </c>
       <c r="I249" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249" s="6">
         <v>0</v>
@@ -17408,7 +17446,7 @@
         <v>2</v>
       </c>
       <c r="I250" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J250" s="6">
         <v>1</v>
@@ -17465,7 +17503,7 @@
         <v>2</v>
       </c>
       <c r="I251" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251" s="6">
         <v>2</v>
@@ -17522,7 +17560,7 @@
         <v>2</v>
       </c>
       <c r="I252" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252" s="6">
         <v>3</v>
@@ -17579,7 +17617,7 @@
         <v>2</v>
       </c>
       <c r="I253" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253" s="6">
         <v>4</v>
@@ -17636,7 +17674,7 @@
         <v>2</v>
       </c>
       <c r="I254" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J254" s="1">
         <v>5</v>
@@ -17693,7 +17731,7 @@
         <v>2</v>
       </c>
       <c r="I255" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J255" s="6">
         <v>0</v>
@@ -17750,7 +17788,7 @@
         <v>2</v>
       </c>
       <c r="I256" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J256" s="6">
         <v>1</v>
@@ -17807,7 +17845,7 @@
         <v>2</v>
       </c>
       <c r="I257" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257" s="6">
         <v>2</v>
@@ -17864,7 +17902,7 @@
         <v>2</v>
       </c>
       <c r="I258" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J258" s="6">
         <v>3</v>
@@ -17921,7 +17959,7 @@
         <v>2</v>
       </c>
       <c r="I259" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J259" s="6">
         <v>4</v>
@@ -17978,7 +18016,7 @@
         <v>2</v>
       </c>
       <c r="I260" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J260" s="1">
         <v>5</v>
@@ -18035,7 +18073,7 @@
         <v>2</v>
       </c>
       <c r="I261" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J261" s="6">
         <v>0</v>
@@ -18092,7 +18130,7 @@
         <v>2</v>
       </c>
       <c r="I262" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J262" s="6">
         <v>1</v>
@@ -18149,7 +18187,7 @@
         <v>2</v>
       </c>
       <c r="I263" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J263" s="6">
         <v>2</v>
@@ -18206,7 +18244,7 @@
         <v>2</v>
       </c>
       <c r="I264" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J264" s="6">
         <v>3</v>
@@ -18263,7 +18301,7 @@
         <v>2</v>
       </c>
       <c r="I265" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J265" s="6">
         <v>4</v>
@@ -18320,7 +18358,7 @@
         <v>2</v>
       </c>
       <c r="I266" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J266" s="1">
         <v>5</v>
@@ -18377,7 +18415,7 @@
         <v>2</v>
       </c>
       <c r="I267" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J267" s="6">
         <v>0</v>
@@ -18434,7 +18472,7 @@
         <v>2</v>
       </c>
       <c r="I268" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J268" s="6">
         <v>1</v>
@@ -18491,7 +18529,7 @@
         <v>2</v>
       </c>
       <c r="I269" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J269" s="6">
         <v>2</v>
@@ -18548,7 +18586,7 @@
         <v>2</v>
       </c>
       <c r="I270" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J270" s="6">
         <v>3</v>
@@ -18605,7 +18643,7 @@
         <v>2</v>
       </c>
       <c r="I271" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J271" s="6">
         <v>4</v>
@@ -18662,7 +18700,7 @@
         <v>2</v>
       </c>
       <c r="I272" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J272" s="1">
         <v>5</v>
@@ -18719,7 +18757,7 @@
         <v>2</v>
       </c>
       <c r="I273" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J273" s="6">
         <v>0</v>
@@ -18776,7 +18814,7 @@
         <v>2</v>
       </c>
       <c r="I274" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J274" s="6">
         <v>1</v>
@@ -18833,7 +18871,7 @@
         <v>2</v>
       </c>
       <c r="I275" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J275" s="6">
         <v>2</v>
@@ -18890,7 +18928,7 @@
         <v>2</v>
       </c>
       <c r="I276" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J276" s="6">
         <v>3</v>
@@ -18947,7 +18985,7 @@
         <v>2</v>
       </c>
       <c r="I277" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J277" s="6">
         <v>4</v>
@@ -19004,7 +19042,7 @@
         <v>2</v>
       </c>
       <c r="I278" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J278" s="1">
         <v>5</v>
@@ -19061,7 +19099,7 @@
         <v>2</v>
       </c>
       <c r="I279" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J279" s="6">
         <v>0</v>
@@ -19118,7 +19156,7 @@
         <v>2</v>
       </c>
       <c r="I280" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J280" s="6">
         <v>1</v>
@@ -19175,7 +19213,7 @@
         <v>2</v>
       </c>
       <c r="I281" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J281" s="6">
         <v>2</v>
@@ -19232,7 +19270,7 @@
         <v>2</v>
       </c>
       <c r="I282" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J282" s="6">
         <v>3</v>
@@ -19289,7 +19327,7 @@
         <v>2</v>
       </c>
       <c r="I283" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J283" s="6">
         <v>4</v>
@@ -19346,7 +19384,7 @@
         <v>2</v>
       </c>
       <c r="I284" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J284" s="1">
         <v>5</v>
@@ -19403,7 +19441,7 @@
         <v>2</v>
       </c>
       <c r="I285" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J285" s="6">
         <v>0</v>
@@ -19460,7 +19498,7 @@
         <v>2</v>
       </c>
       <c r="I286" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J286" s="6">
         <v>1</v>
@@ -19517,7 +19555,7 @@
         <v>2</v>
       </c>
       <c r="I287" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J287" s="6">
         <v>2</v>
@@ -19574,7 +19612,7 @@
         <v>2</v>
       </c>
       <c r="I288" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J288" s="6">
         <v>3</v>
@@ -19631,7 +19669,7 @@
         <v>2</v>
       </c>
       <c r="I289" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J289" s="6">
         <v>4</v>
@@ -19688,7 +19726,7 @@
         <v>2</v>
       </c>
       <c r="I290" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J290" s="1">
         <v>5</v>
@@ -19745,7 +19783,7 @@
         <v>2</v>
       </c>
       <c r="I291" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J291" s="6">
         <v>0</v>
@@ -19802,7 +19840,7 @@
         <v>2</v>
       </c>
       <c r="I292" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J292" s="6">
         <v>1</v>
@@ -19859,7 +19897,7 @@
         <v>2</v>
       </c>
       <c r="I293" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J293" s="6">
         <v>2</v>
@@ -19916,7 +19954,7 @@
         <v>2</v>
       </c>
       <c r="I294" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J294" s="6">
         <v>3</v>
@@ -19973,7 +20011,7 @@
         <v>2</v>
       </c>
       <c r="I295" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J295" s="6">
         <v>4</v>
@@ -20030,7 +20068,7 @@
         <v>2</v>
       </c>
       <c r="I296" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J296" s="1">
         <v>5</v>
@@ -20087,7 +20125,7 @@
         <v>2</v>
       </c>
       <c r="I297" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J297" s="6">
         <v>0</v>
@@ -20144,7 +20182,7 @@
         <v>2</v>
       </c>
       <c r="I298" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J298" s="6">
         <v>1</v>
@@ -20201,7 +20239,7 @@
         <v>2</v>
       </c>
       <c r="I299" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J299" s="6">
         <v>2</v>
@@ -20258,7 +20296,7 @@
         <v>2</v>
       </c>
       <c r="I300" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J300" s="6">
         <v>3</v>
@@ -20315,7 +20353,7 @@
         <v>2</v>
       </c>
       <c r="I301" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J301" s="6">
         <v>4</v>
@@ -20372,7 +20410,7 @@
         <v>2</v>
       </c>
       <c r="I302" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J302" s="1">
         <v>5</v>
@@ -20429,7 +20467,7 @@
         <v>2</v>
       </c>
       <c r="I303" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J303" s="6">
         <v>0</v>
@@ -20486,7 +20524,7 @@
         <v>2</v>
       </c>
       <c r="I304" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J304" s="6">
         <v>1</v>
@@ -20543,7 +20581,7 @@
         <v>2</v>
       </c>
       <c r="I305" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J305" s="6">
         <v>2</v>
@@ -20600,7 +20638,7 @@
         <v>2</v>
       </c>
       <c r="I306" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J306" s="6">
         <v>3</v>
@@ -20657,7 +20695,7 @@
         <v>2</v>
       </c>
       <c r="I307" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J307" s="6">
         <v>4</v>
@@ -20714,7 +20752,7 @@
         <v>2</v>
       </c>
       <c r="I308" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J308" s="1">
         <v>5</v>
@@ -20771,7 +20809,7 @@
         <v>2</v>
       </c>
       <c r="I309" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J309" s="6">
         <v>0</v>
@@ -20828,7 +20866,7 @@
         <v>2</v>
       </c>
       <c r="I310" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J310" s="6">
         <v>1</v>
@@ -20885,7 +20923,7 @@
         <v>2</v>
       </c>
       <c r="I311" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J311" s="6">
         <v>2</v>
@@ -20942,7 +20980,7 @@
         <v>2</v>
       </c>
       <c r="I312" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J312" s="6">
         <v>3</v>
@@ -20999,7 +21037,7 @@
         <v>2</v>
       </c>
       <c r="I313" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J313" s="6">
         <v>4</v>
@@ -21056,7 +21094,7 @@
         <v>2</v>
       </c>
       <c r="I314" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J314" s="1">
         <v>5</v>
@@ -21113,7 +21151,7 @@
         <v>2</v>
       </c>
       <c r="I315" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J315" s="6">
         <v>0</v>
@@ -21170,7 +21208,7 @@
         <v>2</v>
       </c>
       <c r="I316" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J316" s="6">
         <v>1</v>
@@ -21227,7 +21265,7 @@
         <v>2</v>
       </c>
       <c r="I317" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J317" s="6">
         <v>2</v>
@@ -21284,7 +21322,7 @@
         <v>2</v>
       </c>
       <c r="I318" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J318" s="6">
         <v>3</v>
@@ -21341,7 +21379,7 @@
         <v>2</v>
       </c>
       <c r="I319" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J319" s="6">
         <v>4</v>
@@ -21398,7 +21436,7 @@
         <v>2</v>
       </c>
       <c r="I320" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J320" s="1">
         <v>5</v>
@@ -21455,7 +21493,7 @@
         <v>2</v>
       </c>
       <c r="I321" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J321" s="6">
         <v>0</v>
@@ -21512,7 +21550,7 @@
         <v>2</v>
       </c>
       <c r="I322" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J322" s="6">
         <v>1</v>
@@ -21569,7 +21607,7 @@
         <v>2</v>
       </c>
       <c r="I323" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J323" s="6">
         <v>2</v>
@@ -21626,7 +21664,7 @@
         <v>2</v>
       </c>
       <c r="I324" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J324" s="6">
         <v>3</v>
@@ -21683,7 +21721,7 @@
         <v>2</v>
       </c>
       <c r="I325" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J325" s="6">
         <v>4</v>
@@ -21740,7 +21778,7 @@
         <v>2</v>
       </c>
       <c r="I326" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J326" s="1">
         <v>5</v>
@@ -21797,7 +21835,7 @@
         <v>2</v>
       </c>
       <c r="I327" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J327" s="6">
         <v>0</v>
@@ -21854,7 +21892,7 @@
         <v>2</v>
       </c>
       <c r="I328" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J328" s="6">
         <v>1</v>
@@ -21911,7 +21949,7 @@
         <v>2</v>
       </c>
       <c r="I329" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J329" s="6">
         <v>2</v>
@@ -21968,7 +22006,7 @@
         <v>2</v>
       </c>
       <c r="I330" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J330" s="6">
         <v>3</v>
@@ -22025,7 +22063,7 @@
         <v>2</v>
       </c>
       <c r="I331" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J331" s="6">
         <v>4</v>
@@ -22082,7 +22120,7 @@
         <v>2</v>
       </c>
       <c r="I332" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J332" s="1">
         <v>5</v>
@@ -22139,7 +22177,7 @@
         <v>2</v>
       </c>
       <c r="I333" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J333" s="6">
         <v>0</v>
@@ -22196,7 +22234,7 @@
         <v>2</v>
       </c>
       <c r="I334" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J334" s="6">
         <v>1</v>
@@ -22253,7 +22291,7 @@
         <v>2</v>
       </c>
       <c r="I335" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J335" s="6">
         <v>2</v>
@@ -22310,7 +22348,7 @@
         <v>2</v>
       </c>
       <c r="I336" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J336" s="6">
         <v>3</v>
@@ -22367,7 +22405,7 @@
         <v>2</v>
       </c>
       <c r="I337" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J337" s="6">
         <v>4</v>
@@ -22424,7 +22462,7 @@
         <v>2</v>
       </c>
       <c r="I338" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J338" s="1">
         <v>5</v>
@@ -22481,7 +22519,7 @@
         <v>2</v>
       </c>
       <c r="I339" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J339" s="6">
         <v>0</v>
@@ -22538,7 +22576,7 @@
         <v>2</v>
       </c>
       <c r="I340" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J340" s="6">
         <v>1</v>
@@ -22595,7 +22633,7 @@
         <v>2</v>
       </c>
       <c r="I341" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J341" s="6">
         <v>2</v>
@@ -22652,7 +22690,7 @@
         <v>2</v>
       </c>
       <c r="I342" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J342" s="6">
         <v>3</v>
@@ -22709,7 +22747,7 @@
         <v>2</v>
       </c>
       <c r="I343" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J343" s="6">
         <v>4</v>
@@ -22766,7 +22804,7 @@
         <v>2</v>
       </c>
       <c r="I344" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J344" s="1">
         <v>5</v>
@@ -22823,7 +22861,7 @@
         <v>2</v>
       </c>
       <c r="I345" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J345" s="6">
         <v>0</v>
@@ -22880,7 +22918,7 @@
         <v>2</v>
       </c>
       <c r="I346" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J346" s="6">
         <v>1</v>
@@ -22937,7 +22975,7 @@
         <v>2</v>
       </c>
       <c r="I347" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J347" s="6">
         <v>2</v>
@@ -22994,7 +23032,7 @@
         <v>2</v>
       </c>
       <c r="I348" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J348" s="6">
         <v>3</v>
@@ -23051,7 +23089,7 @@
         <v>2</v>
       </c>
       <c r="I349" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J349" s="6">
         <v>4</v>
@@ -23108,7 +23146,7 @@
         <v>2</v>
       </c>
       <c r="I350" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J350" s="1">
         <v>5</v>
@@ -23165,7 +23203,7 @@
         <v>2</v>
       </c>
       <c r="I351" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J351" s="6">
         <v>0</v>
@@ -23222,7 +23260,7 @@
         <v>2</v>
       </c>
       <c r="I352" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J352" s="6">
         <v>1</v>
@@ -23279,7 +23317,7 @@
         <v>2</v>
       </c>
       <c r="I353" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J353" s="6">
         <v>2</v>
@@ -23336,7 +23374,7 @@
         <v>2</v>
       </c>
       <c r="I354" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J354" s="6">
         <v>3</v>
@@ -23393,7 +23431,7 @@
         <v>2</v>
       </c>
       <c r="I355" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J355" s="6">
         <v>4</v>
@@ -23450,7 +23488,7 @@
         <v>2</v>
       </c>
       <c r="I356" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J356" s="1">
         <v>5</v>
@@ -23507,7 +23545,7 @@
         <v>2</v>
       </c>
       <c r="I357" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J357" s="6">
         <v>0</v>
@@ -23564,7 +23602,7 @@
         <v>2</v>
       </c>
       <c r="I358" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J358" s="6">
         <v>1</v>
@@ -23621,7 +23659,7 @@
         <v>2</v>
       </c>
       <c r="I359" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J359" s="6">
         <v>2</v>
@@ -23678,7 +23716,7 @@
         <v>2</v>
       </c>
       <c r="I360" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J360" s="6">
         <v>3</v>
@@ -23735,7 +23773,7 @@
         <v>2</v>
       </c>
       <c r="I361" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J361" s="6">
         <v>4</v>
@@ -23792,7 +23830,7 @@
         <v>2</v>
       </c>
       <c r="I362" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J362" s="1">
         <v>5</v>
@@ -23849,7 +23887,7 @@
         <v>2</v>
       </c>
       <c r="I363" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J363" s="6">
         <v>0</v>
@@ -23906,7 +23944,7 @@
         <v>2</v>
       </c>
       <c r="I364" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J364" s="6">
         <v>1</v>
@@ -23963,7 +24001,7 @@
         <v>2</v>
       </c>
       <c r="I365" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J365" s="6">
         <v>2</v>
@@ -24020,7 +24058,7 @@
         <v>2</v>
       </c>
       <c r="I366" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J366" s="6">
         <v>3</v>
@@ -24077,7 +24115,7 @@
         <v>2</v>
       </c>
       <c r="I367" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J367" s="6">
         <v>4</v>
@@ -24134,7 +24172,7 @@
         <v>2</v>
       </c>
       <c r="I368" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J368" s="1">
         <v>5</v>
@@ -24191,7 +24229,7 @@
         <v>2</v>
       </c>
       <c r="I369" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J369" s="6">
         <v>0</v>
@@ -24248,7 +24286,7 @@
         <v>2</v>
       </c>
       <c r="I370" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J370" s="6">
         <v>1</v>
@@ -24305,7 +24343,7 @@
         <v>2</v>
       </c>
       <c r="I371" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J371" s="6">
         <v>2</v>
@@ -24362,7 +24400,7 @@
         <v>2</v>
       </c>
       <c r="I372" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J372" s="6">
         <v>3</v>
@@ -24419,7 +24457,7 @@
         <v>2</v>
       </c>
       <c r="I373" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J373" s="6">
         <v>4</v>
@@ -24476,7 +24514,7 @@
         <v>2</v>
       </c>
       <c r="I374" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J374" s="1">
         <v>5</v>
@@ -24533,7 +24571,7 @@
         <v>2</v>
       </c>
       <c r="I375" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J375" s="6">
         <v>0</v>
@@ -24590,7 +24628,7 @@
         <v>2</v>
       </c>
       <c r="I376" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J376" s="6">
         <v>1</v>
@@ -24647,7 +24685,7 @@
         <v>2</v>
       </c>
       <c r="I377" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J377" s="6">
         <v>2</v>
@@ -24704,7 +24742,7 @@
         <v>2</v>
       </c>
       <c r="I378" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J378" s="6">
         <v>3</v>
@@ -24761,7 +24799,7 @@
         <v>2</v>
       </c>
       <c r="I379" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J379" s="6">
         <v>4</v>
@@ -24818,7 +24856,7 @@
         <v>2</v>
       </c>
       <c r="I380" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J380" s="1">
         <v>5</v>
@@ -24875,7 +24913,7 @@
         <v>2</v>
       </c>
       <c r="I381" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J381" s="6">
         <v>0</v>
@@ -24932,7 +24970,7 @@
         <v>2</v>
       </c>
       <c r="I382" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J382" s="6">
         <v>1</v>
@@ -24989,7 +25027,7 @@
         <v>2</v>
       </c>
       <c r="I383" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J383" s="6">
         <v>2</v>
@@ -25046,7 +25084,7 @@
         <v>2</v>
       </c>
       <c r="I384" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J384" s="6">
         <v>3</v>
@@ -25103,7 +25141,7 @@
         <v>2</v>
       </c>
       <c r="I385" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J385" s="6">
         <v>4</v>
@@ -25160,7 +25198,7 @@
         <v>2</v>
       </c>
       <c r="I386" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J386" s="1">
         <v>5</v>
@@ -25217,7 +25255,7 @@
         <v>2</v>
       </c>
       <c r="I387" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J387" s="6">
         <v>0</v>
@@ -25274,7 +25312,7 @@
         <v>2</v>
       </c>
       <c r="I388" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J388" s="6">
         <v>1</v>
@@ -25331,7 +25369,7 @@
         <v>2</v>
       </c>
       <c r="I389" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J389" s="6">
         <v>2</v>
@@ -25388,7 +25426,7 @@
         <v>2</v>
       </c>
       <c r="I390" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J390" s="6">
         <v>3</v>
@@ -25445,7 +25483,7 @@
         <v>2</v>
       </c>
       <c r="I391" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J391" s="6">
         <v>4</v>
@@ -25502,7 +25540,7 @@
         <v>2</v>
       </c>
       <c r="I392" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J392" s="1">
         <v>5</v>
@@ -25559,7 +25597,7 @@
         <v>2</v>
       </c>
       <c r="I393" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J393" s="6">
         <v>0</v>
@@ -25616,7 +25654,7 @@
         <v>2</v>
       </c>
       <c r="I394" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J394" s="6">
         <v>1</v>
@@ -25673,7 +25711,7 @@
         <v>2</v>
       </c>
       <c r="I395" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J395" s="6">
         <v>2</v>
@@ -25730,7 +25768,7 @@
         <v>2</v>
       </c>
       <c r="I396" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J396" s="6">
         <v>3</v>
@@ -25787,7 +25825,7 @@
         <v>2</v>
       </c>
       <c r="I397" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J397" s="6">
         <v>4</v>
@@ -25844,7 +25882,7 @@
         <v>2</v>
       </c>
       <c r="I398" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J398" s="1">
         <v>5</v>
@@ -25901,7 +25939,7 @@
         <v>2</v>
       </c>
       <c r="I399" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J399" s="6">
         <v>0</v>
@@ -25958,7 +25996,7 @@
         <v>2</v>
       </c>
       <c r="I400" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J400" s="6">
         <v>1</v>
@@ -26015,7 +26053,7 @@
         <v>2</v>
       </c>
       <c r="I401" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J401" s="6">
         <v>2</v>
@@ -26072,7 +26110,7 @@
         <v>2</v>
       </c>
       <c r="I402" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J402" s="6">
         <v>3</v>
@@ -26129,7 +26167,7 @@
         <v>2</v>
       </c>
       <c r="I403" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J403" s="6">
         <v>4</v>
@@ -26186,7 +26224,7 @@
         <v>2</v>
       </c>
       <c r="I404" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J404" s="1">
         <v>5</v>
@@ -26243,7 +26281,7 @@
         <v>2</v>
       </c>
       <c r="I405" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J405" s="6">
         <v>0</v>
@@ -26300,7 +26338,7 @@
         <v>2</v>
       </c>
       <c r="I406" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J406" s="6">
         <v>1</v>
@@ -26357,7 +26395,7 @@
         <v>2</v>
       </c>
       <c r="I407" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J407" s="6">
         <v>2</v>
@@ -26414,7 +26452,7 @@
         <v>2</v>
       </c>
       <c r="I408" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J408" s="6">
         <v>3</v>
@@ -26471,7 +26509,7 @@
         <v>2</v>
       </c>
       <c r="I409" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J409" s="6">
         <v>4</v>
@@ -26528,7 +26566,7 @@
         <v>2</v>
       </c>
       <c r="I410" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J410" s="1">
         <v>5</v>
@@ -26585,7 +26623,7 @@
         <v>2</v>
       </c>
       <c r="I411" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J411" s="6">
         <v>0</v>
@@ -26642,7 +26680,7 @@
         <v>2</v>
       </c>
       <c r="I412" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J412" s="6">
         <v>1</v>
@@ -26699,7 +26737,7 @@
         <v>2</v>
       </c>
       <c r="I413" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J413" s="6">
         <v>2</v>
@@ -26756,7 +26794,7 @@
         <v>2</v>
       </c>
       <c r="I414" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J414" s="6">
         <v>3</v>
@@ -26813,7 +26851,7 @@
         <v>2</v>
       </c>
       <c r="I415" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J415" s="6">
         <v>4</v>
@@ -26870,7 +26908,7 @@
         <v>2</v>
       </c>
       <c r="I416" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J416" s="1">
         <v>5</v>
@@ -26927,7 +26965,7 @@
         <v>2</v>
       </c>
       <c r="I417" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J417" s="6">
         <v>0</v>
@@ -26984,7 +27022,7 @@
         <v>2</v>
       </c>
       <c r="I418" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J418" s="6">
         <v>1</v>
@@ -27041,7 +27079,7 @@
         <v>2</v>
       </c>
       <c r="I419" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J419" s="6">
         <v>2</v>
@@ -27098,7 +27136,7 @@
         <v>2</v>
       </c>
       <c r="I420" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J420" s="6">
         <v>3</v>
@@ -27155,7 +27193,7 @@
         <v>2</v>
       </c>
       <c r="I421" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J421" s="6">
         <v>4</v>
@@ -27212,7 +27250,7 @@
         <v>2</v>
       </c>
       <c r="I422" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J422" s="1">
         <v>5</v>
@@ -27269,7 +27307,7 @@
         <v>2</v>
       </c>
       <c r="I423" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J423" s="6">
         <v>0</v>
@@ -27326,7 +27364,7 @@
         <v>2</v>
       </c>
       <c r="I424" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J424" s="6">
         <v>1</v>
@@ -27383,7 +27421,7 @@
         <v>2</v>
       </c>
       <c r="I425" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J425" s="6">
         <v>2</v>
@@ -27440,7 +27478,7 @@
         <v>2</v>
       </c>
       <c r="I426" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J426" s="6">
         <v>3</v>
@@ -27497,7 +27535,7 @@
         <v>2</v>
       </c>
       <c r="I427" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J427" s="6">
         <v>4</v>
@@ -27554,7 +27592,7 @@
         <v>2</v>
       </c>
       <c r="I428" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J428" s="1">
         <v>5</v>
@@ -27611,7 +27649,7 @@
         <v>2</v>
       </c>
       <c r="I429" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J429" s="6">
         <v>0</v>
@@ -27668,7 +27706,7 @@
         <v>2</v>
       </c>
       <c r="I430" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J430" s="6">
         <v>1</v>
@@ -27725,7 +27763,7 @@
         <v>2</v>
       </c>
       <c r="I431" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J431" s="6">
         <v>2</v>
@@ -27782,7 +27820,7 @@
         <v>2</v>
       </c>
       <c r="I432" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J432" s="6">
         <v>3</v>
@@ -27839,7 +27877,7 @@
         <v>2</v>
       </c>
       <c r="I433" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J433" s="6">
         <v>4</v>
@@ -27896,7 +27934,7 @@
         <v>2</v>
       </c>
       <c r="I434" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J434" s="1">
         <v>5</v>
@@ -27953,7 +27991,7 @@
         <v>2</v>
       </c>
       <c r="I435" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J435" s="6">
         <v>0</v>
@@ -28010,7 +28048,7 @@
         <v>2</v>
       </c>
       <c r="I436" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J436" s="6">
         <v>1</v>
@@ -28067,7 +28105,7 @@
         <v>2</v>
       </c>
       <c r="I437" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J437" s="6">
         <v>2</v>
@@ -28124,7 +28162,7 @@
         <v>2</v>
       </c>
       <c r="I438" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J438" s="6">
         <v>3</v>
@@ -28181,7 +28219,7 @@
         <v>2</v>
       </c>
       <c r="I439" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J439" s="6">
         <v>4</v>
@@ -28238,7 +28276,7 @@
         <v>2</v>
       </c>
       <c r="I440" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J440" s="1">
         <v>5</v>
@@ -28295,7 +28333,7 @@
         <v>2</v>
       </c>
       <c r="I441" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J441" s="6">
         <v>0</v>
@@ -28352,7 +28390,7 @@
         <v>2</v>
       </c>
       <c r="I442" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J442" s="6">
         <v>1</v>
@@ -28409,7 +28447,7 @@
         <v>2</v>
       </c>
       <c r="I443" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J443" s="6">
         <v>2</v>
@@ -28466,7 +28504,7 @@
         <v>2</v>
       </c>
       <c r="I444" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J444" s="6">
         <v>3</v>
@@ -28523,7 +28561,7 @@
         <v>2</v>
       </c>
       <c r="I445" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J445" s="6">
         <v>4</v>
@@ -28580,7 +28618,7 @@
         <v>2</v>
       </c>
       <c r="I446" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J446" s="1">
         <v>5</v>
@@ -28637,7 +28675,7 @@
         <v>2</v>
       </c>
       <c r="I447" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J447" s="6">
         <v>0</v>
@@ -28694,7 +28732,7 @@
         <v>2</v>
       </c>
       <c r="I448" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J448" s="6">
         <v>1</v>
@@ -28751,7 +28789,7 @@
         <v>2</v>
       </c>
       <c r="I449" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J449" s="6">
         <v>2</v>
@@ -28808,7 +28846,7 @@
         <v>2</v>
       </c>
       <c r="I450" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J450" s="6">
         <v>3</v>
@@ -28865,7 +28903,7 @@
         <v>2</v>
       </c>
       <c r="I451" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J451" s="6">
         <v>4</v>
@@ -28922,7 +28960,7 @@
         <v>2</v>
       </c>
       <c r="I452" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J452" s="1">
         <v>5</v>
@@ -28979,7 +29017,7 @@
         <v>2</v>
       </c>
       <c r="I453" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J453" s="6">
         <v>0</v>
@@ -29036,7 +29074,7 @@
         <v>2</v>
       </c>
       <c r="I454" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J454" s="6">
         <v>1</v>
@@ -29093,7 +29131,7 @@
         <v>2</v>
       </c>
       <c r="I455" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J455" s="6">
         <v>2</v>
@@ -29150,7 +29188,7 @@
         <v>2</v>
       </c>
       <c r="I456" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J456" s="6">
         <v>3</v>
@@ -29207,7 +29245,7 @@
         <v>2</v>
       </c>
       <c r="I457" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J457" s="6">
         <v>4</v>
@@ -29264,7 +29302,7 @@
         <v>2</v>
       </c>
       <c r="I458" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J458" s="1">
         <v>5</v>
@@ -29321,7 +29359,7 @@
         <v>2</v>
       </c>
       <c r="I459" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J459" s="6">
         <v>0</v>
@@ -29378,7 +29416,7 @@
         <v>2</v>
       </c>
       <c r="I460" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J460" s="6">
         <v>1</v>
@@ -29435,7 +29473,7 @@
         <v>2</v>
       </c>
       <c r="I461" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J461" s="6">
         <v>2</v>
@@ -29492,7 +29530,7 @@
         <v>2</v>
       </c>
       <c r="I462" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J462" s="6">
         <v>3</v>
@@ -29549,7 +29587,7 @@
         <v>2</v>
       </c>
       <c r="I463" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J463" s="6">
         <v>4</v>
@@ -29606,7 +29644,7 @@
         <v>2</v>
       </c>
       <c r="I464" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J464" s="1">
         <v>5</v>
@@ -29663,7 +29701,7 @@
         <v>2</v>
       </c>
       <c r="I465" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J465" s="6">
         <v>0</v>
@@ -29720,7 +29758,7 @@
         <v>2</v>
       </c>
       <c r="I466" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J466" s="6">
         <v>1</v>
@@ -29777,7 +29815,7 @@
         <v>2</v>
       </c>
       <c r="I467" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J467" s="6">
         <v>2</v>
@@ -29834,7 +29872,7 @@
         <v>2</v>
       </c>
       <c r="I468" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J468" s="6">
         <v>3</v>
@@ -29891,7 +29929,7 @@
         <v>2</v>
       </c>
       <c r="I469" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J469" s="6">
         <v>4</v>
@@ -29948,7 +29986,7 @@
         <v>2</v>
       </c>
       <c r="I470" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J470" s="1">
         <v>5</v>
@@ -30005,7 +30043,7 @@
         <v>2</v>
       </c>
       <c r="I471" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J471" s="6">
         <v>0</v>
@@ -30062,7 +30100,7 @@
         <v>2</v>
       </c>
       <c r="I472" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J472" s="6">
         <v>1</v>
@@ -30119,7 +30157,7 @@
         <v>2</v>
       </c>
       <c r="I473" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J473" s="6">
         <v>2</v>
@@ -30176,7 +30214,7 @@
         <v>2</v>
       </c>
       <c r="I474" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J474" s="6">
         <v>3</v>
@@ -30233,7 +30271,7 @@
         <v>2</v>
       </c>
       <c r="I475" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J475" s="6">
         <v>4</v>
@@ -30290,7 +30328,7 @@
         <v>2</v>
       </c>
       <c r="I476" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J476" s="1">
         <v>5</v>
@@ -30347,7 +30385,7 @@
         <v>2</v>
       </c>
       <c r="I477" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J477" s="6">
         <v>0</v>
@@ -30404,7 +30442,7 @@
         <v>2</v>
       </c>
       <c r="I478" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J478" s="6">
         <v>1</v>
@@ -30461,7 +30499,7 @@
         <v>2</v>
       </c>
       <c r="I479" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J479" s="6">
         <v>2</v>
@@ -30518,7 +30556,7 @@
         <v>2</v>
       </c>
       <c r="I480" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J480" s="6">
         <v>3</v>
@@ -30575,7 +30613,7 @@
         <v>2</v>
       </c>
       <c r="I481" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J481" s="6">
         <v>4</v>
@@ -30632,7 +30670,7 @@
         <v>2</v>
       </c>
       <c r="I482" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J482" s="1">
         <v>5</v>
@@ -30689,7 +30727,7 @@
         <v>2</v>
       </c>
       <c r="I483" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J483" s="6">
         <v>0</v>
@@ -30746,7 +30784,7 @@
         <v>2</v>
       </c>
       <c r="I484" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J484" s="6">
         <v>1</v>
@@ -30803,7 +30841,7 @@
         <v>2</v>
       </c>
       <c r="I485" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J485" s="6">
         <v>2</v>
@@ -30860,7 +30898,7 @@
         <v>2</v>
       </c>
       <c r="I486" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J486" s="6">
         <v>3</v>
@@ -30917,7 +30955,7 @@
         <v>2</v>
       </c>
       <c r="I487" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J487" s="6">
         <v>4</v>
@@ -30974,7 +31012,7 @@
         <v>2</v>
       </c>
       <c r="I488" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J488" s="1">
         <v>5</v>
@@ -31031,7 +31069,7 @@
         <v>2</v>
       </c>
       <c r="I489" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J489" s="6">
         <v>0</v>
@@ -31088,7 +31126,7 @@
         <v>2</v>
       </c>
       <c r="I490" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J490" s="6">
         <v>1</v>
@@ -31145,7 +31183,7 @@
         <v>2</v>
       </c>
       <c r="I491" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J491" s="6">
         <v>2</v>
@@ -31202,7 +31240,7 @@
         <v>2</v>
       </c>
       <c r="I492" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J492" s="6">
         <v>3</v>
@@ -31259,7 +31297,7 @@
         <v>2</v>
       </c>
       <c r="I493" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J493" s="6">
         <v>4</v>
@@ -31316,7 +31354,7 @@
         <v>2</v>
       </c>
       <c r="I494" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J494" s="1">
         <v>5</v>
@@ -31373,7 +31411,7 @@
         <v>2</v>
       </c>
       <c r="I495" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J495" s="6">
         <v>0</v>
@@ -31430,7 +31468,7 @@
         <v>2</v>
       </c>
       <c r="I496" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J496" s="6">
         <v>1</v>
@@ -31487,7 +31525,7 @@
         <v>2</v>
       </c>
       <c r="I497" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J497" s="6">
         <v>2</v>
@@ -31544,7 +31582,7 @@
         <v>2</v>
       </c>
       <c r="I498" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J498" s="6">
         <v>3</v>
@@ -31601,7 +31639,7 @@
         <v>2</v>
       </c>
       <c r="I499" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J499" s="6">
         <v>4</v>
@@ -31658,7 +31696,7 @@
         <v>2</v>
       </c>
       <c r="I500" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J500" s="1">
         <v>5</v>
@@ -31715,7 +31753,7 @@
         <v>2</v>
       </c>
       <c r="I501" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J501" s="6">
         <v>0</v>
@@ -31772,7 +31810,7 @@
         <v>2</v>
       </c>
       <c r="I502" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J502" s="6">
         <v>1</v>
@@ -31829,7 +31867,7 @@
         <v>2</v>
       </c>
       <c r="I503" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J503" s="6">
         <v>2</v>
@@ -31886,7 +31924,7 @@
         <v>2</v>
       </c>
       <c r="I504" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J504" s="6">
         <v>3</v>
@@ -31943,7 +31981,7 @@
         <v>2</v>
       </c>
       <c r="I505" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J505" s="6">
         <v>4</v>
@@ -32000,7 +32038,7 @@
         <v>2</v>
       </c>
       <c r="I506" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J506" s="1">
         <v>5</v>
@@ -32057,7 +32095,7 @@
         <v>2</v>
       </c>
       <c r="I507" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J507" s="6">
         <v>0</v>
@@ -32114,7 +32152,7 @@
         <v>2</v>
       </c>
       <c r="I508" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J508" s="6">
         <v>1</v>
@@ -32171,7 +32209,7 @@
         <v>2</v>
       </c>
       <c r="I509" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J509" s="6">
         <v>2</v>
@@ -32228,7 +32266,7 @@
         <v>2</v>
       </c>
       <c r="I510" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J510" s="6">
         <v>3</v>
@@ -32285,7 +32323,7 @@
         <v>2</v>
       </c>
       <c r="I511" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J511" s="6">
         <v>4</v>
@@ -32342,7 +32380,7 @@
         <v>2</v>
       </c>
       <c r="I512" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J512" s="1">
         <v>5</v>
